--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{580AA392-6466-D548-8F15-670D94FD880D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2660" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2664" windowWidth="25596" windowHeight="15996"/>
   </bookViews>
   <sheets>
     <sheet name="Laphar" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="297">
   <si>
     <t>NO</t>
   </si>
@@ -993,22 +992,13 @@
     <t>NAMA XXXX</t>
   </si>
   <si>
-    <t>PANGKAT &amp; NRP</t>
-  </si>
-  <si>
-    <t>NAMA</t>
-  </si>
-  <si>
-    <t>JABATAN</t>
-  </si>
-  <si>
     <t>AKP NRP 83099999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -1475,36 +1465,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1595,14 +1555,44 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{739B18D8-0B63-CF49-B710-C7191DD23C80}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2032,23 +2022,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2084,23 +2057,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2276,98 +2232,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="178" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A409" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.5" style="2" customWidth="1"/>
-    <col min="3" max="7" width="12.83203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="12.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="55" t="s">
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="92" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="24">
         <v>2019</v>
       </c>
@@ -2380,9 +2336,9 @@
       <c r="F10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G10" s="92"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2405,7 +2361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>230</v>
       </c>
@@ -2418,7 +2374,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2433,7 +2389,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -2483,7 +2439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -2508,7 +2464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -2523,7 +2479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -2538,7 +2494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -2563,7 +2519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>16</v>
@@ -2611,7 +2567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -2636,7 +2592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
@@ -2661,7 +2617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
@@ -2686,7 +2642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>20</v>
@@ -2709,7 +2665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -2732,7 +2688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>22</v>
@@ -2755,7 +2711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>23</v>
@@ -2778,7 +2734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>24</v>
@@ -2801,7 +2757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>25</v>
@@ -2824,7 +2780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>26</v>
@@ -2847,7 +2803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>27</v>
@@ -2870,7 +2826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
         <v>28</v>
@@ -2893,7 +2849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
@@ -2918,7 +2874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +2899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
@@ -2968,7 +2924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -2981,408 +2937,408 @@
       <c r="F37" s="50"/>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="94"/>
-      <c r="B38" s="95" t="s">
+    <row r="38" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="84"/>
+      <c r="B38" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="77">
-        <v>0</v>
-      </c>
-      <c r="D38" s="77">
-        <v>0</v>
-      </c>
-      <c r="E38" s="67" t="str">
+      <c r="C38" s="67">
+        <v>0</v>
+      </c>
+      <c r="D38" s="67">
+        <v>0</v>
+      </c>
+      <c r="E38" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F38" s="68" t="e">
+      <c r="F38" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="94"/>
-      <c r="B39" s="95" t="s">
+    <row r="39" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="84"/>
+      <c r="B39" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="77">
-        <v>0</v>
-      </c>
-      <c r="D39" s="77">
-        <v>0</v>
-      </c>
-      <c r="E39" s="67" t="str">
+      <c r="C39" s="67">
+        <v>0</v>
+      </c>
+      <c r="D39" s="67">
+        <v>0</v>
+      </c>
+      <c r="E39" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F39" s="68" t="e">
+      <c r="F39" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="94"/>
-      <c r="B40" s="95" t="s">
+    <row r="40" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="84"/>
+      <c r="B40" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="77">
-        <v>0</v>
-      </c>
-      <c r="D40" s="77">
-        <v>0</v>
-      </c>
-      <c r="E40" s="67" t="str">
+      <c r="C40" s="67">
+        <v>0</v>
+      </c>
+      <c r="D40" s="67">
+        <v>0</v>
+      </c>
+      <c r="E40" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F40" s="68" t="e">
+      <c r="F40" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="G40" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="94"/>
-      <c r="B41" s="95" t="s">
+    <row r="41" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="84"/>
+      <c r="B41" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="77">
-        <v>0</v>
-      </c>
-      <c r="D41" s="77">
-        <v>0</v>
-      </c>
-      <c r="E41" s="67" t="str">
+      <c r="C41" s="67">
+        <v>0</v>
+      </c>
+      <c r="D41" s="67">
+        <v>0</v>
+      </c>
+      <c r="E41" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F41" s="68" t="e">
+      <c r="F41" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="69" t="s">
+      <c r="G41" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="94"/>
-      <c r="B42" s="95" t="s">
+    <row r="42" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="84"/>
+      <c r="B42" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="77">
-        <v>0</v>
-      </c>
-      <c r="D42" s="77">
-        <v>0</v>
-      </c>
-      <c r="E42" s="67" t="str">
+      <c r="C42" s="67">
+        <v>0</v>
+      </c>
+      <c r="D42" s="67">
+        <v>0</v>
+      </c>
+      <c r="E42" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F42" s="68" t="e">
+      <c r="F42" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="69" t="s">
+      <c r="G42" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="94"/>
-      <c r="B43" s="95" t="s">
+    <row r="43" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="84"/>
+      <c r="B43" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="77">
-        <v>0</v>
-      </c>
-      <c r="D43" s="77">
-        <v>0</v>
-      </c>
-      <c r="E43" s="67" t="str">
+      <c r="C43" s="67">
+        <v>0</v>
+      </c>
+      <c r="D43" s="67">
+        <v>0</v>
+      </c>
+      <c r="E43" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F43" s="68" t="e">
+      <c r="F43" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="G43" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="94"/>
-      <c r="B44" s="95" t="s">
+    <row r="44" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="77">
-        <v>0</v>
-      </c>
-      <c r="D44" s="77">
-        <v>0</v>
-      </c>
-      <c r="E44" s="67" t="str">
+      <c r="C44" s="67">
+        <v>0</v>
+      </c>
+      <c r="D44" s="67">
+        <v>0</v>
+      </c>
+      <c r="E44" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F44" s="68" t="e">
+      <c r="F44" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="69" t="s">
+      <c r="G44" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="94"/>
-      <c r="B45" s="95" t="s">
+    <row r="45" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="77">
-        <v>0</v>
-      </c>
-      <c r="D45" s="77">
-        <v>0</v>
-      </c>
-      <c r="E45" s="67" t="str">
+      <c r="C45" s="67">
+        <v>0</v>
+      </c>
+      <c r="D45" s="67">
+        <v>0</v>
+      </c>
+      <c r="E45" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F45" s="68" t="e">
+      <c r="F45" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="94"/>
-      <c r="B46" s="95" t="s">
+    <row r="46" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="84"/>
+      <c r="B46" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="77">
-        <v>0</v>
-      </c>
-      <c r="D46" s="77">
-        <v>0</v>
-      </c>
-      <c r="E46" s="67" t="str">
+      <c r="C46" s="67">
+        <v>0</v>
+      </c>
+      <c r="D46" s="67">
+        <v>0</v>
+      </c>
+      <c r="E46" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F46" s="68" t="e">
+      <c r="F46" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="69" t="s">
+      <c r="G46" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="94"/>
-      <c r="B47" s="95" t="s">
+    <row r="47" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="84"/>
+      <c r="B47" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="77">
-        <v>0</v>
-      </c>
-      <c r="D47" s="77">
-        <v>0</v>
-      </c>
-      <c r="E47" s="67" t="str">
+      <c r="C47" s="67">
+        <v>0</v>
+      </c>
+      <c r="D47" s="67">
+        <v>0</v>
+      </c>
+      <c r="E47" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F47" s="68" t="e">
+      <c r="F47" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="94"/>
-      <c r="B48" s="95" t="s">
+    <row r="48" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="84"/>
+      <c r="B48" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="77">
-        <v>0</v>
-      </c>
-      <c r="D48" s="77">
-        <v>0</v>
-      </c>
-      <c r="E48" s="67" t="str">
+      <c r="C48" s="67">
+        <v>0</v>
+      </c>
+      <c r="D48" s="67">
+        <v>0</v>
+      </c>
+      <c r="E48" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F48" s="68" t="e">
+      <c r="F48" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="G48" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="95" t="s">
+    <row r="49" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="77">
-        <v>0</v>
-      </c>
-      <c r="D49" s="77">
-        <v>0</v>
-      </c>
-      <c r="E49" s="67" t="str">
+      <c r="C49" s="67">
+        <v>0</v>
+      </c>
+      <c r="D49" s="67">
+        <v>0</v>
+      </c>
+      <c r="E49" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F49" s="68" t="e">
+      <c r="F49" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="95" t="s">
+    <row r="50" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="77">
-        <v>0</v>
-      </c>
-      <c r="D50" s="77">
-        <v>0</v>
-      </c>
-      <c r="E50" s="67" t="str">
+      <c r="C50" s="67">
+        <v>0</v>
+      </c>
+      <c r="D50" s="67">
+        <v>0</v>
+      </c>
+      <c r="E50" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F50" s="68" t="e">
+      <c r="F50" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="69" t="s">
+      <c r="G50" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="95" t="s">
+    <row r="51" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="77">
-        <v>0</v>
-      </c>
-      <c r="D51" s="77">
-        <v>0</v>
-      </c>
-      <c r="E51" s="67" t="str">
+      <c r="C51" s="67">
+        <v>0</v>
+      </c>
+      <c r="D51" s="67">
+        <v>0</v>
+      </c>
+      <c r="E51" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F51" s="68" t="e">
+      <c r="F51" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="69" t="s">
+      <c r="G51" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="95" t="s">
+    <row r="52" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="77">
-        <v>0</v>
-      </c>
-      <c r="D52" s="77">
-        <v>0</v>
-      </c>
-      <c r="E52" s="67" t="str">
+      <c r="C52" s="67">
+        <v>0</v>
+      </c>
+      <c r="D52" s="67">
+        <v>0</v>
+      </c>
+      <c r="E52" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F52" s="68" t="e">
+      <c r="F52" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="69" t="s">
+      <c r="G52" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="95" t="s">
+    <row r="53" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="77">
-        <v>0</v>
-      </c>
-      <c r="D53" s="77">
-        <v>0</v>
-      </c>
-      <c r="E53" s="67" t="str">
+      <c r="C53" s="67">
+        <v>0</v>
+      </c>
+      <c r="D53" s="67">
+        <v>0</v>
+      </c>
+      <c r="E53" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F53" s="68" t="e">
+      <c r="F53" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G53" s="69" t="s">
+      <c r="G53" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="95"/>
-      <c r="B54" s="95" t="s">
+    <row r="54" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="85"/>
+      <c r="B54" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="77">
-        <v>0</v>
-      </c>
-      <c r="D54" s="77">
-        <v>0</v>
-      </c>
-      <c r="E54" s="67" t="str">
+      <c r="C54" s="67">
+        <v>0</v>
+      </c>
+      <c r="D54" s="67">
+        <v>0</v>
+      </c>
+      <c r="E54" s="57" t="str">
         <f t="shared" si="0"/>
         <v>TETAP</v>
       </c>
-      <c r="F54" s="68" t="e">
+      <c r="F54" s="58" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G54" s="69" t="s">
+      <c r="G54" s="59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>8</v>
       </c>
@@ -3407,7 +3363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>40</v>
@@ -3418,7 +3374,7 @@
       <c r="F56" s="50"/>
       <c r="G56" s="30"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>41</v>
@@ -3440,7 +3396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
@@ -3464,7 +3420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>3</v>
       </c>
@@ -3477,7 +3433,7 @@
       <c r="F59" s="50"/>
       <c r="G59" s="29"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="11" t="s">
         <v>171</v>
@@ -3500,7 +3456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
         <v>172</v>
@@ -3523,7 +3479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="11" t="s">
         <v>173</v>
@@ -3546,7 +3502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="9" t="s">
         <v>174</v>
@@ -3569,7 +3525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>4</v>
       </c>
@@ -3582,7 +3538,7 @@
       <c r="F64" s="50"/>
       <c r="G64" s="30"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>8</v>
       </c>
@@ -3607,7 +3563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
@@ -3632,7 +3588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
@@ -3657,7 +3613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>8</v>
       </c>
@@ -3682,7 +3638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>8</v>
       </c>
@@ -3707,7 +3663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -3732,7 +3688,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>5</v>
       </c>
@@ -3745,7 +3701,7 @@
       <c r="F71" s="50"/>
       <c r="G71" s="30"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>8</v>
       </c>
@@ -3770,7 +3726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>8</v>
       </c>
@@ -3795,7 +3751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>8</v>
       </c>
@@ -3820,7 +3776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>8</v>
       </c>
@@ -3845,7 +3801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>8</v>
       </c>
@@ -3870,7 +3826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>8</v>
       </c>
@@ -3895,7 +3851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>8</v>
       </c>
@@ -3920,7 +3876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>8</v>
       </c>
@@ -3945,7 +3901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>6</v>
       </c>
@@ -3958,7 +3914,7 @@
       <c r="F80" s="50"/>
       <c r="G80" s="30"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
         <v>57</v>
@@ -3981,7 +3937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>8</v>
       </c>
@@ -4006,7 +3962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>8</v>
       </c>
@@ -4031,7 +3987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>8</v>
       </c>
@@ -4056,7 +4012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>8</v>
       </c>
@@ -4081,7 +4037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
         <v>63</v>
@@ -4104,7 +4060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
         <v>64</v>
@@ -4127,7 +4083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
         <v>65</v>
@@ -4150,7 +4106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>8</v>
       </c>
@@ -4175,7 +4131,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
         <v>67</v>
@@ -4198,7 +4154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
         <v>68</v>
@@ -4221,7 +4177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>8</v>
       </c>
@@ -4246,7 +4202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>7</v>
       </c>
@@ -4259,7 +4215,7 @@
       <c r="F93" s="50"/>
       <c r="G93" s="30"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>8</v>
       </c>
@@ -4284,7 +4240,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>8</v>
       </c>
@@ -4309,7 +4265,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>8</v>
       </c>
@@ -4334,7 +4290,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>8</v>
       </c>
@@ -4359,7 +4315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>8</v>
       </c>
@@ -4384,7 +4340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +4365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
         <v>77</v>
@@ -4432,7 +4388,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>8</v>
       </c>
@@ -4457,7 +4413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>8</v>
       </c>
@@ -4482,7 +4438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>8</v>
       </c>
@@ -4507,7 +4463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>8</v>
       </c>
@@ -4532,7 +4488,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>8</v>
       </c>
@@ -4545,7 +4501,7 @@
       <c r="F105" s="50"/>
       <c r="G105" s="30"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>121</v>
@@ -4556,7 +4512,7 @@
       <c r="F106" s="50"/>
       <c r="G106" s="30"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5" t="s">
         <v>122</v>
@@ -4579,7 +4535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
         <v>123</v>
@@ -4602,7 +4558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5" t="s">
         <v>124</v>
@@ -4625,7 +4581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5" t="s">
         <v>125</v>
@@ -4648,7 +4604,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5" t="s">
         <v>126</v>
@@ -4671,7 +4627,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>208</v>
@@ -4694,7 +4650,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
         <v>127</v>
@@ -4705,7 +4661,7 @@
       <c r="F113" s="50"/>
       <c r="G113" s="30"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5" t="s">
         <v>82</v>
@@ -4728,7 +4684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5" t="s">
         <v>84</v>
@@ -4751,7 +4707,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5" t="s">
         <v>85</v>
@@ -4774,7 +4730,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="5" t="s">
         <v>86</v>
@@ -4797,7 +4753,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
         <v>206</v>
@@ -4820,7 +4776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>128</v>
@@ -4831,7 +4787,7 @@
       <c r="F119" s="50"/>
       <c r="G119" s="30"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
         <v>87</v>
@@ -4854,7 +4810,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5" t="s">
         <v>88</v>
@@ -4877,7 +4833,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>89</v>
@@ -4900,7 +4856,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>90</v>
@@ -4923,7 +4879,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>204</v>
@@ -4946,7 +4902,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>231</v>
       </c>
@@ -4959,7 +4915,7 @@
       <c r="F125" s="50"/>
       <c r="G125" s="30"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>9</v>
       </c>
@@ -4972,7 +4928,7 @@
       <c r="F126" s="50"/>
       <c r="G126" s="30"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>8</v>
       </c>
@@ -4997,7 +4953,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>8</v>
       </c>
@@ -5022,7 +4978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>8</v>
       </c>
@@ -5047,7 +5003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>8</v>
       </c>
@@ -5072,7 +5028,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>8</v>
       </c>
@@ -5097,7 +5053,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5110,7 +5066,7 @@
       <c r="F132" s="50"/>
       <c r="G132" s="29"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="11" t="s">
         <v>171</v>
@@ -5133,7 +5089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="11" t="s">
         <v>172</v>
@@ -5156,7 +5112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="11" t="s">
         <v>173</v>
@@ -5179,7 +5135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="9" t="s">
         <v>174</v>
@@ -5202,7 +5158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>11</v>
       </c>
@@ -5215,7 +5171,7 @@
       <c r="F137" s="50"/>
       <c r="G137" s="33"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>8</v>
       </c>
@@ -5240,7 +5196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>8</v>
       </c>
@@ -5265,7 +5221,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>8</v>
       </c>
@@ -5290,7 +5246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>8</v>
       </c>
@@ -5315,7 +5271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>8</v>
       </c>
@@ -5340,7 +5296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>8</v>
       </c>
@@ -5365,7 +5321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>8</v>
       </c>
@@ -5390,7 +5346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>8</v>
       </c>
@@ -5415,7 +5371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>12</v>
       </c>
@@ -5428,7 +5384,7 @@
       <c r="F146" s="50"/>
       <c r="G146" s="33"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5" t="s">
         <v>57</v>
@@ -5451,7 +5407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5" t="s">
         <v>59</v>
@@ -5474,7 +5430,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5" t="s">
         <v>60</v>
@@ -5497,7 +5453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="5" t="s">
         <v>61</v>
@@ -5520,7 +5476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5" t="s">
         <v>62</v>
@@ -5543,7 +5499,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
         <v>63</v>
@@ -5566,7 +5522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>8</v>
       </c>
@@ -5591,7 +5547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>8</v>
       </c>
@@ -5616,7 +5572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>8</v>
       </c>
@@ -5641,7 +5597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>8</v>
       </c>
@@ -5666,7 +5622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>8</v>
       </c>
@@ -5691,7 +5647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>8</v>
       </c>
@@ -5716,7 +5672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>13</v>
       </c>
@@ -5729,7 +5685,7 @@
       <c r="F159" s="50"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>8</v>
       </c>
@@ -5754,7 +5710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>8</v>
       </c>
@@ -5779,7 +5735,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>8</v>
       </c>
@@ -5804,7 +5760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>8</v>
       </c>
@@ -5829,7 +5785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>8</v>
       </c>
@@ -5854,7 +5810,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>8</v>
       </c>
@@ -5879,7 +5835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5" t="s">
         <v>77</v>
@@ -5902,7 +5858,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>8</v>
       </c>
@@ -5927,7 +5883,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="17" t="s">
         <v>79</v>
@@ -5950,7 +5906,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>8</v>
       </c>
@@ -5975,7 +5931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>8</v>
       </c>
@@ -6000,7 +5956,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>14</v>
       </c>
@@ -6013,7 +5969,7 @@
       <c r="F171" s="50"/>
       <c r="G171" s="30"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>8</v>
       </c>
@@ -6038,7 +5994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>8</v>
       </c>
@@ -6063,7 +6019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>8</v>
       </c>
@@ -6088,7 +6044,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>8</v>
       </c>
@@ -6113,7 +6069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>8</v>
       </c>
@@ -6138,7 +6094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>8</v>
       </c>
@@ -6163,7 +6119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>8</v>
       </c>
@@ -6188,7 +6144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>15</v>
       </c>
@@ -6201,7 +6157,7 @@
       <c r="F179" s="50"/>
       <c r="G179" s="30"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>8</v>
       </c>
@@ -6226,7 +6182,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>8</v>
       </c>
@@ -6251,7 +6207,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>8</v>
       </c>
@@ -6276,7 +6232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5" t="s">
         <v>110</v>
@@ -6299,7 +6255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>8</v>
       </c>
@@ -6324,7 +6280,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>8</v>
       </c>
@@ -6349,7 +6305,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>8</v>
       </c>
@@ -6374,7 +6330,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>8</v>
       </c>
@@ -6399,7 +6355,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5" t="s">
         <v>115</v>
@@ -6422,7 +6378,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>8</v>
       </c>
@@ -6447,7 +6403,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>8</v>
       </c>
@@ -6472,7 +6428,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>16</v>
       </c>
@@ -6485,7 +6441,7 @@
       <c r="F191" s="50"/>
       <c r="G191" s="30"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>8</v>
       </c>
@@ -6510,7 +6466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>8</v>
       </c>
@@ -6535,7 +6491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>8</v>
       </c>
@@ -6560,7 +6516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>8</v>
       </c>
@@ -6585,7 +6541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>8</v>
       </c>
@@ -6610,7 +6566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>8</v>
       </c>
@@ -6635,7 +6591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>8</v>
       </c>
@@ -6660,7 +6616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>8</v>
       </c>
@@ -6685,7 +6641,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>17</v>
       </c>
@@ -6698,7 +6654,7 @@
       <c r="F200" s="50"/>
       <c r="G200" s="30"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="5" t="s">
         <v>57</v>
@@ -6721,7 +6677,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="5" t="s">
         <v>59</v>
@@ -6744,7 +6700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="5" t="s">
         <v>60</v>
@@ -6767,7 +6723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="5" t="s">
         <v>61</v>
@@ -6790,7 +6746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="5" t="s">
         <v>62</v>
@@ -6813,7 +6769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="5" t="s">
         <v>63</v>
@@ -6836,7 +6792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="5" t="s">
         <v>64</v>
@@ -6859,7 +6815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>8</v>
       </c>
@@ -6884,7 +6840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>8</v>
       </c>
@@ -6909,7 +6865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>8</v>
       </c>
@@ -6934,7 +6890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>8</v>
       </c>
@@ -6959,7 +6915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>8</v>
       </c>
@@ -6984,7 +6940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="18">
         <v>18</v>
       </c>
@@ -6997,7 +6953,7 @@
       <c r="F213" s="50"/>
       <c r="G213" s="39"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>8</v>
       </c>
@@ -7022,7 +6978,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>8</v>
       </c>
@@ -7047,7 +7003,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>8</v>
       </c>
@@ -7072,7 +7028,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>8</v>
       </c>
@@ -7097,7 +7053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>8</v>
       </c>
@@ -7122,7 +7078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>8</v>
       </c>
@@ -7147,7 +7103,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="5" t="s">
         <v>77</v>
@@ -7170,7 +7126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="5" t="s">
         <v>78</v>
@@ -7193,7 +7149,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>8</v>
       </c>
@@ -7218,7 +7174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>8</v>
       </c>
@@ -7243,7 +7199,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>8</v>
       </c>
@@ -7268,7 +7224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>19</v>
       </c>
@@ -7281,7 +7237,7 @@
       <c r="F225" s="50"/>
       <c r="G225" s="30"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>8</v>
       </c>
@@ -7294,7 +7250,7 @@
       <c r="F226" s="50"/>
       <c r="G226" s="29"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>8</v>
       </c>
@@ -7319,7 +7275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>8</v>
       </c>
@@ -7344,7 +7300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>8</v>
       </c>
@@ -7369,7 +7325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>8</v>
       </c>
@@ -7394,7 +7350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="5" t="s">
         <v>126</v>
@@ -7417,7 +7373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>8</v>
       </c>
@@ -7442,7 +7398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>8</v>
       </c>
@@ -7467,7 +7423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>8</v>
       </c>
@@ -7480,7 +7436,7 @@
       <c r="F234" s="50"/>
       <c r="G234" s="30"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>8</v>
       </c>
@@ -7505,7 +7461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>8</v>
       </c>
@@ -7530,7 +7486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>8</v>
       </c>
@@ -7555,7 +7511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>8</v>
       </c>
@@ -7580,7 +7536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>8</v>
       </c>
@@ -7605,7 +7561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>8</v>
       </c>
@@ -7618,7 +7574,7 @@
       <c r="F240" s="50"/>
       <c r="G240" s="30"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>8</v>
       </c>
@@ -7643,7 +7599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>8</v>
       </c>
@@ -7668,7 +7624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>8</v>
       </c>
@@ -7693,7 +7649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>8</v>
       </c>
@@ -7718,7 +7674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>8</v>
       </c>
@@ -7743,7 +7699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>20</v>
       </c>
@@ -7756,7 +7712,7 @@
       <c r="F246" s="50"/>
       <c r="G246" s="30"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>8</v>
       </c>
@@ -7771,7 +7727,7 @@
       <c r="F247" s="50"/>
       <c r="G247" s="29"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>8</v>
       </c>
@@ -7796,7 +7752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>8</v>
       </c>
@@ -7821,7 +7777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>8</v>
       </c>
@@ -7846,7 +7802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
       <c r="B251" s="5" t="s">
         <v>134</v>
@@ -7869,7 +7825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
       <c r="B252" s="5" t="s">
         <v>135</v>
@@ -7892,7 +7848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
       <c r="B253" s="5" t="s">
         <v>136</v>
@@ -7915,7 +7871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="5" t="s">
         <v>137</v>
@@ -7938,7 +7894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="5" t="s">
         <v>138</v>
@@ -7961,7 +7917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="5" t="s">
         <v>139</v>
@@ -7984,7 +7940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
       <c r="B257" s="5" t="s">
         <v>276</v>
@@ -8007,7 +7963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
       <c r="B258" s="5" t="s">
         <v>140</v>
@@ -8030,7 +7986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>8</v>
       </c>
@@ -8055,7 +8011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>8</v>
       </c>
@@ -8080,7 +8036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>8</v>
       </c>
@@ -8105,7 +8061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>8</v>
       </c>
@@ -8130,7 +8086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="5" t="s">
         <v>145</v>
@@ -8145,7 +8101,7 @@
       <c r="F263" s="50"/>
       <c r="G263" s="29"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="5" t="s">
         <v>146</v>
@@ -8168,7 +8124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
       <c r="B265" s="5" t="s">
         <v>147</v>
@@ -8191,7 +8147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
       <c r="B266" s="5" t="s">
         <v>148</v>
@@ -8214,7 +8170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="5" t="s">
         <v>149</v>
@@ -8237,7 +8193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
       <c r="B268" s="4" t="s">
         <v>271</v>
@@ -8260,7 +8216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>21</v>
       </c>
@@ -8273,7 +8229,7 @@
       <c r="F269" s="50"/>
       <c r="G269" s="30"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>8</v>
       </c>
@@ -8298,7 +8254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>8</v>
       </c>
@@ -8323,7 +8279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>8</v>
       </c>
@@ -8348,7 +8304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>8</v>
       </c>
@@ -8373,7 +8329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>8</v>
       </c>
@@ -8398,7 +8354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>8</v>
       </c>
@@ -8423,7 +8379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>8</v>
       </c>
@@ -8448,7 +8404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="5" t="s">
         <v>158</v>
@@ -8471,7 +8427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>8</v>
       </c>
@@ -8496,7 +8452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>22</v>
       </c>
@@ -8509,7 +8465,7 @@
       <c r="F279" s="50"/>
       <c r="G279" s="30"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>8</v>
       </c>
@@ -8534,7 +8490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>8</v>
       </c>
@@ -8559,7 +8515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>8</v>
       </c>
@@ -8584,7 +8540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>8</v>
       </c>
@@ -8609,7 +8565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>8</v>
       </c>
@@ -8634,7 +8590,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>23</v>
       </c>
@@ -8647,7 +8603,7 @@
       <c r="F285" s="50"/>
       <c r="G285" s="30"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>8</v>
       </c>
@@ -8672,7 +8628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>8</v>
       </c>
@@ -8697,7 +8653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10"/>
       <c r="B288" s="11" t="s">
         <v>96</v>
@@ -8720,7 +8676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>8</v>
       </c>
@@ -8745,7 +8701,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>8</v>
       </c>
@@ -8770,7 +8726,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>24</v>
       </c>
@@ -8783,7 +8739,7 @@
       <c r="F291" s="50"/>
       <c r="G291" s="30"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="5" t="s">
         <v>162</v>
@@ -8806,7 +8762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="5" t="s">
         <v>95</v>
@@ -8829,7 +8785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="5" t="s">
         <v>96</v>
@@ -8852,7 +8808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="5" t="s">
         <v>97</v>
@@ -8875,7 +8831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="5" t="s">
         <v>160</v>
@@ -8898,7 +8854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>25</v>
       </c>
@@ -8911,7 +8867,7 @@
       <c r="F297" s="50"/>
       <c r="G297" s="30"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>8</v>
       </c>
@@ -8936,7 +8892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>8</v>
       </c>
@@ -8961,7 +8917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>8</v>
       </c>
@@ -8986,7 +8942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>8</v>
       </c>
@@ -9011,7 +8967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>8</v>
       </c>
@@ -9036,7 +8992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="303" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>26</v>
       </c>
@@ -9049,7 +9005,7 @@
       <c r="F303" s="50"/>
       <c r="G303" s="37"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="5" t="s">
         <v>93</v>
@@ -9072,7 +9028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
       <c r="B305" s="5" t="s">
         <v>95</v>
@@ -9095,7 +9051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
       <c r="B306" s="5" t="s">
         <v>96</v>
@@ -9118,7 +9074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
       <c r="B307" s="5" t="s">
         <v>97</v>
@@ -9141,7 +9097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
       <c r="B308" s="5" t="s">
         <v>160</v>
@@ -9164,7 +9120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>27</v>
       </c>
@@ -9177,7 +9133,7 @@
       <c r="F309" s="50"/>
       <c r="G309" s="37"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
       <c r="B310" s="5" t="s">
         <v>93</v>
@@ -9200,7 +9156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
       <c r="B311" s="5" t="s">
         <v>95</v>
@@ -9223,7 +9179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="5" t="s">
         <v>96</v>
@@ -9246,7 +9202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5"/>
       <c r="B313" s="5" t="s">
         <v>97</v>
@@ -9269,7 +9225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="5" t="s">
         <v>160</v>
@@ -9292,7 +9248,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>28</v>
       </c>
@@ -9305,7 +9261,7 @@
       <c r="F315" s="50"/>
       <c r="G315" s="37"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5"/>
       <c r="B316" s="5" t="s">
         <v>93</v>
@@ -9328,7 +9284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5"/>
       <c r="B317" s="5" t="s">
         <v>95</v>
@@ -9351,7 +9307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5"/>
       <c r="B318" s="5" t="s">
         <v>96</v>
@@ -9374,7 +9330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="5" t="s">
         <v>97</v>
@@ -9397,7 +9353,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5"/>
       <c r="B320" s="5" t="s">
         <v>160</v>
@@ -9420,7 +9376,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>29</v>
       </c>
@@ -9437,7 +9393,7 @@
       <c r="F321" s="50"/>
       <c r="G321" s="30"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="5" t="s">
         <v>93</v>
@@ -9460,7 +9416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>8</v>
       </c>
@@ -9485,7 +9441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>8</v>
       </c>
@@ -9510,7 +9466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>8</v>
       </c>
@@ -9535,7 +9491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>8</v>
       </c>
@@ -9560,7 +9516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>8</v>
       </c>
@@ -9585,7 +9541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5"/>
       <c r="B328" s="5" t="s">
         <v>168</v>
@@ -9608,7 +9564,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>30</v>
       </c>
@@ -9625,7 +9581,7 @@
       <c r="F329" s="50"/>
       <c r="G329" s="29"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5"/>
       <c r="B330" s="5" t="s">
         <v>225</v>
@@ -9648,7 +9604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5"/>
       <c r="B331" s="5" t="s">
         <v>226</v>
@@ -9671,7 +9627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="5" t="s">
         <v>227</v>
@@ -9694,7 +9650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5"/>
       <c r="B333" s="5" t="s">
         <v>11</v>
@@ -9717,7 +9673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="s">
         <v>263</v>
       </c>
@@ -9730,7 +9686,7 @@
       <c r="F334" s="50"/>
       <c r="G334" s="29"/>
     </row>
-    <row r="335" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>31</v>
       </c>
@@ -9743,7 +9699,7 @@
       <c r="F335" s="50"/>
       <c r="G335" s="29"/>
     </row>
-    <row r="336" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5"/>
       <c r="B336" s="21" t="s">
         <v>176</v>
@@ -9754,7 +9710,7 @@
       <c r="F336" s="50"/>
       <c r="G336" s="29"/>
     </row>
-    <row r="337" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5"/>
       <c r="B337" s="22" t="s">
         <v>177</v>
@@ -9777,7 +9733,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="22" t="s">
         <v>178</v>
@@ -9800,9 +9756,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
-      <c r="B339" s="62" t="s">
+      <c r="B339" s="52" t="s">
         <v>281</v>
       </c>
       <c r="C339" s="27">
@@ -9823,7 +9779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="22" t="s">
         <v>282</v>
@@ -9846,7 +9802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="22" t="s">
         <v>283</v>
@@ -9869,7 +9825,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="22" t="s">
         <v>284</v>
@@ -9892,7 +9848,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="22" t="s">
         <v>274</v>
@@ -9915,7 +9871,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5"/>
       <c r="B344" s="21" t="s">
         <v>179</v>
@@ -9926,7 +9882,7 @@
       <c r="F344" s="50"/>
       <c r="G344" s="29"/>
     </row>
-    <row r="345" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5"/>
       <c r="B345" s="22" t="s">
         <v>180</v>
@@ -9949,7 +9905,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5"/>
       <c r="B346" s="22" t="s">
         <v>181</v>
@@ -9972,7 +9928,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5"/>
       <c r="B347" s="22" t="s">
         <v>182</v>
@@ -9995,7 +9951,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5"/>
       <c r="B348" s="22" t="s">
         <v>183</v>
@@ -10018,7 +9974,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="22" t="s">
         <v>274</v>
@@ -10041,7 +9997,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5"/>
       <c r="B350" s="21" t="s">
         <v>184</v>
@@ -10052,7 +10008,7 @@
       <c r="F350" s="50"/>
       <c r="G350" s="43"/>
     </row>
-    <row r="351" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5"/>
       <c r="B351" s="22" t="s">
         <v>185</v>
@@ -10075,7 +10031,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5"/>
       <c r="B352" s="22" t="s">
         <v>186</v>
@@ -10098,7 +10054,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5"/>
       <c r="B353" s="22" t="s">
         <v>187</v>
@@ -10121,7 +10077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
       <c r="B354" s="22" t="s">
         <v>188</v>
@@ -10144,7 +10100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5"/>
       <c r="B355" s="21" t="s">
         <v>11</v>
@@ -10167,7 +10123,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
       <c r="B356" s="21" t="s">
         <v>189</v>
@@ -10178,7 +10134,7 @@
       <c r="F356" s="50"/>
       <c r="G356" s="29"/>
     </row>
-    <row r="357" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5"/>
       <c r="B357" s="22" t="s">
         <v>190</v>
@@ -10201,7 +10157,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5"/>
       <c r="B358" s="22" t="s">
         <v>196</v>
@@ -10224,7 +10180,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10"/>
       <c r="B359" s="11" t="s">
         <v>200</v>
@@ -10247,7 +10203,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5"/>
       <c r="B360" s="22" t="s">
         <v>197</v>
@@ -10270,7 +10226,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5"/>
       <c r="B361" s="22" t="s">
         <v>198</v>
@@ -10293,7 +10249,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5"/>
       <c r="B362" s="22" t="s">
         <v>199</v>
@@ -10316,7 +10272,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
       <c r="B363" s="22" t="s">
         <v>201</v>
@@ -10339,7 +10295,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
       <c r="B364" s="21" t="s">
         <v>11</v>
@@ -10362,7 +10318,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>228</v>
       </c>
@@ -10375,7 +10331,7 @@
       <c r="F365" s="50"/>
       <c r="G365" s="42"/>
     </row>
-    <row r="366" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>32</v>
       </c>
@@ -10396,7 +10352,7 @@
       </c>
       <c r="G366" s="29"/>
     </row>
-    <row r="367" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="22" t="s">
         <v>191</v>
@@ -10419,7 +10375,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="22" t="s">
         <v>192</v>
@@ -10442,7 +10398,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="22" t="s">
         <v>193</v>
@@ -10465,7 +10421,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="22" t="s">
         <v>194</v>
@@ -10488,7 +10444,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="21" t="s">
         <v>11</v>
@@ -10511,929 +10467,929 @@
         <v>107</v>
       </c>
     </row>
-    <row r="372" spans="1:7" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="63" t="s">
+    <row r="372" spans="1:7" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B372" s="64" t="s">
+      <c r="B372" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="C372" s="65"/>
-      <c r="D372" s="66"/>
-      <c r="E372" s="67"/>
-      <c r="F372" s="68"/>
-      <c r="G372" s="69"/>
-    </row>
-    <row r="373" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A373" s="71">
+      <c r="C372" s="55"/>
+      <c r="D372" s="56"/>
+      <c r="E372" s="57"/>
+      <c r="F372" s="58"/>
+      <c r="G372" s="59"/>
+    </row>
+    <row r="373" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="61">
         <v>33</v>
       </c>
-      <c r="B373" s="72" t="s">
+      <c r="B373" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="C373" s="73"/>
-      <c r="D373" s="66"/>
-      <c r="E373" s="67"/>
-      <c r="F373" s="68"/>
-      <c r="G373" s="69"/>
-    </row>
-    <row r="374" spans="1:7" s="70" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="74" t="s">
+      <c r="C373" s="63"/>
+      <c r="D373" s="56"/>
+      <c r="E373" s="57"/>
+      <c r="F373" s="58"/>
+      <c r="G373" s="59"/>
+    </row>
+    <row r="374" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B374" s="75" t="s">
+      <c r="B374" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="C374" s="76"/>
-      <c r="D374" s="66"/>
-      <c r="E374" s="67"/>
-      <c r="F374" s="68"/>
-      <c r="G374" s="69"/>
-    </row>
-    <row r="375" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A375" s="74"/>
-      <c r="B375" s="74" t="s">
+      <c r="C374" s="66"/>
+      <c r="D374" s="56"/>
+      <c r="E374" s="57"/>
+      <c r="F374" s="58"/>
+      <c r="G374" s="59"/>
+    </row>
+    <row r="375" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="64"/>
+      <c r="B375" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C375" s="77">
-        <v>0</v>
-      </c>
-      <c r="D375" s="77">
-        <v>0</v>
-      </c>
-      <c r="E375" s="67" t="str">
+      <c r="C375" s="67">
+        <v>0</v>
+      </c>
+      <c r="D375" s="67">
+        <v>0</v>
+      </c>
+      <c r="E375" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F375" s="68" t="e">
+      <c r="F375" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G375" s="78" t="s">
+      <c r="G375" s="68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="376" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A376" s="74"/>
-      <c r="B376" s="74" t="s">
+    <row r="376" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="64"/>
+      <c r="B376" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="C376" s="77">
-        <v>0</v>
-      </c>
-      <c r="D376" s="77">
-        <v>0</v>
-      </c>
-      <c r="E376" s="67" t="str">
+      <c r="C376" s="67">
+        <v>0</v>
+      </c>
+      <c r="D376" s="67">
+        <v>0</v>
+      </c>
+      <c r="E376" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F376" s="68" t="e">
+      <c r="F376" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G376" s="79" t="s">
+      <c r="G376" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="377" spans="1:7" s="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="74"/>
-      <c r="B377" s="74" t="s">
+    <row r="377" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="64"/>
+      <c r="B377" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="C377" s="77">
-        <v>0</v>
-      </c>
-      <c r="D377" s="77">
-        <v>0</v>
-      </c>
-      <c r="E377" s="67" t="str">
+      <c r="C377" s="67">
+        <v>0</v>
+      </c>
+      <c r="D377" s="67">
+        <v>0</v>
+      </c>
+      <c r="E377" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F377" s="68" t="e">
+      <c r="F377" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G377" s="79" t="s">
+      <c r="G377" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="378" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A378" s="74"/>
-      <c r="B378" s="74" t="s">
+    <row r="378" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="64"/>
+      <c r="B378" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="C378" s="77">
-        <v>0</v>
-      </c>
-      <c r="D378" s="77">
-        <v>0</v>
-      </c>
-      <c r="E378" s="67" t="str">
+      <c r="C378" s="67">
+        <v>0</v>
+      </c>
+      <c r="D378" s="67">
+        <v>0</v>
+      </c>
+      <c r="E378" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F378" s="68" t="e">
+      <c r="F378" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G378" s="79" t="s">
+      <c r="G378" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="379" spans="1:7" s="70" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="74"/>
-      <c r="B379" s="75" t="s">
+    <row r="379" spans="1:7" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="64"/>
+      <c r="B379" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="C379" s="77">
-        <v>0</v>
-      </c>
-      <c r="D379" s="77">
-        <v>0</v>
-      </c>
-      <c r="E379" s="67" t="str">
+      <c r="C379" s="67">
+        <v>0</v>
+      </c>
+      <c r="D379" s="67">
+        <v>0</v>
+      </c>
+      <c r="E379" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F379" s="68" t="e">
+      <c r="F379" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G379" s="79" t="s">
+      <c r="G379" s="69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="380" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A380" s="74"/>
-      <c r="B380" s="75" t="s">
+    <row r="380" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="64"/>
+      <c r="B380" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="C380" s="77">
-        <v>0</v>
-      </c>
-      <c r="D380" s="77">
-        <v>0</v>
-      </c>
-      <c r="E380" s="67" t="str">
+      <c r="C380" s="67">
+        <v>0</v>
+      </c>
+      <c r="D380" s="67">
+        <v>0</v>
+      </c>
+      <c r="E380" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F380" s="68" t="e">
+      <c r="F380" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G380" s="79" t="s">
+      <c r="G380" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="381" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A381" s="74"/>
-      <c r="B381" s="75" t="s">
+    <row r="381" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="64"/>
+      <c r="B381" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="C381" s="77">
-        <v>0</v>
-      </c>
-      <c r="D381" s="77">
-        <v>0</v>
-      </c>
-      <c r="E381" s="67" t="str">
+      <c r="C381" s="67">
+        <v>0</v>
+      </c>
+      <c r="D381" s="67">
+        <v>0</v>
+      </c>
+      <c r="E381" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F381" s="68" t="e">
+      <c r="F381" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G381" s="79" t="s">
+      <c r="G381" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="382" spans="1:7" s="70" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A382" s="74"/>
-      <c r="B382" s="75" t="s">
+    <row r="382" spans="1:7" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="64"/>
+      <c r="B382" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="C382" s="77">
-        <v>0</v>
-      </c>
-      <c r="D382" s="77">
-        <v>0</v>
-      </c>
-      <c r="E382" s="67" t="str">
+      <c r="C382" s="67">
+        <v>0</v>
+      </c>
+      <c r="D382" s="67">
+        <v>0</v>
+      </c>
+      <c r="E382" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F382" s="68" t="e">
+      <c r="F382" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G382" s="79" t="s">
+      <c r="G382" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="383" spans="1:7" s="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="74"/>
-      <c r="B383" s="75" t="s">
+    <row r="383" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="64"/>
+      <c r="B383" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="C383" s="77">
-        <v>0</v>
-      </c>
-      <c r="D383" s="77">
-        <v>0</v>
-      </c>
-      <c r="E383" s="67" t="str">
+      <c r="C383" s="67">
+        <v>0</v>
+      </c>
+      <c r="D383" s="67">
+        <v>0</v>
+      </c>
+      <c r="E383" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F383" s="68" t="e">
+      <c r="F383" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G383" s="79" t="s">
+      <c r="G383" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="384" spans="1:7" s="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="74" t="s">
+    <row r="384" spans="1:7" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B384" s="75" t="s">
+      <c r="B384" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C384" s="80"/>
-      <c r="D384" s="66"/>
-      <c r="E384" s="67"/>
-      <c r="F384" s="68"/>
-      <c r="G384" s="81"/>
-    </row>
-    <row r="385" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A385" s="74"/>
-      <c r="B385" s="75" t="s">
+      <c r="C384" s="70"/>
+      <c r="D384" s="56"/>
+      <c r="E384" s="57"/>
+      <c r="F384" s="58"/>
+      <c r="G384" s="71"/>
+    </row>
+    <row r="385" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="64"/>
+      <c r="B385" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="C385" s="77">
-        <v>0</v>
-      </c>
-      <c r="D385" s="77">
-        <v>0</v>
-      </c>
-      <c r="E385" s="67" t="str">
+      <c r="C385" s="67">
+        <v>0</v>
+      </c>
+      <c r="D385" s="67">
+        <v>0</v>
+      </c>
+      <c r="E385" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F385" s="68" t="e">
+      <c r="F385" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G385" s="79" t="s">
+      <c r="G385" s="69" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="386" spans="1:7" s="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="74"/>
-      <c r="B386" s="75" t="s">
+    <row r="386" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="64"/>
+      <c r="B386" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="C386" s="77">
-        <v>0</v>
-      </c>
-      <c r="D386" s="77">
-        <v>0</v>
-      </c>
-      <c r="E386" s="67" t="str">
+      <c r="C386" s="67">
+        <v>0</v>
+      </c>
+      <c r="D386" s="67">
+        <v>0</v>
+      </c>
+      <c r="E386" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F386" s="68" t="e">
+      <c r="F386" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G386" s="79" t="s">
+      <c r="G386" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="387" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A387" s="74"/>
-      <c r="B387" s="75" t="s">
+    <row r="387" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="64"/>
+      <c r="B387" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="C387" s="77">
-        <v>0</v>
-      </c>
-      <c r="D387" s="77">
-        <v>0</v>
-      </c>
-      <c r="E387" s="67" t="str">
+      <c r="C387" s="67">
+        <v>0</v>
+      </c>
+      <c r="D387" s="67">
+        <v>0</v>
+      </c>
+      <c r="E387" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F387" s="68" t="e">
+      <c r="F387" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G387" s="79" t="s">
+      <c r="G387" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="388" spans="1:7" s="70" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A388" s="74" t="s">
+    <row r="388" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B388" s="75" t="s">
+      <c r="B388" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="C388" s="80"/>
-      <c r="D388" s="77">
-        <v>0</v>
-      </c>
-      <c r="E388" s="67"/>
-      <c r="F388" s="68"/>
-      <c r="G388" s="82"/>
-    </row>
-    <row r="389" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A389" s="74"/>
-      <c r="B389" s="74" t="s">
+      <c r="C388" s="70"/>
+      <c r="D388" s="67">
+        <v>0</v>
+      </c>
+      <c r="E388" s="57"/>
+      <c r="F388" s="58"/>
+      <c r="G388" s="72"/>
+    </row>
+    <row r="389" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="64"/>
+      <c r="B389" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="C389" s="77">
-        <v>0</v>
-      </c>
-      <c r="D389" s="77">
-        <v>0</v>
-      </c>
-      <c r="E389" s="67" t="str">
+      <c r="C389" s="67">
+        <v>0</v>
+      </c>
+      <c r="D389" s="67">
+        <v>0</v>
+      </c>
+      <c r="E389" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F389" s="68" t="e">
+      <c r="F389" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G389" s="79" t="s">
+      <c r="G389" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="390" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A390" s="74"/>
-      <c r="B390" s="74" t="s">
+    <row r="390" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="64"/>
+      <c r="B390" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="C390" s="77">
-        <v>0</v>
-      </c>
-      <c r="D390" s="77">
-        <v>0</v>
-      </c>
-      <c r="E390" s="67" t="str">
+      <c r="C390" s="67">
+        <v>0</v>
+      </c>
+      <c r="D390" s="67">
+        <v>0</v>
+      </c>
+      <c r="E390" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F390" s="68" t="e">
+      <c r="F390" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G390" s="79" t="s">
+      <c r="G390" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="391" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A391" s="74"/>
-      <c r="B391" s="74" t="s">
+    <row r="391" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="64"/>
+      <c r="B391" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="C391" s="77">
-        <v>0</v>
-      </c>
-      <c r="D391" s="77">
-        <v>0</v>
-      </c>
-      <c r="E391" s="67" t="str">
+      <c r="C391" s="67">
+        <v>0</v>
+      </c>
+      <c r="D391" s="67">
+        <v>0</v>
+      </c>
+      <c r="E391" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F391" s="68" t="e">
+      <c r="F391" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G391" s="79" t="s">
+      <c r="G391" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="392" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A392" s="74"/>
-      <c r="B392" s="74" t="s">
+    <row r="392" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="64"/>
+      <c r="B392" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="C392" s="77">
-        <v>0</v>
-      </c>
-      <c r="D392" s="77">
-        <v>0</v>
-      </c>
-      <c r="E392" s="67" t="str">
+      <c r="C392" s="67">
+        <v>0</v>
+      </c>
+      <c r="D392" s="67">
+        <v>0</v>
+      </c>
+      <c r="E392" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F392" s="68" t="e">
+      <c r="F392" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G392" s="79" t="s">
+      <c r="G392" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="393" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A393" s="74"/>
-      <c r="B393" s="74" t="s">
+    <row r="393" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="64"/>
+      <c r="B393" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="C393" s="77">
-        <v>0</v>
-      </c>
-      <c r="D393" s="77">
-        <v>0</v>
-      </c>
-      <c r="E393" s="67" t="str">
+      <c r="C393" s="67">
+        <v>0</v>
+      </c>
+      <c r="D393" s="67">
+        <v>0</v>
+      </c>
+      <c r="E393" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F393" s="68" t="e">
+      <c r="F393" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G393" s="79" t="s">
+      <c r="G393" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="394" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A394" s="74"/>
-      <c r="B394" s="74" t="s">
+    <row r="394" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="64"/>
+      <c r="B394" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="C394" s="77">
-        <v>0</v>
-      </c>
-      <c r="D394" s="77">
-        <v>0</v>
-      </c>
-      <c r="E394" s="67" t="str">
+      <c r="C394" s="67">
+        <v>0</v>
+      </c>
+      <c r="D394" s="67">
+        <v>0</v>
+      </c>
+      <c r="E394" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F394" s="68" t="e">
+      <c r="F394" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G394" s="79" t="s">
+      <c r="G394" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A395" s="74"/>
-      <c r="B395" s="74" t="s">
+    <row r="395" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="64"/>
+      <c r="B395" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="C395" s="77">
-        <v>0</v>
-      </c>
-      <c r="D395" s="77">
-        <v>0</v>
-      </c>
-      <c r="E395" s="67" t="str">
+      <c r="C395" s="67">
+        <v>0</v>
+      </c>
+      <c r="D395" s="67">
+        <v>0</v>
+      </c>
+      <c r="E395" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F395" s="68" t="e">
+      <c r="F395" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G395" s="79" t="s">
+      <c r="G395" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="396" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A396" s="74"/>
-      <c r="B396" s="74" t="s">
+    <row r="396" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="64"/>
+      <c r="B396" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="C396" s="77">
-        <v>0</v>
-      </c>
-      <c r="D396" s="77">
-        <v>0</v>
-      </c>
-      <c r="E396" s="67" t="str">
+      <c r="C396" s="67">
+        <v>0</v>
+      </c>
+      <c r="D396" s="67">
+        <v>0</v>
+      </c>
+      <c r="E396" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F396" s="68" t="e">
+      <c r="F396" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G396" s="79" t="s">
+      <c r="G396" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="397" spans="1:7" s="70" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A397" s="74"/>
-      <c r="B397" s="75" t="s">
+    <row r="397" spans="1:7" s="60" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="64"/>
+      <c r="B397" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C397" s="77">
-        <v>0</v>
-      </c>
-      <c r="D397" s="77">
-        <v>0</v>
-      </c>
-      <c r="E397" s="67" t="str">
+      <c r="C397" s="67">
+        <v>0</v>
+      </c>
+      <c r="D397" s="67">
+        <v>0</v>
+      </c>
+      <c r="E397" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F397" s="68" t="e">
+      <c r="F397" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G397" s="83" t="s">
+      <c r="G397" s="73" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="398" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A398" s="74"/>
-      <c r="B398" s="75" t="s">
+    <row r="398" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="64"/>
+      <c r="B398" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="C398" s="77">
-        <v>0</v>
-      </c>
-      <c r="D398" s="77">
-        <v>0</v>
-      </c>
-      <c r="E398" s="67" t="str">
+      <c r="C398" s="67">
+        <v>0</v>
+      </c>
+      <c r="D398" s="67">
+        <v>0</v>
+      </c>
+      <c r="E398" s="57" t="str">
         <f t="shared" si="10"/>
         <v>TETAP</v>
       </c>
-      <c r="F398" s="68" t="e">
+      <c r="F398" s="58" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G398" s="79" t="s">
+      <c r="G398" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="399" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A399" s="74"/>
-      <c r="B399" s="75" t="s">
+    <row r="399" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="64"/>
+      <c r="B399" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="C399" s="77">
-        <v>0</v>
-      </c>
-      <c r="D399" s="77">
-        <v>0</v>
-      </c>
-      <c r="E399" s="67" t="str">
+      <c r="C399" s="67">
+        <v>0</v>
+      </c>
+      <c r="D399" s="67">
+        <v>0</v>
+      </c>
+      <c r="E399" s="57" t="str">
         <f t="shared" ref="E399:E407" si="12">IF(C399=D399,"TETAP", IF(C399&gt;D399, "TURUN","NAIK"))</f>
         <v>TETAP</v>
       </c>
-      <c r="F399" s="68" t="e">
+      <c r="F399" s="58" t="e">
         <f t="shared" ref="F399:F407" si="13">SUM(D399-C399)/C399*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G399" s="79" t="s">
+      <c r="G399" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="400" spans="1:7" s="70" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A400" s="74"/>
-      <c r="B400" s="75" t="s">
+    <row r="400" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="64"/>
+      <c r="B400" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="C400" s="77">
-        <v>0</v>
-      </c>
-      <c r="D400" s="77">
-        <v>0</v>
-      </c>
-      <c r="E400" s="67" t="str">
+      <c r="C400" s="67">
+        <v>0</v>
+      </c>
+      <c r="D400" s="67">
+        <v>0</v>
+      </c>
+      <c r="E400" s="57" t="str">
         <f t="shared" si="12"/>
         <v>TETAP</v>
       </c>
-      <c r="F400" s="68" t="e">
+      <c r="F400" s="58" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G400" s="79" t="s">
+      <c r="G400" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="401" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A401" s="74"/>
-      <c r="B401" s="75" t="s">
+    <row r="401" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="64"/>
+      <c r="B401" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="C401" s="77">
-        <v>0</v>
-      </c>
-      <c r="D401" s="77">
-        <v>0</v>
-      </c>
-      <c r="E401" s="67" t="str">
+      <c r="C401" s="67">
+        <v>0</v>
+      </c>
+      <c r="D401" s="67">
+        <v>0</v>
+      </c>
+      <c r="E401" s="57" t="str">
         <f t="shared" si="12"/>
         <v>TETAP</v>
       </c>
-      <c r="F401" s="68" t="e">
+      <c r="F401" s="58" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G401" s="79" t="s">
+      <c r="G401" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="402" spans="1:7" s="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="74" t="s">
+    <row r="402" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B402" s="75" t="s">
+      <c r="B402" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="C402" s="80"/>
-      <c r="D402" s="66"/>
-      <c r="E402" s="67"/>
-      <c r="F402" s="68"/>
-      <c r="G402" s="82"/>
-    </row>
-    <row r="403" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A403" s="74"/>
-      <c r="B403" s="74" t="s">
+      <c r="C402" s="70"/>
+      <c r="D402" s="56"/>
+      <c r="E402" s="57"/>
+      <c r="F402" s="58"/>
+      <c r="G402" s="72"/>
+    </row>
+    <row r="403" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="64"/>
+      <c r="B403" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C403" s="77">
-        <v>0</v>
-      </c>
-      <c r="D403" s="77">
-        <v>0</v>
-      </c>
-      <c r="E403" s="67" t="str">
+      <c r="C403" s="67">
+        <v>0</v>
+      </c>
+      <c r="D403" s="67">
+        <v>0</v>
+      </c>
+      <c r="E403" s="57" t="str">
         <f t="shared" si="12"/>
         <v>TETAP</v>
       </c>
-      <c r="F403" s="68" t="e">
+      <c r="F403" s="58" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G403" s="79" t="s">
+      <c r="G403" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="404" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A404" s="74"/>
-      <c r="B404" s="74" t="s">
+    <row r="404" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="64"/>
+      <c r="B404" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="C404" s="77">
-        <v>0</v>
-      </c>
-      <c r="D404" s="77">
-        <v>0</v>
-      </c>
-      <c r="E404" s="67" t="str">
+      <c r="C404" s="67">
+        <v>0</v>
+      </c>
+      <c r="D404" s="67">
+        <v>0</v>
+      </c>
+      <c r="E404" s="57" t="str">
         <f t="shared" si="12"/>
         <v>TETAP</v>
       </c>
-      <c r="F404" s="68" t="e">
+      <c r="F404" s="58" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G404" s="79" t="s">
+      <c r="G404" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="405" spans="1:7" s="70" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="74"/>
-      <c r="B405" s="75" t="s">
+    <row r="405" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="64"/>
+      <c r="B405" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="C405" s="77">
-        <v>0</v>
-      </c>
-      <c r="D405" s="77">
-        <v>0</v>
-      </c>
-      <c r="E405" s="67" t="str">
+      <c r="C405" s="67">
+        <v>0</v>
+      </c>
+      <c r="D405" s="67">
+        <v>0</v>
+      </c>
+      <c r="E405" s="57" t="str">
         <f t="shared" si="12"/>
         <v>TETAP</v>
       </c>
-      <c r="F405" s="68" t="e">
+      <c r="F405" s="58" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G405" s="79" t="s">
+      <c r="G405" s="69" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="406" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A406" s="74"/>
-      <c r="B406" s="75" t="s">
+    <row r="406" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="64"/>
+      <c r="B406" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="C406" s="77">
-        <v>0</v>
-      </c>
-      <c r="D406" s="77">
-        <v>0</v>
-      </c>
-      <c r="E406" s="67" t="str">
+      <c r="C406" s="67">
+        <v>0</v>
+      </c>
+      <c r="D406" s="67">
+        <v>0</v>
+      </c>
+      <c r="E406" s="57" t="str">
         <f t="shared" si="12"/>
         <v>TETAP</v>
       </c>
-      <c r="F406" s="68" t="e">
+      <c r="F406" s="58" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G406" s="79" t="s">
+      <c r="G406" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="407" spans="1:7" s="70" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="74"/>
-      <c r="B407" s="75" t="s">
+    <row r="407" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="64"/>
+      <c r="B407" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="C407" s="77">
-        <v>0</v>
-      </c>
-      <c r="D407" s="77">
-        <v>0</v>
-      </c>
-      <c r="E407" s="67" t="str">
+      <c r="C407" s="67">
+        <v>0</v>
+      </c>
+      <c r="D407" s="67">
+        <v>0</v>
+      </c>
+      <c r="E407" s="57" t="str">
         <f t="shared" si="12"/>
         <v>TETAP</v>
       </c>
-      <c r="F407" s="68" t="e">
+      <c r="F407" s="58" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G407" s="79" t="s">
+      <c r="G407" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="408" spans="1:7" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="63" t="s">
+    <row r="408" spans="1:7" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="B408" s="84" t="s">
+      <c r="B408" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="C408" s="65"/>
-      <c r="D408" s="66"/>
-      <c r="E408" s="67"/>
-      <c r="F408" s="68"/>
-      <c r="G408" s="69"/>
-    </row>
-    <row r="409" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A409" s="71">
+      <c r="C408" s="55"/>
+      <c r="D408" s="56"/>
+      <c r="E408" s="57"/>
+      <c r="F408" s="58"/>
+      <c r="G408" s="59"/>
+    </row>
+    <row r="409" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A409" s="61">
         <v>34</v>
       </c>
-      <c r="B409" s="85" t="s">
+      <c r="B409" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="C409" s="73"/>
-      <c r="D409" s="66"/>
-      <c r="E409" s="67"/>
-      <c r="F409" s="68"/>
-      <c r="G409" s="69"/>
-    </row>
-    <row r="410" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A410" s="74"/>
-      <c r="B410" s="86" t="s">
+      <c r="C409" s="63"/>
+      <c r="D409" s="56"/>
+      <c r="E409" s="57"/>
+      <c r="F409" s="58"/>
+      <c r="G409" s="59"/>
+    </row>
+    <row r="410" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A410" s="64"/>
+      <c r="B410" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="C410" s="77">
-        <v>0</v>
-      </c>
-      <c r="D410" s="77">
-        <v>0</v>
-      </c>
-      <c r="E410" s="67" t="str">
+      <c r="C410" s="67">
+        <v>0</v>
+      </c>
+      <c r="D410" s="67">
+        <v>0</v>
+      </c>
+      <c r="E410" s="57" t="str">
         <f t="shared" ref="E410:E411" si="14">IF(C410=D410,"TETAP", IF(C410&gt;D410, "TURUN","NAIK"))</f>
         <v>TETAP</v>
       </c>
-      <c r="F410" s="68" t="e">
+      <c r="F410" s="58" t="e">
         <f t="shared" ref="F410:F412" si="15">SUM(D410-C410)/C410*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G410" s="69" t="s">
+      <c r="G410" s="59" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="411" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A411" s="74"/>
-      <c r="B411" s="86" t="s">
+    <row r="411" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A411" s="64"/>
+      <c r="B411" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="C411" s="77">
-        <v>0</v>
-      </c>
-      <c r="D411" s="77">
-        <v>0</v>
-      </c>
-      <c r="E411" s="67" t="str">
+      <c r="C411" s="67">
+        <v>0</v>
+      </c>
+      <c r="D411" s="67">
+        <v>0</v>
+      </c>
+      <c r="E411" s="57" t="str">
         <f t="shared" si="14"/>
         <v>TETAP</v>
       </c>
-      <c r="F411" s="68" t="e">
+      <c r="F411" s="58" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G411" s="69" t="s">
+      <c r="G411" s="59" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="412" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A412" s="74"/>
-      <c r="B412" s="86" t="s">
+    <row r="412" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A412" s="64"/>
+      <c r="B412" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="C412" s="77">
-        <v>0</v>
-      </c>
-      <c r="D412" s="77">
-        <v>0</v>
-      </c>
-      <c r="E412" s="67" t="str">
+      <c r="C412" s="67">
+        <v>0</v>
+      </c>
+      <c r="D412" s="67">
+        <v>0</v>
+      </c>
+      <c r="E412" s="57" t="str">
         <f t="shared" ref="E412:E413" si="16">IF(C412=D412,"TETAP", IF(C412&gt;D412, "TURUN","NAIK"))</f>
         <v>TETAP</v>
       </c>
-      <c r="F412" s="68" t="e">
+      <c r="F412" s="58" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G412" s="69" t="s">
+      <c r="G412" s="59" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="413" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A413" s="74"/>
-      <c r="B413" s="86" t="s">
+    <row r="413" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A413" s="64"/>
+      <c r="B413" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="C413" s="77">
-        <v>0</v>
-      </c>
-      <c r="D413" s="77">
-        <v>0</v>
-      </c>
-      <c r="E413" s="67" t="str">
+      <c r="C413" s="67">
+        <v>0</v>
+      </c>
+      <c r="D413" s="67">
+        <v>0</v>
+      </c>
+      <c r="E413" s="57" t="str">
         <f t="shared" si="16"/>
         <v>TETAP</v>
       </c>
-      <c r="F413" s="68" t="e">
+      <c r="F413" s="58" t="e">
         <f t="shared" ref="F413" si="17">SUM(D413-C413)/C413*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G413" s="69" t="s">
+      <c r="G413" s="59" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="70" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A414" s="87"/>
-      <c r="B414" s="88" t="s">
+    <row r="414" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="77"/>
+      <c r="B414" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C414" s="89">
+      <c r="C414" s="79">
         <f t="shared" ref="C414:D414" si="18">SUM(C409:C413)</f>
         <v>0</v>
       </c>
-      <c r="D414" s="90">
+      <c r="D414" s="80">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E414" s="91" t="str">
+      <c r="E414" s="81" t="str">
         <f>IF(C414=D414,"TETAP", IF(C414&gt;D414, "TURUN","NAIK"))</f>
         <v>TETAP</v>
       </c>
-      <c r="F414" s="92" t="e">
+      <c r="F414" s="82" t="e">
         <f>SUM(D414-C414)/C414*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G414" s="93" t="s">
+      <c r="G414" s="83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="46"/>
       <c r="B415" s="46"/>
       <c r="C415" s="46"/>
       <c r="D415" s="46"/>
-      <c r="E415" s="52"/>
-      <c r="F415" s="52"/>
-      <c r="G415" s="52"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E415" s="88"/>
+      <c r="F415" s="88"/>
+      <c r="G415" s="88"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="46"/>
       <c r="B416" s="46"/>
       <c r="C416" s="46"/>
@@ -11442,102 +11398,96 @@
       <c r="F416" s="46"/>
       <c r="G416" s="46"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="46"/>
       <c r="B417" s="46"/>
       <c r="C417" s="46"/>
       <c r="D417" s="46"/>
-      <c r="E417" s="96" t="s">
+      <c r="E417" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="F417" s="96"/>
+      <c r="F417" s="87"/>
       <c r="G417" s="46"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="46"/>
       <c r="B418" s="46"/>
       <c r="C418" s="46"/>
       <c r="D418" s="46"/>
-      <c r="E418" s="96"/>
-      <c r="F418" s="96"/>
+      <c r="E418" s="87"/>
+      <c r="F418" s="87"/>
       <c r="G418" s="46"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="46"/>
       <c r="B419" s="46"/>
-      <c r="C419" s="97" t="s">
-        <v>298</v>
-      </c>
+      <c r="C419" s="86"/>
       <c r="D419" s="46"/>
-      <c r="E419" s="52" t="s">
+      <c r="E419" s="88" t="s">
         <v>294</v>
       </c>
-      <c r="F419" s="52"/>
+      <c r="F419" s="88"/>
       <c r="G419" s="46"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="46"/>
       <c r="B420" s="46"/>
-      <c r="C420" s="97"/>
+      <c r="C420" s="86"/>
       <c r="D420" s="46"/>
       <c r="E420" s="46"/>
       <c r="F420" s="46"/>
       <c r="G420" s="46"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="46"/>
       <c r="B421" s="46"/>
-      <c r="C421" s="97"/>
+      <c r="C421" s="86"/>
       <c r="D421" s="46"/>
       <c r="E421" s="46"/>
       <c r="F421" s="46"/>
       <c r="G421" s="46"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="46"/>
       <c r="B422" s="46"/>
-      <c r="C422" s="97"/>
+      <c r="C422" s="86"/>
       <c r="D422" s="46"/>
       <c r="E422" s="46"/>
       <c r="F422" s="46"/>
       <c r="G422" s="46"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="46"/>
       <c r="B423" s="46"/>
-      <c r="C423" s="97"/>
+      <c r="C423" s="86"/>
       <c r="D423" s="46"/>
       <c r="E423" s="46"/>
       <c r="F423" s="46"/>
       <c r="G423" s="46"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="46"/>
       <c r="B424" s="46"/>
-      <c r="C424" s="97" t="s">
-        <v>297</v>
-      </c>
+      <c r="C424" s="86"/>
       <c r="D424" s="46"/>
-      <c r="E424" s="96" t="s">
+      <c r="E424" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="F424" s="96"/>
+      <c r="F424" s="87"/>
       <c r="G424" s="46"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="46"/>
       <c r="B425" s="46"/>
-      <c r="C425" s="97" t="s">
+      <c r="C425" s="86"/>
+      <c r="D425" s="46"/>
+      <c r="E425" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="D425" s="46"/>
-      <c r="E425" s="96" t="s">
-        <v>299</v>
-      </c>
-      <c r="F425" s="96"/>
+      <c r="F425" s="87"/>
       <c r="G425" s="46"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="46"/>
       <c r="B426" s="46"/>
       <c r="C426" s="46"/>
@@ -11546,7 +11496,7 @@
       <c r="F426" s="46"/>
       <c r="G426" s="46"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="46"/>
       <c r="B427" s="46"/>
       <c r="C427" s="46"/>
@@ -11555,7 +11505,7 @@
       <c r="F427" s="46"/>
       <c r="G427" s="46"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="46"/>
       <c r="B428" s="46"/>
       <c r="C428" s="46"/>
@@ -11564,7 +11514,7 @@
       <c r="F428" s="46"/>
       <c r="G428" s="46"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="46"/>
       <c r="B429" s="46"/>
       <c r="C429" s="46"/>
@@ -11573,7 +11523,7 @@
       <c r="F429" s="46"/>
       <c r="G429" s="46"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="46"/>
       <c r="B430" s="46"/>
       <c r="C430" s="46"/>
@@ -11582,7 +11532,7 @@
       <c r="F430" s="46"/>
       <c r="G430" s="46"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="46"/>
       <c r="B431" s="46"/>
       <c r="C431" s="46"/>
@@ -11591,7 +11541,7 @@
       <c r="F431" s="46"/>
       <c r="G431" s="46"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="46"/>
       <c r="B432" s="46"/>
       <c r="C432" s="46"/>
@@ -11600,7 +11550,7 @@
       <c r="F432" s="46"/>
       <c r="G432" s="46"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="46"/>
       <c r="B433" s="46"/>
       <c r="C433" s="46"/>
@@ -11609,7 +11559,7 @@
       <c r="F433" s="46"/>
       <c r="G433" s="46"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="46"/>
       <c r="B434" s="46"/>
       <c r="C434" s="46"/>
@@ -11618,7 +11568,7 @@
       <c r="F434" s="46"/>
       <c r="G434" s="46"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="46"/>
       <c r="B435" s="46"/>
       <c r="C435" s="46"/>
@@ -11627,7 +11577,7 @@
       <c r="F435" s="46"/>
       <c r="G435" s="46"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="46"/>
       <c r="B436" s="46"/>
       <c r="C436" s="46"/>
@@ -11636,7 +11586,7 @@
       <c r="F436" s="46"/>
       <c r="G436" s="46"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="46"/>
       <c r="B437" s="46"/>
       <c r="C437" s="46"/>
@@ -11645,7 +11595,7 @@
       <c r="F437" s="46"/>
       <c r="G437" s="46"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="46"/>
       <c r="B438" s="46"/>
       <c r="C438" s="46"/>
@@ -11654,7 +11604,7 @@
       <c r="F438" s="46"/>
       <c r="G438" s="46"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="46"/>
       <c r="B439" s="46"/>
       <c r="C439" s="46"/>
@@ -11663,7 +11613,7 @@
       <c r="F439" s="46"/>
       <c r="G439" s="46"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="46"/>
       <c r="B440" s="46"/>
       <c r="C440" s="46"/>
@@ -11672,7 +11622,7 @@
       <c r="F440" s="46"/>
       <c r="G440" s="46"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="46"/>
       <c r="B441" s="46"/>
       <c r="C441" s="46"/>
@@ -11681,7 +11631,7 @@
       <c r="F441" s="46"/>
       <c r="G441" s="46"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="46"/>
       <c r="B442" s="46"/>
       <c r="C442" s="46"/>
@@ -11690,7 +11640,7 @@
       <c r="F442" s="46"/>
       <c r="G442" s="46"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="46"/>
       <c r="B443" s="46"/>
       <c r="C443" s="46"/>
@@ -11699,7 +11649,7 @@
       <c r="F443" s="46"/>
       <c r="G443" s="46"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="46"/>
       <c r="B444" s="46"/>
       <c r="C444" s="46"/>
@@ -11708,7 +11658,7 @@
       <c r="F444" s="46"/>
       <c r="G444" s="46"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="46"/>
       <c r="B445" s="46"/>
       <c r="C445" s="46"/>
@@ -11717,7 +11667,7 @@
       <c r="F445" s="46"/>
       <c r="G445" s="46"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="46"/>
       <c r="B446" s="46"/>
       <c r="C446" s="46"/>
@@ -11726,7 +11676,7 @@
       <c r="F446" s="46"/>
       <c r="G446" s="46"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="46"/>
       <c r="B447" s="46"/>
       <c r="C447" s="46"/>
@@ -11735,7 +11685,7 @@
       <c r="F447" s="46"/>
       <c r="G447" s="46"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="46"/>
       <c r="B448" s="46"/>
       <c r="C448" s="46"/>
@@ -11744,7 +11694,7 @@
       <c r="F448" s="46"/>
       <c r="G448" s="46"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="46"/>
       <c r="B449" s="46"/>
       <c r="C449" s="46"/>
@@ -11753,7 +11703,7 @@
       <c r="F449" s="46"/>
       <c r="G449" s="46"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="46"/>
       <c r="B450" s="46"/>
       <c r="C450" s="46"/>
@@ -11762,7 +11712,7 @@
       <c r="F450" s="46"/>
       <c r="G450" s="46"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="46"/>
       <c r="B451" s="46"/>
       <c r="C451" s="46"/>
@@ -11771,7 +11721,7 @@
       <c r="F451" s="46"/>
       <c r="G451" s="46"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="46"/>
       <c r="B452" s="46"/>
       <c r="C452" s="46"/>
@@ -11780,7 +11730,7 @@
       <c r="F452" s="46"/>
       <c r="G452" s="46"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="46"/>
       <c r="B453" s="46"/>
       <c r="C453" s="46"/>
@@ -11789,7 +11739,7 @@
       <c r="F453" s="46"/>
       <c r="G453" s="46"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="46"/>
       <c r="B454" s="46"/>
       <c r="C454" s="46"/>
@@ -11798,7 +11748,7 @@
       <c r="F454" s="46"/>
       <c r="G454" s="46"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="46"/>
       <c r="B455" s="46"/>
       <c r="C455" s="46"/>
@@ -11807,7 +11757,7 @@
       <c r="F455" s="46"/>
       <c r="G455" s="46"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="46"/>
       <c r="B456" s="46"/>
       <c r="C456" s="46"/>
@@ -11816,7 +11766,7 @@
       <c r="F456" s="46"/>
       <c r="G456" s="46"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="46"/>
       <c r="B457" s="46"/>
       <c r="C457" s="46"/>
@@ -11825,7 +11775,7 @@
       <c r="F457" s="46"/>
       <c r="G457" s="46"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="46"/>
       <c r="B458" s="46"/>
       <c r="C458" s="46"/>
@@ -11834,7 +11784,7 @@
       <c r="F458" s="46"/>
       <c r="G458" s="46"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="46"/>
       <c r="B459" s="46"/>
       <c r="C459" s="46"/>
@@ -11843,7 +11793,7 @@
       <c r="F459" s="46"/>
       <c r="G459" s="46"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="46"/>
       <c r="B460" s="46"/>
       <c r="C460" s="46"/>
@@ -11852,7 +11802,7 @@
       <c r="F460" s="46"/>
       <c r="G460" s="46"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="46"/>
       <c r="B461" s="46"/>
       <c r="C461" s="46"/>
@@ -11861,7 +11811,7 @@
       <c r="F461" s="46"/>
       <c r="G461" s="46"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="46"/>
       <c r="B462" s="46"/>
       <c r="C462" s="46"/>
@@ -11870,7 +11820,7 @@
       <c r="F462" s="46"/>
       <c r="G462" s="46"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="46"/>
       <c r="B463" s="46"/>
       <c r="C463" s="46"/>
@@ -11879,7 +11829,7 @@
       <c r="F463" s="46"/>
       <c r="G463" s="46"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="46"/>
       <c r="B464" s="46"/>
       <c r="C464" s="46"/>
@@ -11888,7 +11838,7 @@
       <c r="F464" s="46"/>
       <c r="G464" s="46"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="46"/>
       <c r="B465" s="46"/>
       <c r="C465" s="46"/>
@@ -11897,7 +11847,7 @@
       <c r="F465" s="46"/>
       <c r="G465" s="46"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="46"/>
       <c r="B466" s="46"/>
       <c r="C466" s="46"/>
@@ -11906,22 +11856,17 @@
       <c r="F466" s="46"/>
       <c r="G466" s="46"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D469" s="48"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D470" s="48"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D471" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E415:G415"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A1:B1"/>
@@ -11935,6 +11880,11 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E417:F417"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Laphar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1556,9 +1556,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1588,6 +1585,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A409" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2248,82 +2248,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="92" t="s">
+      <c r="A9" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="92" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="24">
         <v>2019</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="F10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="92"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2447,9 +2447,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="27">
+        <f>SUM(C14:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="27">
+        <f>SUM(D14:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="49" t="str">
@@ -2907,9 +2909,11 @@
         <v>31</v>
       </c>
       <c r="C36" s="27">
+        <f>SUM(C19:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="27">
+        <f>SUM(D19:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="49" t="str">
@@ -3346,9 +3350,11 @@
         <v>202</v>
       </c>
       <c r="C55" s="27">
+        <f>SUM(C38:C54)</f>
         <v>0</v>
       </c>
       <c r="D55" s="27">
+        <f>SUM(D38:D54)</f>
         <v>0</v>
       </c>
       <c r="E55" s="49" t="str">
@@ -3508,9 +3514,11 @@
         <v>174</v>
       </c>
       <c r="C63" s="27">
+        <f>SUM(C60:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="27">
+        <f>SUM(D60:D62)</f>
         <v>0</v>
       </c>
       <c r="E63" s="49" t="str">
@@ -3671,9 +3679,11 @@
         <v>205</v>
       </c>
       <c r="C70" s="27">
+        <f>SUM(C65:C69)</f>
         <v>0</v>
       </c>
       <c r="D70" s="27">
+        <f>SUM(D65:D69)</f>
         <v>0</v>
       </c>
       <c r="E70" s="49" t="str">
@@ -3884,9 +3894,11 @@
         <v>206</v>
       </c>
       <c r="C79" s="27">
+        <f>SUM(C72:C78)</f>
         <v>0</v>
       </c>
       <c r="D79" s="27">
+        <f>SUM(D72:D78)</f>
         <v>0</v>
       </c>
       <c r="E79" s="49" t="str">
@@ -4185,9 +4197,11 @@
         <v>206</v>
       </c>
       <c r="C92" s="27">
+        <f>SUM(C81:C91)</f>
         <v>0</v>
       </c>
       <c r="D92" s="27">
+        <f>SUM(D81:D91)</f>
         <v>0</v>
       </c>
       <c r="E92" s="49" t="str">
@@ -4471,9 +4485,11 @@
         <v>207</v>
       </c>
       <c r="C104" s="27">
+        <f>SUM(C94:C103)</f>
         <v>0</v>
       </c>
       <c r="D104" s="27">
+        <f>SUM(D94:D103)</f>
         <v>0</v>
       </c>
       <c r="E104" s="49" t="str">
@@ -11385,9 +11401,9 @@
       <c r="B415" s="46"/>
       <c r="C415" s="46"/>
       <c r="D415" s="46"/>
-      <c r="E415" s="88"/>
-      <c r="F415" s="88"/>
-      <c r="G415" s="88"/>
+      <c r="E415" s="87"/>
+      <c r="F415" s="87"/>
+      <c r="G415" s="87"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="46"/>
@@ -11403,10 +11419,10 @@
       <c r="B417" s="46"/>
       <c r="C417" s="46"/>
       <c r="D417" s="46"/>
-      <c r="E417" s="87" t="s">
+      <c r="E417" s="97" t="s">
         <v>293</v>
       </c>
-      <c r="F417" s="87"/>
+      <c r="F417" s="97"/>
       <c r="G417" s="46"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11414,8 +11430,8 @@
       <c r="B418" s="46"/>
       <c r="C418" s="46"/>
       <c r="D418" s="46"/>
-      <c r="E418" s="87"/>
-      <c r="F418" s="87"/>
+      <c r="E418" s="97"/>
+      <c r="F418" s="97"/>
       <c r="G418" s="46"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11423,10 +11439,10 @@
       <c r="B419" s="46"/>
       <c r="C419" s="86"/>
       <c r="D419" s="46"/>
-      <c r="E419" s="88" t="s">
+      <c r="E419" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="F419" s="88"/>
+      <c r="F419" s="87"/>
       <c r="G419" s="46"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11470,10 +11486,10 @@
       <c r="B424" s="46"/>
       <c r="C424" s="86"/>
       <c r="D424" s="46"/>
-      <c r="E424" s="87" t="s">
+      <c r="E424" s="97" t="s">
         <v>295</v>
       </c>
-      <c r="F424" s="87"/>
+      <c r="F424" s="97"/>
       <c r="G424" s="46"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11481,10 +11497,10 @@
       <c r="B425" s="46"/>
       <c r="C425" s="86"/>
       <c r="D425" s="46"/>
-      <c r="E425" s="87" t="s">
+      <c r="E425" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="F425" s="87"/>
+      <c r="F425" s="97"/>
       <c r="G425" s="46"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11867,6 +11883,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E415:G415"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A1:B1"/>
@@ -11880,11 +11901,6 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u117nxs\Desktop\blog post\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A373E48-FA0D-4AC3-A68B-FADBCBDA24E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2664" windowWidth="25596" windowHeight="15996"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laphar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -998,9 +998,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1350,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1409,7 +1409,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,7 +1477,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1542,9 +1542,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1556,6 +1553,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1586,13 +1586,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1800,149 +1797,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>795411</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>39132</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF909F5-AB16-394B-84E9-EC17F477A9D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="317500" y="21297900"/>
-          <a:ext cx="795411" cy="369332"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Sumut</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2022,6 +1876,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2057,6 +1928,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2232,34 +2120,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D417" sqref="D417"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="12.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="89"/>
       <c r="B1" s="89"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="89"/>
       <c r="B2" s="89"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="88" t="s">
         <v>280</v>
       </c>
@@ -2270,7 +2158,7 @@
       <c r="F5" s="88"/>
       <c r="G5" s="88"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>278</v>
       </c>
@@ -2281,7 +2169,7 @@
       <c r="F6" s="90"/>
       <c r="G6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="88" t="s">
         <v>279</v>
       </c>
@@ -2293,7 +2181,7 @@
       <c r="G7" s="88"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="90"/>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
@@ -2302,7 +2190,7 @@
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="91"/>
       <c r="B10" s="91"/>
       <c r="C10" s="24">
@@ -2338,7 +2226,7 @@
       </c>
       <c r="G10" s="91"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2361,7 +2249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>230</v>
       </c>
@@ -2374,7 +2262,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2389,7 +2277,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -2414,7 +2302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -2439,7 +2327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -2466,7 +2354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -2481,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +2384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -2521,7 +2409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>16</v>
@@ -2569,7 +2457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -2594,7 +2482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
@@ -2619,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
@@ -2644,7 +2532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>20</v>
@@ -2667,7 +2555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -2690,7 +2578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>22</v>
@@ -2713,7 +2601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>23</v>
@@ -2736,7 +2624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>24</v>
@@ -2759,7 +2647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>25</v>
@@ -2782,7 +2670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>26</v>
@@ -2805,7 +2693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>27</v>
@@ -2828,7 +2716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
         <v>28</v>
@@ -2851,7 +2739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +2764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>8</v>
       </c>
@@ -2901,7 +2789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
@@ -2928,7 +2816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -2941,9 +2829,9 @@
       <c r="F37" s="50"/>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85" t="s">
+    <row r="38" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="83"/>
+      <c r="B38" s="84" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="67">
@@ -2964,9 +2852,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85" t="s">
+    <row r="39" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="67">
@@ -2987,9 +2875,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="85" t="s">
+    <row r="40" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="83"/>
+      <c r="B40" s="84" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="67">
@@ -3010,9 +2898,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85" t="s">
+    <row r="41" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="83"/>
+      <c r="B41" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="67">
@@ -3033,9 +2921,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85" t="s">
+    <row r="42" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="83"/>
+      <c r="B42" s="84" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="67">
@@ -3056,9 +2944,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85" t="s">
+    <row r="43" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="83"/>
+      <c r="B43" s="84" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="67">
@@ -3079,9 +2967,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85" t="s">
+    <row r="44" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="83"/>
+      <c r="B44" s="84" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="67">
@@ -3102,9 +2990,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85" t="s">
+    <row r="45" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="83"/>
+      <c r="B45" s="84" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="67">
@@ -3125,9 +3013,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85" t="s">
+    <row r="46" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="83"/>
+      <c r="B46" s="84" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="67">
@@ -3148,9 +3036,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="85" t="s">
+    <row r="47" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="83"/>
+      <c r="B47" s="84" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="67">
@@ -3171,9 +3059,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
-      <c r="B48" s="85" t="s">
+    <row r="48" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="83"/>
+      <c r="B48" s="84" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="67">
@@ -3194,11 +3082,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="85" t="s">
+    <row r="49" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="84" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="67">
@@ -3219,11 +3107,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="85" t="s">
+    <row r="50" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="84" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="67">
@@ -3244,11 +3132,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="85" t="s">
+    <row r="51" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="84" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="67">
@@ -3269,11 +3157,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="85" t="s">
+    <row r="52" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="84" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="67">
@@ -3294,11 +3182,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="85" t="s">
+    <row r="53" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="84" t="s">
         <v>29</v>
       </c>
       <c r="C53" s="67">
@@ -3319,9 +3207,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85" t="s">
+    <row r="54" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="84"/>
+      <c r="B54" s="84" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="67">
@@ -3342,7 +3230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>8</v>
       </c>
@@ -3369,7 +3257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>40</v>
@@ -3380,7 +3268,7 @@
       <c r="F56" s="50"/>
       <c r="G56" s="30"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>41</v>
@@ -3402,7 +3290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
@@ -3426,7 +3314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>3</v>
       </c>
@@ -3439,7 +3327,7 @@
       <c r="F59" s="50"/>
       <c r="G59" s="29"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="11" t="s">
         <v>171</v>
@@ -3462,7 +3350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
         <v>172</v>
@@ -3485,7 +3373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="11" t="s">
         <v>173</v>
@@ -3508,7 +3396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="9" t="s">
         <v>174</v>
@@ -3533,7 +3421,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>4</v>
       </c>
@@ -3546,7 +3434,7 @@
       <c r="F64" s="50"/>
       <c r="G64" s="30"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>8</v>
       </c>
@@ -3571,7 +3459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
@@ -3596,7 +3484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
@@ -3621,7 +3509,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>8</v>
       </c>
@@ -3646,7 +3534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>8</v>
       </c>
@@ -3671,7 +3559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -3698,7 +3586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>5</v>
       </c>
@@ -3711,7 +3599,7 @@
       <c r="F71" s="50"/>
       <c r="G71" s="30"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>8</v>
       </c>
@@ -3736,7 +3624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>8</v>
       </c>
@@ -3761,7 +3649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>8</v>
       </c>
@@ -3786,7 +3674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>8</v>
       </c>
@@ -3811,7 +3699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>8</v>
       </c>
@@ -3836,7 +3724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>8</v>
       </c>
@@ -3861,7 +3749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>8</v>
       </c>
@@ -3886,7 +3774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>8</v>
       </c>
@@ -3913,7 +3801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>6</v>
       </c>
@@ -3926,7 +3814,7 @@
       <c r="F80" s="50"/>
       <c r="G80" s="30"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
         <v>57</v>
@@ -3949,7 +3837,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>8</v>
       </c>
@@ -3974,7 +3862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>8</v>
       </c>
@@ -3999,7 +3887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>8</v>
       </c>
@@ -4024,7 +3912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>8</v>
       </c>
@@ -4049,7 +3937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
         <v>63</v>
@@ -4072,7 +3960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
         <v>64</v>
@@ -4095,7 +3983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
         <v>65</v>
@@ -4118,7 +4006,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>8</v>
       </c>
@@ -4143,7 +4031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
         <v>67</v>
@@ -4166,7 +4054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
         <v>68</v>
@@ -4189,7 +4077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>8</v>
       </c>
@@ -4216,7 +4104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>7</v>
       </c>
@@ -4229,7 +4117,7 @@
       <c r="F93" s="50"/>
       <c r="G93" s="30"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>8</v>
       </c>
@@ -4254,7 +4142,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>8</v>
       </c>
@@ -4279,7 +4167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>8</v>
       </c>
@@ -4304,7 +4192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>8</v>
       </c>
@@ -4329,7 +4217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>8</v>
       </c>
@@ -4354,7 +4242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>8</v>
       </c>
@@ -4379,7 +4267,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
         <v>77</v>
@@ -4402,7 +4290,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>8</v>
       </c>
@@ -4427,7 +4315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>8</v>
       </c>
@@ -4452,7 +4340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>8</v>
       </c>
@@ -4477,7 +4365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>8</v>
       </c>
@@ -4504,7 +4392,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>8</v>
       </c>
@@ -4517,7 +4405,7 @@
       <c r="F105" s="50"/>
       <c r="G105" s="30"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>121</v>
@@ -4528,7 +4416,7 @@
       <c r="F106" s="50"/>
       <c r="G106" s="30"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="5" t="s">
         <v>122</v>
@@ -4551,7 +4439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
         <v>123</v>
@@ -4574,7 +4462,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="5" t="s">
         <v>124</v>
@@ -4597,7 +4485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="5" t="s">
         <v>125</v>
@@ -4620,7 +4508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="5" t="s">
         <v>126</v>
@@ -4643,15 +4531,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C112" s="27">
+        <f>SUM(C107:C111)</f>
         <v>0</v>
       </c>
       <c r="D112" s="27">
+        <f>SUM(D107:D111)</f>
         <v>0</v>
       </c>
       <c r="E112" s="49" t="str">
@@ -4666,7 +4556,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
         <v>127</v>
@@ -4677,7 +4567,7 @@
       <c r="F113" s="50"/>
       <c r="G113" s="30"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="5" t="s">
         <v>82</v>
@@ -4700,7 +4590,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="5" t="s">
         <v>84</v>
@@ -4723,7 +4613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="5" t="s">
         <v>85</v>
@@ -4746,7 +4636,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="5" t="s">
         <v>86</v>
@@ -4769,15 +4659,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C118" s="27">
+        <f>SUM(C114:C117)</f>
         <v>0</v>
       </c>
       <c r="D118" s="27">
+        <f>SUM(D114:D117)</f>
         <v>0</v>
       </c>
       <c r="E118" s="49" t="str">
@@ -4792,7 +4684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>128</v>
@@ -4803,7 +4695,7 @@
       <c r="F119" s="50"/>
       <c r="G119" s="30"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
         <v>87</v>
@@ -4826,7 +4718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="5" t="s">
         <v>88</v>
@@ -4849,7 +4741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>89</v>
@@ -4872,7 +4764,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>90</v>
@@ -4895,15 +4787,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C124" s="27">
+        <f>SUM(C120:C123)</f>
         <v>0</v>
       </c>
       <c r="D124" s="27">
+        <f>SUM(D120:D123)</f>
         <v>0</v>
       </c>
       <c r="E124" s="49" t="str">
@@ -4918,7 +4812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>231</v>
       </c>
@@ -4931,7 +4825,7 @@
       <c r="F125" s="50"/>
       <c r="G125" s="30"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>9</v>
       </c>
@@ -4944,7 +4838,7 @@
       <c r="F126" s="50"/>
       <c r="G126" s="30"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>8</v>
       </c>
@@ -4969,7 +4863,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>8</v>
       </c>
@@ -4994,7 +4888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>8</v>
       </c>
@@ -5019,7 +4913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>8</v>
       </c>
@@ -5044,7 +4938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>8</v>
       </c>
@@ -5069,7 +4963,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>10</v>
       </c>
@@ -5082,7 +4976,7 @@
       <c r="F132" s="50"/>
       <c r="G132" s="29"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="11" t="s">
         <v>171</v>
@@ -5105,7 +4999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="11" t="s">
         <v>172</v>
@@ -5128,7 +5022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="11" t="s">
         <v>173</v>
@@ -5151,15 +5045,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C136" s="27">
+        <f>SUM(C133:C135)</f>
         <v>0</v>
       </c>
       <c r="D136" s="27">
+        <f>SUM(D133:D135)</f>
         <v>0</v>
       </c>
       <c r="E136" s="49" t="str">
@@ -5174,7 +5070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>11</v>
       </c>
@@ -5187,7 +5083,7 @@
       <c r="F137" s="50"/>
       <c r="G137" s="33"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>8</v>
       </c>
@@ -5212,7 +5108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>8</v>
       </c>
@@ -5237,7 +5133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>8</v>
       </c>
@@ -5262,7 +5158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>8</v>
       </c>
@@ -5287,7 +5183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>8</v>
       </c>
@@ -5312,7 +5208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>8</v>
       </c>
@@ -5337,7 +5233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>8</v>
       </c>
@@ -5362,7 +5258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>8</v>
       </c>
@@ -5370,9 +5266,11 @@
         <v>209</v>
       </c>
       <c r="C145" s="27">
+        <f>SUM(C138:C144)</f>
         <v>0</v>
       </c>
       <c r="D145" s="27">
+        <f>SUM(D138:D144)</f>
         <v>0</v>
       </c>
       <c r="E145" s="49" t="str">
@@ -5387,7 +5285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>12</v>
       </c>
@@ -5400,7 +5298,7 @@
       <c r="F146" s="50"/>
       <c r="G146" s="33"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="5" t="s">
         <v>57</v>
@@ -5423,7 +5321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="5" t="s">
         <v>59</v>
@@ -5446,7 +5344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="5" t="s">
         <v>60</v>
@@ -5469,7 +5367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="5" t="s">
         <v>61</v>
@@ -5492,7 +5390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="5" t="s">
         <v>62</v>
@@ -5515,7 +5413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
         <v>63</v>
@@ -5538,7 +5436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>8</v>
       </c>
@@ -5563,7 +5461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>8</v>
       </c>
@@ -5588,7 +5486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>8</v>
       </c>
@@ -5613,7 +5511,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>8</v>
       </c>
@@ -5638,7 +5536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>8</v>
       </c>
@@ -5663,7 +5561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
         <v>8</v>
       </c>
@@ -5671,9 +5569,11 @@
         <v>210</v>
       </c>
       <c r="C158" s="27">
+        <f>SUM(C147:C157)</f>
         <v>0</v>
       </c>
       <c r="D158" s="27">
+        <f>SUM(D147:D157)</f>
         <v>0</v>
       </c>
       <c r="E158" s="49" t="str">
@@ -5688,7 +5588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>13</v>
       </c>
@@ -5701,7 +5601,7 @@
       <c r="F159" s="50"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>8</v>
       </c>
@@ -5726,7 +5626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>8</v>
       </c>
@@ -5751,7 +5651,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>8</v>
       </c>
@@ -5776,7 +5676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>8</v>
       </c>
@@ -5801,7 +5701,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>8</v>
       </c>
@@ -5826,7 +5726,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>8</v>
       </c>
@@ -5851,7 +5751,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5" t="s">
         <v>77</v>
@@ -5874,7 +5774,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>8</v>
       </c>
@@ -5899,7 +5799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="17" t="s">
         <v>79</v>
@@ -5922,7 +5822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>8</v>
       </c>
@@ -5947,7 +5847,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>8</v>
       </c>
@@ -5955,9 +5855,11 @@
         <v>209</v>
       </c>
       <c r="C170" s="27">
+        <f>SUM(C160:C169)</f>
         <v>0</v>
       </c>
       <c r="D170" s="27">
+        <f>SUM(D160:D169)</f>
         <v>0</v>
       </c>
       <c r="E170" s="49" t="str">
@@ -5972,7 +5874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>14</v>
       </c>
@@ -5985,7 +5887,7 @@
       <c r="F171" s="50"/>
       <c r="G171" s="30"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>8</v>
       </c>
@@ -6010,7 +5912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>8</v>
       </c>
@@ -6035,7 +5937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>8</v>
       </c>
@@ -6060,7 +5962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>8</v>
       </c>
@@ -6085,7 +5987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>8</v>
       </c>
@@ -6110,7 +6012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>8</v>
       </c>
@@ -6135,7 +6037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>8</v>
       </c>
@@ -6143,9 +6045,11 @@
         <v>270</v>
       </c>
       <c r="C178" s="27">
+        <f>SUM(C172:C177)</f>
         <v>0</v>
       </c>
       <c r="D178" s="27">
+        <f>SUM(D172:D177)</f>
         <v>0</v>
       </c>
       <c r="E178" s="49" t="str">
@@ -6160,7 +6064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>15</v>
       </c>
@@ -6173,7 +6077,7 @@
       <c r="F179" s="50"/>
       <c r="G179" s="30"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>8</v>
       </c>
@@ -6198,7 +6102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>8</v>
       </c>
@@ -6223,7 +6127,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>8</v>
       </c>
@@ -6248,7 +6152,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5" t="s">
         <v>110</v>
@@ -6271,7 +6175,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>8</v>
       </c>
@@ -6296,7 +6200,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>8</v>
       </c>
@@ -6321,7 +6225,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>8</v>
       </c>
@@ -6346,7 +6250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>8</v>
       </c>
@@ -6371,7 +6275,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5" t="s">
         <v>115</v>
@@ -6394,7 +6298,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>8</v>
       </c>
@@ -6419,7 +6323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>8</v>
       </c>
@@ -6427,9 +6331,11 @@
         <v>211</v>
       </c>
       <c r="C190" s="27">
+        <f>SUM(C180:C189)</f>
         <v>0</v>
       </c>
       <c r="D190" s="27">
+        <f>SUM(D180:D189)</f>
         <v>0</v>
       </c>
       <c r="E190" s="49" t="str">
@@ -6444,7 +6350,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>16</v>
       </c>
@@ -6457,7 +6363,7 @@
       <c r="F191" s="50"/>
       <c r="G191" s="30"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>8</v>
       </c>
@@ -6482,7 +6388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>8</v>
       </c>
@@ -6507,7 +6413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>8</v>
       </c>
@@ -6532,7 +6438,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>8</v>
       </c>
@@ -6557,7 +6463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>8</v>
       </c>
@@ -6582,7 +6488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>8</v>
       </c>
@@ -6607,7 +6513,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>8</v>
       </c>
@@ -6632,7 +6538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>8</v>
       </c>
@@ -6640,9 +6546,11 @@
         <v>212</v>
       </c>
       <c r="C199" s="27">
+        <f>SUM(C192:C198)</f>
         <v>0</v>
       </c>
       <c r="D199" s="27">
+        <f>SUM(D192:D198)</f>
         <v>0</v>
       </c>
       <c r="E199" s="49" t="str">
@@ -6657,7 +6565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>17</v>
       </c>
@@ -6670,7 +6578,7 @@
       <c r="F200" s="50"/>
       <c r="G200" s="30"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="5" t="s">
         <v>57</v>
@@ -6693,7 +6601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="5" t="s">
         <v>59</v>
@@ -6716,7 +6624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="5" t="s">
         <v>60</v>
@@ -6739,7 +6647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="5" t="s">
         <v>61</v>
@@ -6762,7 +6670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="5" t="s">
         <v>62</v>
@@ -6785,7 +6693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="5" t="s">
         <v>63</v>
@@ -6808,7 +6716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="5" t="s">
         <v>64</v>
@@ -6831,7 +6739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>8</v>
       </c>
@@ -6856,7 +6764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>8</v>
       </c>
@@ -6881,7 +6789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>8</v>
       </c>
@@ -6906,7 +6814,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>8</v>
       </c>
@@ -6931,7 +6839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>8</v>
       </c>
@@ -6939,9 +6847,11 @@
         <v>213</v>
       </c>
       <c r="C212" s="27">
+        <f>SUM(C201:C211)</f>
         <v>0</v>
       </c>
       <c r="D212" s="27">
+        <f>SUM(D201:D211)</f>
         <v>0</v>
       </c>
       <c r="E212" s="49" t="str">
@@ -6956,7 +6866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <v>18</v>
       </c>
@@ -6969,7 +6879,7 @@
       <c r="F213" s="50"/>
       <c r="G213" s="39"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>8</v>
       </c>
@@ -6994,7 +6904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>8</v>
       </c>
@@ -7019,7 +6929,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>8</v>
       </c>
@@ -7044,7 +6954,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>8</v>
       </c>
@@ -7069,7 +6979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>8</v>
       </c>
@@ -7094,7 +7004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>8</v>
       </c>
@@ -7119,7 +7029,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5" t="s">
         <v>77</v>
@@ -7142,7 +7052,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5" t="s">
         <v>78</v>
@@ -7165,7 +7075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>8</v>
       </c>
@@ -7190,7 +7100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>8</v>
       </c>
@@ -7215,7 +7125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>8</v>
       </c>
@@ -7223,9 +7133,11 @@
         <v>214</v>
       </c>
       <c r="C224" s="27">
+        <f>SUM(C214:C223)</f>
         <v>0</v>
       </c>
       <c r="D224" s="27">
+        <f>SUM(D214:D223)</f>
         <v>0</v>
       </c>
       <c r="E224" s="49" t="str">
@@ -7240,7 +7152,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>19</v>
       </c>
@@ -7253,7 +7165,7 @@
       <c r="F225" s="50"/>
       <c r="G225" s="30"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>8</v>
       </c>
@@ -7266,7 +7178,7 @@
       <c r="F226" s="50"/>
       <c r="G226" s="29"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>8</v>
       </c>
@@ -7291,7 +7203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>8</v>
       </c>
@@ -7316,7 +7228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>8</v>
       </c>
@@ -7341,7 +7253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>8</v>
       </c>
@@ -7366,7 +7278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5" t="s">
         <v>126</v>
@@ -7389,7 +7301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>8</v>
       </c>
@@ -7414,7 +7326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>8</v>
       </c>
@@ -7422,9 +7334,11 @@
         <v>215</v>
       </c>
       <c r="C233" s="27">
+        <f>SUM(C227:C232)</f>
         <v>0</v>
       </c>
       <c r="D233" s="27">
+        <f>SUM(D227:D232)</f>
         <v>0</v>
       </c>
       <c r="E233" s="49" t="str">
@@ -7439,7 +7353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>8</v>
       </c>
@@ -7452,7 +7366,7 @@
       <c r="F234" s="50"/>
       <c r="G234" s="30"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>8</v>
       </c>
@@ -7477,7 +7391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>8</v>
       </c>
@@ -7502,7 +7416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>8</v>
       </c>
@@ -7527,7 +7441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>8</v>
       </c>
@@ -7552,7 +7466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>8</v>
       </c>
@@ -7560,9 +7474,11 @@
         <v>216</v>
       </c>
       <c r="C239" s="27">
+        <f>SUM(C235:C238)</f>
         <v>0</v>
       </c>
       <c r="D239" s="27">
+        <f>SUM(D235:D238)</f>
         <v>0</v>
       </c>
       <c r="E239" s="49" t="str">
@@ -7577,7 +7493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>8</v>
       </c>
@@ -7590,7 +7506,7 @@
       <c r="F240" s="50"/>
       <c r="G240" s="30"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>8</v>
       </c>
@@ -7615,7 +7531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>8</v>
       </c>
@@ -7640,7 +7556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>8</v>
       </c>
@@ -7665,7 +7581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>8</v>
       </c>
@@ -7690,7 +7606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>8</v>
       </c>
@@ -7698,9 +7614,11 @@
         <v>217</v>
       </c>
       <c r="C245" s="27">
+        <f>SUM(C241:C244)</f>
         <v>0</v>
       </c>
       <c r="D245" s="27">
+        <f>SUM(D241:D244)</f>
         <v>0</v>
       </c>
       <c r="E245" s="49" t="str">
@@ -7715,7 +7633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>20</v>
       </c>
@@ -7728,7 +7646,7 @@
       <c r="F246" s="50"/>
       <c r="G246" s="30"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>8</v>
       </c>
@@ -7743,7 +7661,7 @@
       <c r="F247" s="50"/>
       <c r="G247" s="29"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>8</v>
       </c>
@@ -7768,7 +7686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>8</v>
       </c>
@@ -7793,7 +7711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>8</v>
       </c>
@@ -7818,7 +7736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5" t="s">
         <v>134</v>
@@ -7841,7 +7759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5" t="s">
         <v>135</v>
@@ -7864,7 +7782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5" t="s">
         <v>136</v>
@@ -7887,7 +7805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5" t="s">
         <v>137</v>
@@ -7910,7 +7828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5" t="s">
         <v>138</v>
@@ -7933,7 +7851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5" t="s">
         <v>139</v>
@@ -7956,7 +7874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5" t="s">
         <v>276</v>
@@ -7979,7 +7897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5" t="s">
         <v>140</v>
@@ -8002,7 +7920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>8</v>
       </c>
@@ -8027,7 +7945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>8</v>
       </c>
@@ -8052,7 +7970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>8</v>
       </c>
@@ -8077,7 +7995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>8</v>
       </c>
@@ -8102,7 +8020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5" t="s">
         <v>145</v>
@@ -8117,7 +8035,7 @@
       <c r="F263" s="50"/>
       <c r="G263" s="29"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5" t="s">
         <v>146</v>
@@ -8140,7 +8058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5" t="s">
         <v>147</v>
@@ -8163,7 +8081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5" t="s">
         <v>148</v>
@@ -8186,7 +8104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5" t="s">
         <v>149</v>
@@ -8209,15 +8127,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C268" s="27">
+        <f>SUM(C247:C267)</f>
         <v>0</v>
       </c>
       <c r="D268" s="27">
+        <f>SUM(D247:D267)</f>
         <v>0</v>
       </c>
       <c r="E268" s="49" t="str">
@@ -8232,7 +8152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>21</v>
       </c>
@@ -8245,7 +8165,7 @@
       <c r="F269" s="50"/>
       <c r="G269" s="30"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>8</v>
       </c>
@@ -8270,7 +8190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>8</v>
       </c>
@@ -8295,7 +8215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>8</v>
       </c>
@@ -8320,7 +8240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>8</v>
       </c>
@@ -8345,7 +8265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>8</v>
       </c>
@@ -8370,7 +8290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>8</v>
       </c>
@@ -8395,7 +8315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>8</v>
       </c>
@@ -8420,7 +8340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5" t="s">
         <v>158</v>
@@ -8443,7 +8363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>8</v>
       </c>
@@ -8451,9 +8371,11 @@
         <v>218</v>
       </c>
       <c r="C278" s="27">
+        <f>SUM(C270:C277)</f>
         <v>0</v>
       </c>
       <c r="D278" s="27">
+        <f>SUM(D270:D277)</f>
         <v>0</v>
       </c>
       <c r="E278" s="49" t="str">
@@ -8468,7 +8390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>22</v>
       </c>
@@ -8481,7 +8403,7 @@
       <c r="F279" s="50"/>
       <c r="G279" s="30"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>8</v>
       </c>
@@ -8506,7 +8428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>8</v>
       </c>
@@ -8531,7 +8453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>8</v>
       </c>
@@ -8556,7 +8478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>8</v>
       </c>
@@ -8581,7 +8503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>8</v>
       </c>
@@ -8606,7 +8528,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>23</v>
       </c>
@@ -8619,7 +8541,7 @@
       <c r="F285" s="50"/>
       <c r="G285" s="30"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>8</v>
       </c>
@@ -8644,7 +8566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>8</v>
       </c>
@@ -8669,7 +8591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="10"/>
       <c r="B288" s="11" t="s">
         <v>96</v>
@@ -8692,7 +8614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>8</v>
       </c>
@@ -8717,7 +8639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>8</v>
       </c>
@@ -8742,7 +8664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>24</v>
       </c>
@@ -8755,7 +8677,7 @@
       <c r="F291" s="50"/>
       <c r="G291" s="30"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5" t="s">
         <v>162</v>
@@ -8778,7 +8700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5" t="s">
         <v>95</v>
@@ -8801,7 +8723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5" t="s">
         <v>96</v>
@@ -8824,7 +8746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5" t="s">
         <v>97</v>
@@ -8847,7 +8769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5" t="s">
         <v>160</v>
@@ -8870,7 +8792,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>25</v>
       </c>
@@ -8883,7 +8805,7 @@
       <c r="F297" s="50"/>
       <c r="G297" s="30"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
         <v>8</v>
       </c>
@@ -8908,7 +8830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>8</v>
       </c>
@@ -8933,7 +8855,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
         <v>8</v>
       </c>
@@ -8958,7 +8880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
         <v>8</v>
       </c>
@@ -8983,7 +8905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>8</v>
       </c>
@@ -9008,7 +8930,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="303" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>26</v>
       </c>
@@ -9021,7 +8943,7 @@
       <c r="F303" s="50"/>
       <c r="G303" s="37"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5" t="s">
         <v>93</v>
@@ -9044,7 +8966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5" t="s">
         <v>95</v>
@@ -9067,7 +8989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5" t="s">
         <v>96</v>
@@ -9090,7 +9012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5" t="s">
         <v>97</v>
@@ -9113,7 +9035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5" t="s">
         <v>160</v>
@@ -9136,7 +9058,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <v>27</v>
       </c>
@@ -9149,7 +9071,7 @@
       <c r="F309" s="50"/>
       <c r="G309" s="37"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5" t="s">
         <v>93</v>
@@ -9172,7 +9094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5" t="s">
         <v>95</v>
@@ -9195,7 +9117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5" t="s">
         <v>96</v>
@@ -9218,7 +9140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5" t="s">
         <v>97</v>
@@ -9241,7 +9163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5" t="s">
         <v>160</v>
@@ -9264,7 +9186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <v>28</v>
       </c>
@@ -9277,7 +9199,7 @@
       <c r="F315" s="50"/>
       <c r="G315" s="37"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5" t="s">
         <v>93</v>
@@ -9300,7 +9222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5" t="s">
         <v>95</v>
@@ -9323,7 +9245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5" t="s">
         <v>96</v>
@@ -9346,7 +9268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5" t="s">
         <v>97</v>
@@ -9369,7 +9291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5" t="s">
         <v>160</v>
@@ -9392,7 +9314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <v>29</v>
       </c>
@@ -9409,7 +9331,7 @@
       <c r="F321" s="50"/>
       <c r="G321" s="30"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="5" t="s">
         <v>93</v>
@@ -9432,7 +9354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
         <v>8</v>
       </c>
@@ -9457,7 +9379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
         <v>8</v>
       </c>
@@ -9482,7 +9404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>8</v>
       </c>
@@ -9507,7 +9429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>8</v>
       </c>
@@ -9532,7 +9454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>8</v>
       </c>
@@ -9557,7 +9479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5" t="s">
         <v>168</v>
@@ -9580,7 +9502,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <v>30</v>
       </c>
@@ -9597,7 +9519,7 @@
       <c r="F329" s="50"/>
       <c r="G329" s="29"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5" t="s">
         <v>225</v>
@@ -9620,7 +9542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5" t="s">
         <v>226</v>
@@ -9643,7 +9565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5" t="s">
         <v>227</v>
@@ -9666,15 +9588,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C333" s="27">
+        <f>SUM(C330:C332)</f>
         <v>0</v>
       </c>
       <c r="D333" s="27">
+        <f>SUM(D330:D332)</f>
         <v>0</v>
       </c>
       <c r="E333" s="49" t="str">
@@ -9689,7 +9613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="13" t="s">
         <v>263</v>
       </c>
@@ -9702,7 +9626,7 @@
       <c r="F334" s="50"/>
       <c r="G334" s="29"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <v>31</v>
       </c>
@@ -9715,7 +9639,7 @@
       <c r="F335" s="50"/>
       <c r="G335" s="29"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="21" t="s">
         <v>176</v>
@@ -9726,7 +9650,7 @@
       <c r="F336" s="50"/>
       <c r="G336" s="29"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="22" t="s">
         <v>177</v>
@@ -9749,7 +9673,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="22" t="s">
         <v>178</v>
@@ -9772,7 +9696,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="52" t="s">
         <v>281</v>
@@ -9795,7 +9719,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="22" t="s">
         <v>282</v>
@@ -9818,7 +9742,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="22" t="s">
         <v>283</v>
@@ -9841,7 +9765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="22" t="s">
         <v>284</v>
@@ -9864,15 +9788,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="22" t="s">
         <v>274</v>
       </c>
       <c r="C343" s="27">
+        <f>SUM(C337:C342)</f>
         <v>0</v>
       </c>
       <c r="D343" s="27">
+        <f>SUM(D337:D342)</f>
         <v>0</v>
       </c>
       <c r="E343" s="49" t="str">
@@ -9887,7 +9813,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="21" t="s">
         <v>179</v>
@@ -9898,7 +9824,7 @@
       <c r="F344" s="50"/>
       <c r="G344" s="29"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="22" t="s">
         <v>180</v>
@@ -9921,7 +9847,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="22" t="s">
         <v>181</v>
@@ -9944,7 +9870,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="22" t="s">
         <v>182</v>
@@ -9967,7 +9893,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="22" t="s">
         <v>183</v>
@@ -9990,15 +9916,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="22" t="s">
         <v>274</v>
       </c>
       <c r="C349" s="27">
+        <f>SUM(C345:C348)</f>
         <v>0</v>
       </c>
       <c r="D349" s="27">
+        <f>SUM(D345:D348)</f>
         <v>0</v>
       </c>
       <c r="E349" s="49" t="str">
@@ -10013,7 +9941,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="21" t="s">
         <v>184</v>
@@ -10024,7 +9952,7 @@
       <c r="F350" s="50"/>
       <c r="G350" s="43"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="22" t="s">
         <v>185</v>
@@ -10047,7 +9975,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="22" t="s">
         <v>186</v>
@@ -10070,7 +9998,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="22" t="s">
         <v>187</v>
@@ -10093,7 +10021,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="22" t="s">
         <v>188</v>
@@ -10116,15 +10044,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C355" s="27">
+        <f>SUM(C351:C354)</f>
         <v>0</v>
       </c>
       <c r="D355" s="27">
+        <f>SUM(D351:D354)</f>
         <v>0</v>
       </c>
       <c r="E355" s="49" t="str">
@@ -10139,7 +10069,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="21" t="s">
         <v>189</v>
@@ -10150,7 +10080,7 @@
       <c r="F356" s="50"/>
       <c r="G356" s="29"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="22" t="s">
         <v>190</v>
@@ -10173,7 +10103,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="22" t="s">
         <v>196</v>
@@ -10196,7 +10126,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="10"/>
       <c r="B359" s="11" t="s">
         <v>200</v>
@@ -10219,7 +10149,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="22" t="s">
         <v>197</v>
@@ -10242,7 +10172,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="22" t="s">
         <v>198</v>
@@ -10265,7 +10195,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="22" t="s">
         <v>199</v>
@@ -10288,7 +10218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="22" t="s">
         <v>201</v>
@@ -10311,15 +10241,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C364" s="27">
+        <f>SUM(C357:C363)</f>
         <v>0</v>
       </c>
       <c r="D364" s="27">
+        <f>SUM(D357:D363)</f>
         <v>0</v>
       </c>
       <c r="E364" s="49" t="str">
@@ -10334,7 +10266,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>228</v>
       </c>
@@ -10347,7 +10279,7 @@
       <c r="F365" s="50"/>
       <c r="G365" s="42"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="23">
         <v>32</v>
       </c>
@@ -10368,7 +10300,7 @@
       </c>
       <c r="G366" s="29"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="23"/>
       <c r="B367" s="22" t="s">
         <v>191</v>
@@ -10391,7 +10323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="23"/>
       <c r="B368" s="22" t="s">
         <v>192</v>
@@ -10414,7 +10346,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="23"/>
       <c r="B369" s="22" t="s">
         <v>193</v>
@@ -10437,7 +10369,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="23"/>
       <c r="B370" s="22" t="s">
         <v>194</v>
@@ -10460,15 +10392,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="23"/>
       <c r="B371" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C371" s="27">
+        <f>SUM(C367:C370)</f>
         <v>0</v>
       </c>
       <c r="D371" s="27">
+        <f>SUM(D367:D370)</f>
         <v>0</v>
       </c>
       <c r="E371" s="49" t="str">
@@ -10483,7 +10417,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="372" spans="1:7" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="53" t="s">
         <v>260</v>
       </c>
@@ -10496,7 +10430,7 @@
       <c r="F372" s="58"/>
       <c r="G372" s="59"/>
     </row>
-    <row r="373" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="61">
         <v>33</v>
       </c>
@@ -10509,7 +10443,7 @@
       <c r="F373" s="58"/>
       <c r="G373" s="59"/>
     </row>
-    <row r="374" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="64" t="s">
         <v>234</v>
       </c>
@@ -10522,7 +10456,7 @@
       <c r="F374" s="58"/>
       <c r="G374" s="59"/>
     </row>
-    <row r="375" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="64"/>
       <c r="B375" s="64" t="s">
         <v>236</v>
@@ -10545,7 +10479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="376" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="64"/>
       <c r="B376" s="64" t="s">
         <v>237</v>
@@ -10568,7 +10502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="377" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="64"/>
       <c r="B377" s="64" t="s">
         <v>238</v>
@@ -10591,7 +10525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="378" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="64"/>
       <c r="B378" s="64" t="s">
         <v>239</v>
@@ -10614,7 +10548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="379" spans="1:7" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="64"/>
       <c r="B379" s="65" t="s">
         <v>240</v>
@@ -10637,7 +10571,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="380" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="64"/>
       <c r="B380" s="65" t="s">
         <v>241</v>
@@ -10660,7 +10594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="381" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="64"/>
       <c r="B381" s="65" t="s">
         <v>242</v>
@@ -10683,7 +10617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="382" spans="1:7" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="64"/>
       <c r="B382" s="65" t="s">
         <v>243</v>
@@ -10706,7 +10640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="383" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="64"/>
       <c r="B383" s="65" t="s">
         <v>244</v>
@@ -10729,7 +10663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="384" spans="1:7" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="64" t="s">
         <v>234</v>
       </c>
@@ -10742,7 +10676,7 @@
       <c r="F384" s="58"/>
       <c r="G384" s="71"/>
     </row>
-    <row r="385" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="64"/>
       <c r="B385" s="65" t="s">
         <v>246</v>
@@ -10765,7 +10699,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="386" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="64"/>
       <c r="B386" s="65" t="s">
         <v>242</v>
@@ -10788,7 +10722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="387" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="64"/>
       <c r="B387" s="65" t="s">
         <v>244</v>
@@ -10811,7 +10745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="388" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="64" t="s">
         <v>234</v>
       </c>
@@ -10826,7 +10760,7 @@
       <c r="F388" s="58"/>
       <c r="G388" s="72"/>
     </row>
-    <row r="389" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="64"/>
       <c r="B389" s="64" t="s">
         <v>248</v>
@@ -10849,7 +10783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="390" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="64"/>
       <c r="B390" s="64" t="s">
         <v>249</v>
@@ -10872,7 +10806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="391" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="64"/>
       <c r="B391" s="64" t="s">
         <v>250</v>
@@ -10895,7 +10829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="392" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="64"/>
       <c r="B392" s="64" t="s">
         <v>237</v>
@@ -10918,7 +10852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="393" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="64"/>
       <c r="B393" s="64" t="s">
         <v>251</v>
@@ -10941,7 +10875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="394" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="64"/>
       <c r="B394" s="64" t="s">
         <v>249</v>
@@ -10964,7 +10898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="64"/>
       <c r="B395" s="64" t="s">
         <v>250</v>
@@ -10987,7 +10921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="396" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="64"/>
       <c r="B396" s="64" t="s">
         <v>239</v>
@@ -11010,7 +10944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="397" spans="1:7" s="60" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" s="60" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="64"/>
       <c r="B397" s="65" t="s">
         <v>254</v>
@@ -11033,7 +10967,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="398" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="64"/>
       <c r="B398" s="65" t="s">
         <v>255</v>
@@ -11056,7 +10990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="399" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="64"/>
       <c r="B399" s="65" t="s">
         <v>256</v>
@@ -11079,7 +11013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="400" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="64"/>
       <c r="B400" s="65" t="s">
         <v>242</v>
@@ -11102,7 +11036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="401" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="64"/>
       <c r="B401" s="65" t="s">
         <v>244</v>
@@ -11125,7 +11059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="402" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="64" t="s">
         <v>234</v>
       </c>
@@ -11138,7 +11072,7 @@
       <c r="F402" s="58"/>
       <c r="G402" s="72"/>
     </row>
-    <row r="403" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="64"/>
       <c r="B403" s="64" t="s">
         <v>258</v>
@@ -11161,7 +11095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="404" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="64"/>
       <c r="B404" s="64" t="s">
         <v>259</v>
@@ -11184,7 +11118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="64"/>
       <c r="B405" s="65" t="s">
         <v>265</v>
@@ -11207,7 +11141,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="406" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="64"/>
       <c r="B406" s="65" t="s">
         <v>242</v>
@@ -11230,7 +11164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="407" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="64"/>
       <c r="B407" s="65" t="s">
         <v>244</v>
@@ -11253,7 +11187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="408" spans="1:7" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="53" t="s">
         <v>285</v>
       </c>
@@ -11266,7 +11200,7 @@
       <c r="F408" s="58"/>
       <c r="G408" s="59"/>
     </row>
-    <row r="409" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A409" s="61">
         <v>34</v>
       </c>
@@ -11279,7 +11213,7 @@
       <c r="F409" s="58"/>
       <c r="G409" s="59"/>
     </row>
-    <row r="410" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A410" s="64"/>
       <c r="B410" s="76" t="s">
         <v>288</v>
@@ -11302,7 +11236,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="411" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A411" s="64"/>
       <c r="B411" s="76" t="s">
         <v>289</v>
@@ -11325,7 +11259,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="412" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A412" s="64"/>
       <c r="B412" s="76" t="s">
         <v>290</v>
@@ -11348,7 +11282,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="413" spans="1:7" s="60" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A413" s="64"/>
       <c r="B413" s="76" t="s">
         <v>291</v>
@@ -11371,32 +11305,32 @@
         <v>107</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="77"/>
       <c r="B414" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C414" s="79">
-        <f t="shared" ref="C414:D414" si="18">SUM(C409:C413)</f>
-        <v>0</v>
-      </c>
-      <c r="D414" s="80">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E414" s="81" t="str">
+        <f>SUM(C410:C413)</f>
+        <v>0</v>
+      </c>
+      <c r="D414" s="79">
+        <f>SUM(D410:D413)</f>
+        <v>0</v>
+      </c>
+      <c r="E414" s="80" t="str">
         <f>IF(C414=D414,"TETAP", IF(C414&gt;D414, "TURUN","NAIK"))</f>
         <v>TETAP</v>
       </c>
-      <c r="F414" s="82" t="e">
+      <c r="F414" s="81" t="e">
         <f>SUM(D414-C414)/C414*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G414" s="83" t="s">
+      <c r="G414" s="82" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="46"/>
       <c r="B415" s="46"/>
       <c r="C415" s="46"/>
@@ -11405,7 +11339,7 @@
       <c r="F415" s="87"/>
       <c r="G415" s="87"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="46"/>
       <c r="B416" s="46"/>
       <c r="C416" s="46"/>
@@ -11414,30 +11348,30 @@
       <c r="F416" s="46"/>
       <c r="G416" s="46"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="46"/>
       <c r="B417" s="46"/>
       <c r="C417" s="46"/>
       <c r="D417" s="46"/>
-      <c r="E417" s="97" t="s">
+      <c r="E417" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="F417" s="97"/>
+      <c r="F417" s="86"/>
       <c r="G417" s="46"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="46"/>
       <c r="B418" s="46"/>
       <c r="C418" s="46"/>
       <c r="D418" s="46"/>
-      <c r="E418" s="97"/>
-      <c r="F418" s="97"/>
+      <c r="E418" s="86"/>
+      <c r="F418" s="86"/>
       <c r="G418" s="46"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="46"/>
       <c r="B419" s="46"/>
-      <c r="C419" s="86"/>
+      <c r="C419" s="85"/>
       <c r="D419" s="46"/>
       <c r="E419" s="87" t="s">
         <v>294</v>
@@ -11445,65 +11379,65 @@
       <c r="F419" s="87"/>
       <c r="G419" s="46"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="46"/>
       <c r="B420" s="46"/>
-      <c r="C420" s="86"/>
+      <c r="C420" s="85"/>
       <c r="D420" s="46"/>
       <c r="E420" s="46"/>
       <c r="F420" s="46"/>
       <c r="G420" s="46"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="46"/>
       <c r="B421" s="46"/>
-      <c r="C421" s="86"/>
+      <c r="C421" s="85"/>
       <c r="D421" s="46"/>
       <c r="E421" s="46"/>
       <c r="F421" s="46"/>
       <c r="G421" s="46"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="46"/>
       <c r="B422" s="46"/>
-      <c r="C422" s="86"/>
+      <c r="C422" s="85"/>
       <c r="D422" s="46"/>
       <c r="E422" s="46"/>
       <c r="F422" s="46"/>
       <c r="G422" s="46"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="46"/>
       <c r="B423" s="46"/>
-      <c r="C423" s="86"/>
+      <c r="C423" s="85"/>
       <c r="D423" s="46"/>
       <c r="E423" s="46"/>
       <c r="F423" s="46"/>
       <c r="G423" s="46"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="46"/>
       <c r="B424" s="46"/>
-      <c r="C424" s="86"/>
+      <c r="C424" s="85"/>
       <c r="D424" s="46"/>
-      <c r="E424" s="97" t="s">
+      <c r="E424" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="F424" s="97"/>
+      <c r="F424" s="86"/>
       <c r="G424" s="46"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="46"/>
       <c r="B425" s="46"/>
-      <c r="C425" s="86"/>
+      <c r="C425" s="85"/>
       <c r="D425" s="46"/>
-      <c r="E425" s="97" t="s">
+      <c r="E425" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="F425" s="97"/>
+      <c r="F425" s="86"/>
       <c r="G425" s="46"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="46"/>
       <c r="B426" s="46"/>
       <c r="C426" s="46"/>
@@ -11512,7 +11446,7 @@
       <c r="F426" s="46"/>
       <c r="G426" s="46"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="46"/>
       <c r="B427" s="46"/>
       <c r="C427" s="46"/>
@@ -11521,7 +11455,7 @@
       <c r="F427" s="46"/>
       <c r="G427" s="46"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="46"/>
       <c r="B428" s="46"/>
       <c r="C428" s="46"/>
@@ -11530,7 +11464,7 @@
       <c r="F428" s="46"/>
       <c r="G428" s="46"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="46"/>
       <c r="B429" s="46"/>
       <c r="C429" s="46"/>
@@ -11539,7 +11473,7 @@
       <c r="F429" s="46"/>
       <c r="G429" s="46"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="46"/>
       <c r="B430" s="46"/>
       <c r="C430" s="46"/>
@@ -11548,7 +11482,7 @@
       <c r="F430" s="46"/>
       <c r="G430" s="46"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="46"/>
       <c r="B431" s="46"/>
       <c r="C431" s="46"/>
@@ -11557,7 +11491,7 @@
       <c r="F431" s="46"/>
       <c r="G431" s="46"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="46"/>
       <c r="B432" s="46"/>
       <c r="C432" s="46"/>
@@ -11566,7 +11500,7 @@
       <c r="F432" s="46"/>
       <c r="G432" s="46"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="46"/>
       <c r="B433" s="46"/>
       <c r="C433" s="46"/>
@@ -11575,7 +11509,7 @@
       <c r="F433" s="46"/>
       <c r="G433" s="46"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="46"/>
       <c r="B434" s="46"/>
       <c r="C434" s="46"/>
@@ -11584,7 +11518,7 @@
       <c r="F434" s="46"/>
       <c r="G434" s="46"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="46"/>
       <c r="B435" s="46"/>
       <c r="C435" s="46"/>
@@ -11593,7 +11527,7 @@
       <c r="F435" s="46"/>
       <c r="G435" s="46"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="46"/>
       <c r="B436" s="46"/>
       <c r="C436" s="46"/>
@@ -11602,7 +11536,7 @@
       <c r="F436" s="46"/>
       <c r="G436" s="46"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="46"/>
       <c r="B437" s="46"/>
       <c r="C437" s="46"/>
@@ -11611,7 +11545,7 @@
       <c r="F437" s="46"/>
       <c r="G437" s="46"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="46"/>
       <c r="B438" s="46"/>
       <c r="C438" s="46"/>
@@ -11620,7 +11554,7 @@
       <c r="F438" s="46"/>
       <c r="G438" s="46"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="46"/>
       <c r="B439" s="46"/>
       <c r="C439" s="46"/>
@@ -11629,7 +11563,7 @@
       <c r="F439" s="46"/>
       <c r="G439" s="46"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="46"/>
       <c r="B440" s="46"/>
       <c r="C440" s="46"/>
@@ -11638,7 +11572,7 @@
       <c r="F440" s="46"/>
       <c r="G440" s="46"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="46"/>
       <c r="B441" s="46"/>
       <c r="C441" s="46"/>
@@ -11647,7 +11581,7 @@
       <c r="F441" s="46"/>
       <c r="G441" s="46"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="46"/>
       <c r="B442" s="46"/>
       <c r="C442" s="46"/>
@@ -11656,7 +11590,7 @@
       <c r="F442" s="46"/>
       <c r="G442" s="46"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="46"/>
       <c r="B443" s="46"/>
       <c r="C443" s="46"/>
@@ -11665,7 +11599,7 @@
       <c r="F443" s="46"/>
       <c r="G443" s="46"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="46"/>
       <c r="B444" s="46"/>
       <c r="C444" s="46"/>
@@ -11674,7 +11608,7 @@
       <c r="F444" s="46"/>
       <c r="G444" s="46"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="46"/>
       <c r="B445" s="46"/>
       <c r="C445" s="46"/>
@@ -11683,7 +11617,7 @@
       <c r="F445" s="46"/>
       <c r="G445" s="46"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="46"/>
       <c r="B446" s="46"/>
       <c r="C446" s="46"/>
@@ -11692,7 +11626,7 @@
       <c r="F446" s="46"/>
       <c r="G446" s="46"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="46"/>
       <c r="B447" s="46"/>
       <c r="C447" s="46"/>
@@ -11701,7 +11635,7 @@
       <c r="F447" s="46"/>
       <c r="G447" s="46"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="46"/>
       <c r="B448" s="46"/>
       <c r="C448" s="46"/>
@@ -11710,7 +11644,7 @@
       <c r="F448" s="46"/>
       <c r="G448" s="46"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="46"/>
       <c r="B449" s="46"/>
       <c r="C449" s="46"/>
@@ -11719,7 +11653,7 @@
       <c r="F449" s="46"/>
       <c r="G449" s="46"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="46"/>
       <c r="B450" s="46"/>
       <c r="C450" s="46"/>
@@ -11728,7 +11662,7 @@
       <c r="F450" s="46"/>
       <c r="G450" s="46"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="46"/>
       <c r="B451" s="46"/>
       <c r="C451" s="46"/>
@@ -11737,7 +11671,7 @@
       <c r="F451" s="46"/>
       <c r="G451" s="46"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="46"/>
       <c r="B452" s="46"/>
       <c r="C452" s="46"/>
@@ -11746,7 +11680,7 @@
       <c r="F452" s="46"/>
       <c r="G452" s="46"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="46"/>
       <c r="B453" s="46"/>
       <c r="C453" s="46"/>
@@ -11755,7 +11689,7 @@
       <c r="F453" s="46"/>
       <c r="G453" s="46"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="46"/>
       <c r="B454" s="46"/>
       <c r="C454" s="46"/>
@@ -11764,7 +11698,7 @@
       <c r="F454" s="46"/>
       <c r="G454" s="46"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="46"/>
       <c r="B455" s="46"/>
       <c r="C455" s="46"/>
@@ -11773,7 +11707,7 @@
       <c r="F455" s="46"/>
       <c r="G455" s="46"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="46"/>
       <c r="B456" s="46"/>
       <c r="C456" s="46"/>
@@ -11782,7 +11716,7 @@
       <c r="F456" s="46"/>
       <c r="G456" s="46"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="46"/>
       <c r="B457" s="46"/>
       <c r="C457" s="46"/>
@@ -11791,7 +11725,7 @@
       <c r="F457" s="46"/>
       <c r="G457" s="46"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="46"/>
       <c r="B458" s="46"/>
       <c r="C458" s="46"/>
@@ -11800,7 +11734,7 @@
       <c r="F458" s="46"/>
       <c r="G458" s="46"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="46"/>
       <c r="B459" s="46"/>
       <c r="C459" s="46"/>
@@ -11809,7 +11743,7 @@
       <c r="F459" s="46"/>
       <c r="G459" s="46"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="46"/>
       <c r="B460" s="46"/>
       <c r="C460" s="46"/>
@@ -11818,7 +11752,7 @@
       <c r="F460" s="46"/>
       <c r="G460" s="46"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="46"/>
       <c r="B461" s="46"/>
       <c r="C461" s="46"/>
@@ -11827,7 +11761,7 @@
       <c r="F461" s="46"/>
       <c r="G461" s="46"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="46"/>
       <c r="B462" s="46"/>
       <c r="C462" s="46"/>
@@ -11836,7 +11770,7 @@
       <c r="F462" s="46"/>
       <c r="G462" s="46"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="46"/>
       <c r="B463" s="46"/>
       <c r="C463" s="46"/>
@@ -11845,7 +11779,7 @@
       <c r="F463" s="46"/>
       <c r="G463" s="46"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="46"/>
       <c r="B464" s="46"/>
       <c r="C464" s="46"/>
@@ -11854,7 +11788,7 @@
       <c r="F464" s="46"/>
       <c r="G464" s="46"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="46"/>
       <c r="B465" s="46"/>
       <c r="C465" s="46"/>
@@ -11863,7 +11797,7 @@
       <c r="F465" s="46"/>
       <c r="G465" s="46"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="46"/>
       <c r="B466" s="46"/>
       <c r="C466" s="46"/>
@@ -11872,22 +11806,17 @@
       <c r="F466" s="46"/>
       <c r="G466" s="46"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D469" s="48"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D470" s="48"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D471" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E415:G415"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A1:B1"/>
@@ -11901,6 +11830,11 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E417:F417"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajoris\Desktop\KORLANTAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1481,6 +1481,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1507,9 +1510,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="N380" sqref="N380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1975,8 +1975,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -1984,8 +1984,8 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1993,8 +1993,8 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2040,36 +2040,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="79" t="s">
+      <c r="A9" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="79" t="s">
+      <c r="F9" s="85"/>
+      <c r="G9" s="80" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="15">
         <v>2019</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="F10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="79"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -10543,9 +10543,7 @@
         <v>247</v>
       </c>
       <c r="C388" s="61"/>
-      <c r="D388" s="22">
-        <v>0</v>
-      </c>
+      <c r="D388" s="22"/>
       <c r="E388" s="23"/>
       <c r="F388" s="24"/>
       <c r="G388" s="63"/>
@@ -11125,9 +11123,9 @@
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
-      <c r="E415" s="76"/>
-      <c r="F415" s="76"/>
-      <c r="G415" s="76"/>
+      <c r="E415" s="77"/>
+      <c r="F415" s="77"/>
+      <c r="G415" s="77"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
@@ -11143,10 +11141,10 @@
       <c r="B417" s="8"/>
       <c r="C417" s="13"/>
       <c r="D417" s="8"/>
-      <c r="E417" s="85" t="s">
+      <c r="E417" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="F417" s="85"/>
+      <c r="F417" s="76"/>
       <c r="G417" s="8"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11154,8 +11152,8 @@
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
-      <c r="E418" s="85"/>
-      <c r="F418" s="85"/>
+      <c r="E418" s="76"/>
+      <c r="F418" s="76"/>
       <c r="G418" s="8"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11163,10 +11161,10 @@
       <c r="B419" s="8"/>
       <c r="C419" s="13"/>
       <c r="D419" s="8"/>
-      <c r="E419" s="76" t="s">
+      <c r="E419" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="F419" s="76"/>
+      <c r="F419" s="77"/>
       <c r="G419" s="8"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11210,10 +11208,10 @@
       <c r="B424" s="8"/>
       <c r="C424" s="13"/>
       <c r="D424" s="8"/>
-      <c r="E424" s="85" t="s">
+      <c r="E424" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="F424" s="85"/>
+      <c r="F424" s="76"/>
       <c r="G424" s="8"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11221,10 +11219,10 @@
       <c r="B425" s="8"/>
       <c r="C425" s="13"/>
       <c r="D425" s="8"/>
-      <c r="E425" s="85" t="s">
+      <c r="E425" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="F425" s="85"/>
+      <c r="F425" s="76"/>
       <c r="G425" s="8"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11607,11 +11605,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E415:G415"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
@@ -11622,6 +11615,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E417:F417"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Laphar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1481,9 +1481,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1510,6 +1507,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N380" sqref="N380"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D415" sqref="D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1975,8 +1975,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -1984,8 +1984,8 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1993,8 +1993,8 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2040,36 +2040,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="80" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="15">
         <v>2019</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="F10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="80"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -2193,9 +2193,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="22">
+        <f>SUM(C14:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="22">
+        <f>SUM(D14:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="23">
@@ -2653,9 +2655,11 @@
         <v>31</v>
       </c>
       <c r="C36" s="22">
+        <f>SUM(C19:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="22">
+        <f>SUM(D19:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="23">
@@ -3092,9 +3096,11 @@
         <v>202</v>
       </c>
       <c r="C55" s="22">
+        <f>SUM(C38:C54)</f>
         <v>0</v>
       </c>
       <c r="D55" s="22">
+        <f>SUM(D38:D54)</f>
         <v>0</v>
       </c>
       <c r="E55" s="23">
@@ -3151,9 +3157,11 @@
         <v>203</v>
       </c>
       <c r="C58" s="22">
+        <f>SUM(C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="22">
+        <f>SUM(D57)</f>
         <v>0</v>
       </c>
       <c r="E58" s="23">
@@ -3256,9 +3264,11 @@
         <v>174</v>
       </c>
       <c r="C63" s="22">
+        <f>SUM(C60:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="22">
+        <f>SUM(D60:D62)</f>
         <v>0</v>
       </c>
       <c r="E63" s="23">
@@ -3419,9 +3429,11 @@
         <v>205</v>
       </c>
       <c r="C70" s="22">
+        <f>SUM(C65:C69)</f>
         <v>0</v>
       </c>
       <c r="D70" s="22">
+        <f>SUM(D65:D69)</f>
         <v>0</v>
       </c>
       <c r="E70" s="23">
@@ -3632,9 +3644,11 @@
         <v>206</v>
       </c>
       <c r="C79" s="22">
+        <f>SUM(C72:C78)</f>
         <v>0</v>
       </c>
       <c r="D79" s="22">
+        <f>SUM(D72:D78)</f>
         <v>0</v>
       </c>
       <c r="E79" s="23">
@@ -3933,9 +3947,11 @@
         <v>206</v>
       </c>
       <c r="C92" s="22">
+        <f>SUM(C81:C91)</f>
         <v>0</v>
       </c>
       <c r="D92" s="22">
+        <f>SUM(D81:D91)</f>
         <v>0</v>
       </c>
       <c r="E92" s="23">
@@ -4219,9 +4235,11 @@
         <v>207</v>
       </c>
       <c r="C104" s="22">
+        <f>SUM(C94:C103)</f>
         <v>0</v>
       </c>
       <c r="D104" s="22">
+        <f>SUM(D94:D103)</f>
         <v>0</v>
       </c>
       <c r="E104" s="23">
@@ -4381,17 +4399,18 @@
         <v>208</v>
       </c>
       <c r="C112" s="22">
+        <f ca="1">SUM(C107:C112)</f>
         <v>0</v>
       </c>
       <c r="D112" s="22">
         <v>0</v>
       </c>
       <c r="E112" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F112" s="24" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G112" s="6" t="s">
@@ -4507,9 +4526,11 @@
         <v>206</v>
       </c>
       <c r="C118" s="22">
+        <f>SUM(C114:C117)</f>
         <v>0</v>
       </c>
       <c r="D118" s="22">
+        <f>SUM(D114:D117)</f>
         <v>0</v>
       </c>
       <c r="E118" s="23">
@@ -4633,9 +4654,11 @@
         <v>204</v>
       </c>
       <c r="C124" s="22">
+        <f>SUM(C120:C123)</f>
         <v>0</v>
       </c>
       <c r="D124" s="22">
+        <f>SUM(D120:D123)</f>
         <v>0</v>
       </c>
       <c r="E124" s="23">
@@ -4889,9 +4912,11 @@
         <v>174</v>
       </c>
       <c r="C136" s="22">
+        <f>SUM(C133:C135)</f>
         <v>0</v>
       </c>
       <c r="D136" s="22">
+        <f>SUM(D133:D135)</f>
         <v>0</v>
       </c>
       <c r="E136" s="23">
@@ -5102,9 +5127,11 @@
         <v>209</v>
       </c>
       <c r="C145" s="22">
+        <f>SUM(C138:C144)</f>
         <v>0</v>
       </c>
       <c r="D145" s="22">
+        <f>SUM(D138:D144)</f>
         <v>0</v>
       </c>
       <c r="E145" s="23">
@@ -5403,9 +5430,11 @@
         <v>210</v>
       </c>
       <c r="C158" s="22">
+        <f>SUM(C147:C157)</f>
         <v>0</v>
       </c>
       <c r="D158" s="22">
+        <f>SUM(D147:D157)</f>
         <v>0</v>
       </c>
       <c r="E158" s="23">
@@ -5687,9 +5716,11 @@
         <v>209</v>
       </c>
       <c r="C170" s="22">
+        <f>SUM(C160:C169)</f>
         <v>0</v>
       </c>
       <c r="D170" s="22">
+        <f>SUM(D160:D169)</f>
         <v>0</v>
       </c>
       <c r="E170" s="23">
@@ -5875,9 +5906,11 @@
         <v>212</v>
       </c>
       <c r="C178" s="22">
+        <f>SUM(C172:C177)</f>
         <v>0</v>
       </c>
       <c r="D178" s="22">
+        <f>SUM(D172:D177)</f>
         <v>0</v>
       </c>
       <c r="E178" s="23">
@@ -6159,9 +6192,11 @@
         <v>211</v>
       </c>
       <c r="C190" s="22">
+        <f>SUM(C180:C189)</f>
         <v>0</v>
       </c>
       <c r="D190" s="22">
+        <f>SUM(D180:D189)</f>
         <v>0</v>
       </c>
       <c r="E190" s="23">
@@ -6372,9 +6407,11 @@
         <v>212</v>
       </c>
       <c r="C199" s="22">
+        <f>SUM(C192:C198)</f>
         <v>0</v>
       </c>
       <c r="D199" s="22">
+        <f>SUM(D192:D198)</f>
         <v>0</v>
       </c>
       <c r="E199" s="23">
@@ -6671,9 +6708,11 @@
         <v>213</v>
       </c>
       <c r="C212" s="22">
+        <f>SUM(C201:C211)</f>
         <v>0</v>
       </c>
       <c r="D212" s="22">
+        <f>SUM(D201:D211)</f>
         <v>0</v>
       </c>
       <c r="E212" s="23">
@@ -6955,9 +6994,11 @@
         <v>214</v>
       </c>
       <c r="C224" s="22">
+        <f>SUM(C214:C223)</f>
         <v>0</v>
       </c>
       <c r="D224" s="22">
+        <f>SUM(D214:D223)</f>
         <v>0</v>
       </c>
       <c r="E224" s="23">
@@ -7154,9 +7195,11 @@
         <v>215</v>
       </c>
       <c r="C233" s="22">
+        <f>SUM(C227:C232)</f>
         <v>0</v>
       </c>
       <c r="D233" s="22">
+        <f>SUM(D227:D232)</f>
         <v>0</v>
       </c>
       <c r="E233" s="23">
@@ -7292,9 +7335,11 @@
         <v>216</v>
       </c>
       <c r="C239" s="22">
+        <f>SUM(C235:C238)</f>
         <v>0</v>
       </c>
       <c r="D239" s="22">
+        <f>SUM(D235:D238)</f>
         <v>0</v>
       </c>
       <c r="E239" s="23">
@@ -7430,9 +7475,11 @@
         <v>217</v>
       </c>
       <c r="C245" s="22">
+        <f>SUM(C241:C244)</f>
         <v>0</v>
       </c>
       <c r="D245" s="22">
+        <f>SUM(D241:D244)</f>
         <v>0</v>
       </c>
       <c r="E245" s="23">
@@ -7947,9 +7994,11 @@
         <v>289</v>
       </c>
       <c r="C268" s="22">
+        <f>SUM(C247:C267)</f>
         <v>0</v>
       </c>
       <c r="D268" s="22">
+        <f>SUM(D247:D267)</f>
         <v>0</v>
       </c>
       <c r="E268" s="23">
@@ -8183,9 +8232,11 @@
         <v>218</v>
       </c>
       <c r="C278" s="22">
+        <f>SUM(C270:C277)</f>
         <v>0</v>
       </c>
       <c r="D278" s="22">
+        <f>SUM(D270:D277)</f>
         <v>0</v>
       </c>
       <c r="E278" s="23">
@@ -9404,9 +9455,11 @@
         <v>11</v>
       </c>
       <c r="C333" s="22">
+        <f>SUM(C329:C332)</f>
         <v>0</v>
       </c>
       <c r="D333" s="22">
+        <f>SUM(D329:D332)</f>
         <v>0</v>
       </c>
       <c r="E333" s="23">
@@ -9602,9 +9655,11 @@
         <v>292</v>
       </c>
       <c r="C343" s="22">
+        <f>SUM(C337:C342)</f>
         <v>0</v>
       </c>
       <c r="D343" s="22">
+        <f>SUM(D337:D342)</f>
         <v>0</v>
       </c>
       <c r="E343" s="23">
@@ -9728,9 +9783,11 @@
         <v>292</v>
       </c>
       <c r="C349" s="22">
+        <f>SUM(C345:C348)</f>
         <v>0</v>
       </c>
       <c r="D349" s="22">
+        <f>SUM(D345:D348)</f>
         <v>0</v>
       </c>
       <c r="E349" s="23">
@@ -9854,9 +9911,11 @@
         <v>11</v>
       </c>
       <c r="C355" s="22">
+        <f>SUM(C351:C354)</f>
         <v>0</v>
       </c>
       <c r="D355" s="22">
+        <f>SUM(D351:D354)</f>
         <v>0</v>
       </c>
       <c r="E355" s="23">
@@ -10049,9 +10108,11 @@
         <v>11</v>
       </c>
       <c r="C364" s="22">
+        <f>SUM(C357:C363)</f>
         <v>0</v>
       </c>
       <c r="D364" s="22">
+        <f>SUM(D357:D363)</f>
         <v>0</v>
       </c>
       <c r="E364" s="23">
@@ -10190,9 +10251,11 @@
         <v>11</v>
       </c>
       <c r="C371" s="22">
+        <f>SUM(C367:C370)</f>
         <v>0</v>
       </c>
       <c r="D371" s="22">
+        <f>SUM(D367:D370)</f>
         <v>0</v>
       </c>
       <c r="E371" s="23">
@@ -11099,11 +11162,11 @@
         <v>11</v>
       </c>
       <c r="C414" s="69">
-        <f t="shared" ref="C414:D414" si="45">SUM(C409:C413)</f>
+        <f>SUM(C410:C413)</f>
         <v>0</v>
       </c>
       <c r="D414" s="70">
-        <f t="shared" si="45"/>
+        <f>SUM(D410:D413)</f>
         <v>0</v>
       </c>
       <c r="E414" s="23">
@@ -11123,9 +11186,9 @@
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
-      <c r="E415" s="77"/>
-      <c r="F415" s="77"/>
-      <c r="G415" s="77"/>
+      <c r="E415" s="76"/>
+      <c r="F415" s="76"/>
+      <c r="G415" s="76"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
@@ -11141,10 +11204,10 @@
       <c r="B417" s="8"/>
       <c r="C417" s="13"/>
       <c r="D417" s="8"/>
-      <c r="E417" s="76" t="s">
+      <c r="E417" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="F417" s="76"/>
+      <c r="F417" s="85"/>
       <c r="G417" s="8"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11152,8 +11215,8 @@
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
-      <c r="E418" s="76"/>
-      <c r="F418" s="76"/>
+      <c r="E418" s="85"/>
+      <c r="F418" s="85"/>
       <c r="G418" s="8"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11161,10 +11224,10 @@
       <c r="B419" s="8"/>
       <c r="C419" s="13"/>
       <c r="D419" s="8"/>
-      <c r="E419" s="77" t="s">
+      <c r="E419" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="F419" s="77"/>
+      <c r="F419" s="76"/>
       <c r="G419" s="8"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11208,10 +11271,10 @@
       <c r="B424" s="8"/>
       <c r="C424" s="13"/>
       <c r="D424" s="8"/>
-      <c r="E424" s="76" t="s">
+      <c r="E424" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="F424" s="76"/>
+      <c r="F424" s="85"/>
       <c r="G424" s="8"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11219,10 +11282,10 @@
       <c r="B425" s="8"/>
       <c r="C425" s="13"/>
       <c r="D425" s="8"/>
-      <c r="E425" s="76" t="s">
+      <c r="E425" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="F425" s="76"/>
+      <c r="F425" s="85"/>
       <c r="G425" s="8"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11605,6 +11668,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E415:G415"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
@@ -11615,11 +11683,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajoris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="298">
   <si>
     <t>NO</t>
   </si>
@@ -948,6 +948,15 @@
   </si>
   <si>
     <t>HARI/TGL :</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>PENYEKATAN</t>
+  </si>
+  <si>
+    <t>a. Motor</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1307,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1504,9 +1513,23 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1534,11 +1557,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1987,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H466"/>
+  <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B427" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1999,14 +2019,14 @@
     <col min="2" max="2" width="53.44140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="11.77734375" style="63" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="63" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="9"/>
@@ -2014,8 +2034,8 @@
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="9"/>
@@ -2023,8 +2043,8 @@
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="9"/>
@@ -2070,36 +2090,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="91"/>
+      <c r="E9" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="42">
         <v>2019</v>
       </c>
@@ -2112,7 +2132,7 @@
       <c r="F10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -2182,7 +2202,7 @@
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="89" t="e">
+      <c r="F14" s="80" t="e">
         <f>SUM(D14-C14)/C14*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -2207,7 +2227,7 @@
         <f t="shared" ref="E15:E16" si="0">D15-C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="89" t="e">
+      <c r="F15" s="80" t="e">
         <f t="shared" ref="F15:F78" si="1">SUM(D15-C15)/C15*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -2234,7 +2254,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="89" t="e">
+      <c r="F16" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2252,7 +2272,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="64"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="89"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="67" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2287,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="64"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="89"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="66" t="s">
         <v>8</v>
       </c>
@@ -2289,7 +2309,7 @@
         <f t="shared" ref="E19:E35" si="2">D19-C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="89" t="e">
+      <c r="F19" s="80" t="e">
         <f>SUM(D19-C19)/C19*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -2314,7 +2334,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F20" s="89" t="e">
+      <c r="F20" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2337,7 +2357,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21" s="89" t="e">
+      <c r="F21" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2362,7 +2382,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="89" t="e">
+      <c r="F22" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2387,7 +2407,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23" s="89" t="e">
+      <c r="F23" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2412,7 +2432,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F24" s="89" t="e">
+      <c r="F24" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2435,7 +2455,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F25" s="89" t="e">
+      <c r="F25" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2458,7 +2478,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F26" s="89" t="e">
+      <c r="F26" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2481,7 +2501,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="89" t="e">
+      <c r="F27" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2504,7 +2524,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="89" t="e">
+      <c r="F28" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2527,7 +2547,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="89" t="e">
+      <c r="F29" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2550,7 +2570,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="89" t="e">
+      <c r="F30" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2573,7 +2593,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="89" t="e">
+      <c r="F31" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2596,7 +2616,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="89" t="e">
+      <c r="F32" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2619,7 +2639,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F33" s="89" t="e">
+      <c r="F33" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2644,7 +2664,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F34" s="89" t="e">
+      <c r="F34" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2669,7 +2689,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F35" s="89" t="e">
+      <c r="F35" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2696,7 +2716,7 @@
         <f>D36-C36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="89" t="e">
+      <c r="F36" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2714,7 +2734,7 @@
       <c r="C37" s="12"/>
       <c r="D37" s="64"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="89"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2732,7 +2752,7 @@
         <f t="shared" ref="E38:E101" si="3">D38-C38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="89" t="e">
+      <c r="F38" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2755,7 +2775,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="89" t="e">
+      <c r="F39" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2778,7 +2798,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="89" t="e">
+      <c r="F40" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2801,7 +2821,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="89" t="e">
+      <c r="F41" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2824,7 +2844,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="89" t="e">
+      <c r="F42" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2847,7 +2867,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F43" s="89" t="e">
+      <c r="F43" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2870,7 +2890,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F44" s="89" t="e">
+      <c r="F44" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2893,7 +2913,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F45" s="89" t="e">
+      <c r="F45" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2916,7 +2936,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F46" s="89" t="e">
+      <c r="F46" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2939,7 +2959,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F47" s="89" t="e">
+      <c r="F47" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2962,7 +2982,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F48" s="89" t="e">
+      <c r="F48" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2987,7 +3007,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F49" s="89" t="e">
+      <c r="F49" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3012,7 +3032,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F50" s="89" t="e">
+      <c r="F50" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3037,7 +3057,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F51" s="89" t="e">
+      <c r="F51" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3062,7 +3082,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F52" s="89" t="e">
+      <c r="F52" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3087,7 +3107,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F53" s="89" t="e">
+      <c r="F53" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3110,7 +3130,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F54" s="89" t="e">
+      <c r="F54" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3137,7 +3157,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F55" s="89" t="e">
+      <c r="F55" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3153,7 +3173,7 @@
       <c r="C56" s="12"/>
       <c r="D56" s="64"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="89"/>
+      <c r="F56" s="80"/>
       <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3171,7 +3191,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F57" s="89" t="e">
+      <c r="F57" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3198,7 +3218,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F58" s="89" t="e">
+      <c r="F58" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3216,7 +3236,7 @@
       <c r="C59" s="50"/>
       <c r="D59" s="64"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="89"/>
+      <c r="F59" s="80"/>
       <c r="G59" s="66"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3234,7 +3254,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F60" s="89" t="e">
+      <c r="F60" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3257,7 +3277,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F61" s="89" t="e">
+      <c r="F61" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3280,7 +3300,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F62" s="89" t="e">
+      <c r="F62" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3305,7 +3325,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F63" s="89" t="e">
+      <c r="F63" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3323,7 +3343,7 @@
       <c r="C64" s="12"/>
       <c r="D64" s="64"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="89"/>
+      <c r="F64" s="80"/>
       <c r="G64" s="67"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,7 +3363,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F65" s="89" t="e">
+      <c r="F65" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3368,7 +3388,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F66" s="89" t="e">
+      <c r="F66" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3393,7 +3413,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F67" s="89" t="e">
+      <c r="F67" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3418,7 +3438,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F68" s="89" t="e">
+      <c r="F68" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3443,7 +3463,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F69" s="89" t="e">
+      <c r="F69" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3470,7 +3490,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F70" s="89" t="e">
+      <c r="F70" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3488,7 +3508,7 @@
       <c r="C71" s="12"/>
       <c r="D71" s="64"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="89"/>
+      <c r="F71" s="80"/>
       <c r="G71" s="67"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3508,7 +3528,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F72" s="89" t="e">
+      <c r="F72" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3533,7 +3553,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F73" s="89" t="e">
+      <c r="F73" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3558,7 +3578,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F74" s="89" t="e">
+      <c r="F74" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3583,7 +3603,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F75" s="89" t="e">
+      <c r="F75" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3608,7 +3628,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F76" s="89" t="e">
+      <c r="F76" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3633,7 +3653,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F77" s="89" t="e">
+      <c r="F77" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3658,7 +3678,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F78" s="89" t="e">
+      <c r="F78" s="80" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3685,7 +3705,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F79" s="89" t="e">
+      <c r="F79" s="80" t="e">
         <f t="shared" ref="F79:F142" si="4">SUM(D79-C79)/C79*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -3703,7 +3723,7 @@
       <c r="C80" s="12"/>
       <c r="D80" s="64"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="89"/>
+      <c r="F80" s="80"/>
       <c r="G80" s="67"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,7 +3741,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F81" s="89" t="e">
+      <c r="F81" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3746,7 +3766,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F82" s="89" t="e">
+      <c r="F82" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3771,7 +3791,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F83" s="89" t="e">
+      <c r="F83" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3796,7 +3816,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F84" s="89" t="e">
+      <c r="F84" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3821,7 +3841,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F85" s="89" t="e">
+      <c r="F85" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3844,7 +3864,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F86" s="89" t="e">
+      <c r="F86" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3867,7 +3887,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F87" s="89" t="e">
+      <c r="F87" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3890,7 +3910,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F88" s="89" t="e">
+      <c r="F88" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3915,7 +3935,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F89" s="89" t="e">
+      <c r="F89" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3938,7 +3958,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F90" s="89" t="e">
+      <c r="F90" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3961,7 +3981,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F91" s="89" t="e">
+      <c r="F91" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -3988,7 +4008,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F92" s="89" t="e">
+      <c r="F92" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4006,7 +4026,7 @@
       <c r="C93" s="12"/>
       <c r="D93" s="64"/>
       <c r="E93" s="15"/>
-      <c r="F93" s="89"/>
+      <c r="F93" s="80"/>
       <c r="G93" s="67"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4026,7 +4046,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F94" s="89" t="e">
+      <c r="F94" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4051,7 +4071,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F95" s="89" t="e">
+      <c r="F95" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4076,7 +4096,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F96" s="89" t="e">
+      <c r="F96" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4101,7 +4121,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F97" s="89" t="e">
+      <c r="F97" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4126,7 +4146,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F98" s="89" t="e">
+      <c r="F98" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4151,7 +4171,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F99" s="89" t="e">
+      <c r="F99" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4174,7 +4194,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F100" s="89" t="e">
+      <c r="F100" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4199,7 +4219,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F101" s="89" t="e">
+      <c r="F101" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4224,7 +4244,7 @@
         <f t="shared" ref="E102:E104" si="5">D102-C102</f>
         <v>0</v>
       </c>
-      <c r="F102" s="89" t="e">
+      <c r="F102" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4249,7 +4269,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F103" s="89" t="e">
+      <c r="F103" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4276,7 +4296,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F104" s="89" t="e">
+      <c r="F104" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4294,7 +4314,7 @@
       <c r="C105" s="12"/>
       <c r="D105" s="64"/>
       <c r="E105" s="15"/>
-      <c r="F105" s="89"/>
+      <c r="F105" s="80"/>
       <c r="G105" s="67"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4305,7 +4325,7 @@
       <c r="C106" s="12"/>
       <c r="D106" s="64"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="89"/>
+      <c r="F106" s="80"/>
       <c r="G106" s="67"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4323,7 +4343,7 @@
         <f t="shared" ref="E107:E112" si="6">D107-C107</f>
         <v>0</v>
       </c>
-      <c r="F107" s="89" t="e">
+      <c r="F107" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4346,7 +4366,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F108" s="89" t="e">
+      <c r="F108" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4369,7 +4389,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F109" s="89" t="e">
+      <c r="F109" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4392,7 +4412,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F110" s="89" t="e">
+      <c r="F110" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4415,7 +4435,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F111" s="89" t="e">
+      <c r="F111" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4439,7 +4459,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="F112" s="89" t="e">
+      <c r="F112" s="80" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4455,7 +4475,7 @@
       <c r="C113" s="50"/>
       <c r="D113" s="64"/>
       <c r="E113" s="15"/>
-      <c r="F113" s="89"/>
+      <c r="F113" s="80"/>
       <c r="G113" s="67"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4473,7 +4493,7 @@
         <f t="shared" ref="E114:E118" si="7">D114-C114</f>
         <v>0</v>
       </c>
-      <c r="F114" s="89" t="e">
+      <c r="F114" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4496,7 +4516,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F115" s="89" t="e">
+      <c r="F115" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4519,7 +4539,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F116" s="89" t="e">
+      <c r="F116" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4542,7 +4562,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F117" s="89" t="e">
+      <c r="F117" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4567,7 +4587,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F118" s="89" t="e">
+      <c r="F118" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4583,7 +4603,7 @@
       <c r="C119" s="12"/>
       <c r="D119" s="64"/>
       <c r="E119" s="15"/>
-      <c r="F119" s="89"/>
+      <c r="F119" s="80"/>
       <c r="G119" s="67"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4601,7 +4621,7 @@
         <f t="shared" ref="E120:E124" si="8">D120-C120</f>
         <v>0</v>
       </c>
-      <c r="F120" s="89" t="e">
+      <c r="F120" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4624,7 +4644,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F121" s="89" t="e">
+      <c r="F121" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4647,7 +4667,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F122" s="89" t="e">
+      <c r="F122" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4670,7 +4690,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F123" s="89" t="e">
+      <c r="F123" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4695,7 +4715,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F124" s="89" t="e">
+      <c r="F124" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4713,7 +4733,7 @@
       <c r="C125" s="12"/>
       <c r="D125" s="64"/>
       <c r="E125" s="15"/>
-      <c r="F125" s="89"/>
+      <c r="F125" s="80"/>
       <c r="G125" s="67"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4726,7 +4746,7 @@
       <c r="C126" s="12"/>
       <c r="D126" s="64"/>
       <c r="E126" s="15"/>
-      <c r="F126" s="89"/>
+      <c r="F126" s="80"/>
       <c r="G126" s="67"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4746,7 +4766,7 @@
         <f t="shared" ref="E127:E131" si="9">D127-C127</f>
         <v>0</v>
       </c>
-      <c r="F127" s="89" t="e">
+      <c r="F127" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4771,7 +4791,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F128" s="89" t="e">
+      <c r="F128" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4796,7 +4816,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F129" s="89" t="e">
+      <c r="F129" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4821,7 +4841,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F130" s="89" t="e">
+      <c r="F130" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4846,7 +4866,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F131" s="89">
+      <c r="F131" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4864,7 +4884,7 @@
       <c r="C132" s="12"/>
       <c r="D132" s="64"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="89"/>
+      <c r="F132" s="80"/>
       <c r="G132" s="66"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4882,7 +4902,7 @@
         <f t="shared" ref="E133:E136" si="10">D133-C133</f>
         <v>0</v>
       </c>
-      <c r="F133" s="89" t="e">
+      <c r="F133" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4905,7 +4925,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F134" s="89" t="e">
+      <c r="F134" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4928,7 +4948,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F135" s="89" t="e">
+      <c r="F135" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4953,7 +4973,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F136" s="89" t="e">
+      <c r="F136" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4971,7 +4991,7 @@
       <c r="C137" s="52"/>
       <c r="D137" s="64"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="89"/>
+      <c r="F137" s="80"/>
       <c r="G137" s="52"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,7 +5011,7 @@
         <f t="shared" ref="E138:E201" si="11">D138-C138</f>
         <v>0</v>
       </c>
-      <c r="F138" s="89" t="e">
+      <c r="F138" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5016,7 +5036,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F139" s="89" t="e">
+      <c r="F139" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5041,7 +5061,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F140" s="89" t="e">
+      <c r="F140" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5066,7 +5086,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F141" s="89" t="e">
+      <c r="F141" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5091,7 +5111,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F142" s="89" t="e">
+      <c r="F142" s="80" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5116,7 +5136,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F143" s="89" t="e">
+      <c r="F143" s="80" t="e">
         <f t="shared" ref="F143:F206" si="12">SUM(D143-C143)/C143*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5141,7 +5161,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F144" s="89" t="e">
+      <c r="F144" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5168,7 +5188,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F145" s="89" t="e">
+      <c r="F145" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5186,7 +5206,7 @@
       <c r="C146" s="52"/>
       <c r="D146" s="64"/>
       <c r="E146" s="15"/>
-      <c r="F146" s="89"/>
+      <c r="F146" s="80"/>
       <c r="G146" s="52"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5204,7 +5224,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F147" s="89" t="e">
+      <c r="F147" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5227,7 +5247,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F148" s="89" t="e">
+      <c r="F148" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5250,7 +5270,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F149" s="89" t="e">
+      <c r="F149" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5273,7 +5293,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F150" s="89" t="e">
+      <c r="F150" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5296,7 +5316,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F151" s="89" t="e">
+      <c r="F151" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5319,7 +5339,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F152" s="89" t="e">
+      <c r="F152" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5344,7 +5364,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F153" s="89" t="e">
+      <c r="F153" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5369,7 +5389,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F154" s="89" t="e">
+      <c r="F154" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5394,7 +5414,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F155" s="89" t="e">
+      <c r="F155" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5419,7 +5439,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F156" s="89" t="e">
+      <c r="F156" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5444,7 +5464,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F157" s="89" t="e">
+      <c r="F157" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5471,7 +5491,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F158" s="89" t="e">
+      <c r="F158" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5489,7 +5509,7 @@
       <c r="C159" s="52"/>
       <c r="D159" s="64"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="89"/>
+      <c r="F159" s="80"/>
       <c r="G159" s="52"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5509,7 +5529,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F160" s="89" t="e">
+      <c r="F160" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5534,7 +5554,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F161" s="89" t="e">
+      <c r="F161" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5559,7 +5579,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F162" s="89" t="e">
+      <c r="F162" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5584,7 +5604,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F163" s="89" t="e">
+      <c r="F163" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5609,7 +5629,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F164" s="89" t="e">
+      <c r="F164" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5634,7 +5654,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F165" s="89" t="e">
+      <c r="F165" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5657,7 +5677,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F166" s="89" t="e">
+      <c r="F166" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5682,7 +5702,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F167" s="89" t="e">
+      <c r="F167" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5705,7 +5725,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F168" s="89" t="e">
+      <c r="F168" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5730,7 +5750,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F169" s="89" t="e">
+      <c r="F169" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5757,7 +5777,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F170" s="89" t="e">
+      <c r="F170" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5775,7 +5795,7 @@
       <c r="C171" s="12"/>
       <c r="D171" s="64"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="89"/>
+      <c r="F171" s="80"/>
       <c r="G171" s="67"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5795,7 +5815,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F172" s="89" t="e">
+      <c r="F172" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5820,7 +5840,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F173" s="89" t="e">
+      <c r="F173" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5845,7 +5865,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F174" s="89" t="e">
+      <c r="F174" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5870,7 +5890,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F175" s="89" t="e">
+      <c r="F175" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5895,7 +5915,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F176" s="89" t="e">
+      <c r="F176" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5920,7 +5940,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F177" s="89" t="e">
+      <c r="F177" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5947,7 +5967,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F178" s="89" t="e">
+      <c r="F178" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -5965,7 +5985,7 @@
       <c r="C179" s="12"/>
       <c r="D179" s="64"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="89"/>
+      <c r="F179" s="80"/>
       <c r="G179" s="67"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5985,7 +6005,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F180" s="89" t="e">
+      <c r="F180" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6010,7 +6030,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F181" s="89" t="e">
+      <c r="F181" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6035,7 +6055,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F182" s="89" t="e">
+      <c r="F182" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6058,7 +6078,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F183" s="89" t="e">
+      <c r="F183" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6083,7 +6103,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F184" s="89" t="e">
+      <c r="F184" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6108,7 +6128,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F185" s="89" t="e">
+      <c r="F185" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6133,7 +6153,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F186" s="89" t="e">
+      <c r="F186" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6158,7 +6178,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F187" s="89" t="e">
+      <c r="F187" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6181,7 +6201,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F188" s="89" t="e">
+      <c r="F188" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6206,7 +6226,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F189" s="89" t="e">
+      <c r="F189" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6233,7 +6253,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F190" s="89" t="e">
+      <c r="F190" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6251,7 +6271,7 @@
       <c r="C191" s="12"/>
       <c r="D191" s="64"/>
       <c r="E191" s="15"/>
-      <c r="F191" s="89"/>
+      <c r="F191" s="80"/>
       <c r="G191" s="67"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6271,7 +6291,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F192" s="89" t="e">
+      <c r="F192" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6296,7 +6316,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F193" s="89" t="e">
+      <c r="F193" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6321,7 +6341,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F194" s="89" t="e">
+      <c r="F194" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6346,7 +6366,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F195" s="89" t="e">
+      <c r="F195" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6371,7 +6391,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F196" s="89" t="e">
+      <c r="F196" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6396,7 +6416,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F197" s="89" t="e">
+      <c r="F197" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6421,7 +6441,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F198" s="89" t="e">
+      <c r="F198" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6448,7 +6468,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F199" s="89" t="e">
+      <c r="F199" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6466,7 +6486,7 @@
       <c r="C200" s="12"/>
       <c r="D200" s="64"/>
       <c r="E200" s="15"/>
-      <c r="F200" s="89"/>
+      <c r="F200" s="80"/>
       <c r="G200" s="67"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6484,7 +6504,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F201" s="89" t="e">
+      <c r="F201" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6507,7 +6527,7 @@
         <f t="shared" ref="E202:E212" si="13">D202-C202</f>
         <v>0</v>
       </c>
-      <c r="F202" s="89" t="e">
+      <c r="F202" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6530,7 +6550,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F203" s="89" t="e">
+      <c r="F203" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6553,7 +6573,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F204" s="89" t="e">
+      <c r="F204" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6576,7 +6596,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F205" s="89" t="e">
+      <c r="F205" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6599,7 +6619,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F206" s="89" t="e">
+      <c r="F206" s="80" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -6622,7 +6642,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F207" s="89" t="e">
+      <c r="F207" s="80" t="e">
         <f t="shared" ref="F207:F268" si="14">SUM(D207-C207)/C207*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -6647,7 +6667,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F208" s="89" t="e">
+      <c r="F208" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6672,7 +6692,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F209" s="89" t="e">
+      <c r="F209" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6697,7 +6717,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F210" s="89" t="e">
+      <c r="F210" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6722,7 +6742,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F211" s="89" t="e">
+      <c r="F211" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6749,7 +6769,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F212" s="89" t="e">
+      <c r="F212" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6767,7 +6787,7 @@
       <c r="C213" s="12"/>
       <c r="D213" s="64"/>
       <c r="E213" s="15"/>
-      <c r="F213" s="89"/>
+      <c r="F213" s="80"/>
       <c r="G213" s="70"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6787,7 +6807,7 @@
         <f t="shared" ref="E214:E224" si="15">D214-C214</f>
         <v>0</v>
       </c>
-      <c r="F214" s="89" t="e">
+      <c r="F214" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6812,7 +6832,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F215" s="89" t="e">
+      <c r="F215" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6837,7 +6857,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F216" s="89" t="e">
+      <c r="F216" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6862,7 +6882,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F217" s="89" t="e">
+      <c r="F217" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6887,7 +6907,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F218" s="89" t="e">
+      <c r="F218" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6912,7 +6932,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F219" s="89" t="e">
+      <c r="F219" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6935,7 +6955,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F220" s="89" t="e">
+      <c r="F220" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6958,7 +6978,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F221" s="89" t="e">
+      <c r="F221" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -6983,7 +7003,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F222" s="89" t="e">
+      <c r="F222" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7008,7 +7028,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F223" s="89" t="e">
+      <c r="F223" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7035,7 +7055,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F224" s="89" t="e">
+      <c r="F224" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7053,7 +7073,7 @@
       <c r="C225" s="12"/>
       <c r="D225" s="64"/>
       <c r="E225" s="15"/>
-      <c r="F225" s="89"/>
+      <c r="F225" s="80"/>
       <c r="G225" s="67"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7066,7 +7086,7 @@
       <c r="C226" s="12"/>
       <c r="D226" s="64"/>
       <c r="E226" s="15"/>
-      <c r="F226" s="89"/>
+      <c r="F226" s="80"/>
       <c r="G226" s="66"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7086,7 +7106,7 @@
         <f t="shared" ref="E227:E233" si="16">D227-C227</f>
         <v>0</v>
       </c>
-      <c r="F227" s="89" t="e">
+      <c r="F227" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7111,7 +7131,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F228" s="89" t="e">
+      <c r="F228" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7136,7 +7156,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F229" s="89" t="e">
+      <c r="F229" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7161,7 +7181,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F230" s="89" t="e">
+      <c r="F230" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7184,7 +7204,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F231" s="89" t="e">
+      <c r="F231" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7209,7 +7229,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F232" s="89" t="e">
+      <c r="F232" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7236,7 +7256,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F233" s="89" t="e">
+      <c r="F233" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7254,7 +7274,7 @@
       <c r="C234" s="12"/>
       <c r="D234" s="64"/>
       <c r="E234" s="15"/>
-      <c r="F234" s="89"/>
+      <c r="F234" s="80"/>
       <c r="G234" s="67"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7274,7 +7294,7 @@
         <f t="shared" ref="E235:E245" si="17">D235-C235</f>
         <v>0</v>
       </c>
-      <c r="F235" s="89" t="e">
+      <c r="F235" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7299,7 +7319,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F236" s="89" t="e">
+      <c r="F236" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7324,7 +7344,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F237" s="89" t="e">
+      <c r="F237" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7349,7 +7369,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F238" s="89" t="e">
+      <c r="F238" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7376,7 +7396,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F239" s="89" t="e">
+      <c r="F239" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7394,7 +7414,7 @@
       <c r="C240" s="12"/>
       <c r="D240" s="64"/>
       <c r="E240" s="15"/>
-      <c r="F240" s="89"/>
+      <c r="F240" s="80"/>
       <c r="G240" s="67"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7414,7 +7434,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F241" s="89" t="e">
+      <c r="F241" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7439,7 +7459,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F242" s="89" t="e">
+      <c r="F242" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7464,7 +7484,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F243" s="89" t="e">
+      <c r="F243" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7489,7 +7509,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F244" s="89" t="e">
+      <c r="F244" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7516,7 +7536,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F245" s="89" t="e">
+      <c r="F245" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7534,7 +7554,7 @@
       <c r="C246" s="12"/>
       <c r="D246" s="64"/>
       <c r="E246" s="15"/>
-      <c r="F246" s="89"/>
+      <c r="F246" s="80"/>
       <c r="G246" s="67"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7549,7 +7569,7 @@
       </c>
       <c r="D247" s="64"/>
       <c r="E247" s="15"/>
-      <c r="F247" s="89"/>
+      <c r="F247" s="80"/>
       <c r="G247" s="66"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7569,7 +7589,7 @@
         <f t="shared" ref="E248:E262" si="18">D248-C248</f>
         <v>0</v>
       </c>
-      <c r="F248" s="89" t="e">
+      <c r="F248" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7594,7 +7614,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F249" s="89" t="e">
+      <c r="F249" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7619,7 +7639,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F250" s="89" t="e">
+      <c r="F250" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7642,7 +7662,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F251" s="89" t="e">
+      <c r="F251" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7665,7 +7685,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F252" s="89" t="e">
+      <c r="F252" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7688,7 +7708,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F253" s="89" t="e">
+      <c r="F253" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7711,7 +7731,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F254" s="89" t="e">
+      <c r="F254" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7734,7 +7754,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F255" s="89" t="e">
+      <c r="F255" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7757,7 +7777,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F256" s="89" t="e">
+      <c r="F256" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7780,7 +7800,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F257" s="89" t="e">
+      <c r="F257" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7803,7 +7823,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F258" s="89" t="e">
+      <c r="F258" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7828,7 +7848,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F259" s="89" t="e">
+      <c r="F259" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7853,7 +7873,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F260" s="89" t="e">
+      <c r="F260" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7878,7 +7898,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F261" s="89" t="e">
+      <c r="F261" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7903,7 +7923,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F262" s="89" t="e">
+      <c r="F262" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7923,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="E263" s="15"/>
-      <c r="F263" s="89"/>
+      <c r="F263" s="80"/>
       <c r="G263" s="66"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -7941,7 +7961,7 @@
         <f t="shared" ref="E264:E268" si="19">D264-C264</f>
         <v>0</v>
       </c>
-      <c r="F264" s="89" t="e">
+      <c r="F264" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7964,7 +7984,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F265" s="89" t="e">
+      <c r="F265" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -7987,7 +8007,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F266" s="89" t="e">
+      <c r="F266" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -8010,7 +8030,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F267" s="89" t="e">
+      <c r="F267" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -8035,7 +8055,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F268" s="89" t="e">
+      <c r="F268" s="80" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -8053,7 +8073,7 @@
       <c r="C269" s="12"/>
       <c r="D269" s="64"/>
       <c r="E269" s="15"/>
-      <c r="F269" s="89"/>
+      <c r="F269" s="80"/>
       <c r="G269" s="67"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -8073,7 +8093,7 @@
         <f t="shared" ref="E270:E278" si="20">D270-C270</f>
         <v>0</v>
       </c>
-      <c r="F270" s="89" t="e">
+      <c r="F270" s="80" t="e">
         <f t="shared" ref="F270:F333" si="21">SUM(D270-C270)/C270*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -8098,7 +8118,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F271" s="89" t="e">
+      <c r="F271" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8123,7 +8143,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F272" s="89" t="e">
+      <c r="F272" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8148,7 +8168,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F273" s="89" t="e">
+      <c r="F273" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8173,7 +8193,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F274" s="89" t="e">
+      <c r="F274" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8198,7 +8218,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F275" s="89" t="e">
+      <c r="F275" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8223,7 +8243,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F276" s="89" t="e">
+      <c r="F276" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8246,7 +8266,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F277" s="89" t="e">
+      <c r="F277" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8273,7 +8293,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F278" s="89" t="e">
+      <c r="F278" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8291,7 +8311,7 @@
       <c r="C279" s="12"/>
       <c r="D279" s="64"/>
       <c r="E279" s="15"/>
-      <c r="F279" s="89"/>
+      <c r="F279" s="80"/>
       <c r="G279" s="67"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -8311,7 +8331,7 @@
         <f t="shared" ref="E280:E284" si="22">D280-C280</f>
         <v>0</v>
       </c>
-      <c r="F280" s="89" t="e">
+      <c r="F280" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8336,7 +8356,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F281" s="89" t="e">
+      <c r="F281" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8361,7 +8381,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F282" s="89" t="e">
+      <c r="F282" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8386,7 +8406,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F283" s="89" t="e">
+      <c r="F283" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8411,7 +8431,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F284" s="89" t="e">
+      <c r="F284" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8429,7 +8449,7 @@
       <c r="C285" s="12"/>
       <c r="D285" s="64"/>
       <c r="E285" s="15"/>
-      <c r="F285" s="89"/>
+      <c r="F285" s="80"/>
       <c r="G285" s="67"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -8449,7 +8469,7 @@
         <f t="shared" ref="E286:E290" si="23">D286-C286</f>
         <v>0</v>
       </c>
-      <c r="F286" s="89" t="e">
+      <c r="F286" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8474,7 +8494,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F287" s="89" t="e">
+      <c r="F287" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8497,7 +8517,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F288" s="89" t="e">
+      <c r="F288" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8522,7 +8542,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F289" s="89" t="e">
+      <c r="F289" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8547,7 +8567,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F290" s="89" t="e">
+      <c r="F290" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8565,7 +8585,7 @@
       <c r="C291" s="12"/>
       <c r="D291" s="64"/>
       <c r="E291" s="15"/>
-      <c r="F291" s="89"/>
+      <c r="F291" s="80"/>
       <c r="G291" s="67"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -8583,7 +8603,7 @@
         <f t="shared" ref="E292:E296" si="24">D292-C292</f>
         <v>0</v>
       </c>
-      <c r="F292" s="89" t="e">
+      <c r="F292" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8606,7 +8626,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F293" s="89" t="e">
+      <c r="F293" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8629,7 +8649,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F294" s="89" t="e">
+      <c r="F294" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8652,7 +8672,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F295" s="89" t="e">
+      <c r="F295" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8675,7 +8695,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F296" s="89" t="e">
+      <c r="F296" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8693,7 +8713,7 @@
       <c r="C297" s="12"/>
       <c r="D297" s="64"/>
       <c r="E297" s="15"/>
-      <c r="F297" s="89"/>
+      <c r="F297" s="80"/>
       <c r="G297" s="67"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -8713,7 +8733,7 @@
         <f t="shared" ref="E298:E302" si="25">D298-C298</f>
         <v>0</v>
       </c>
-      <c r="F298" s="89" t="e">
+      <c r="F298" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8738,7 +8758,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F299" s="89" t="e">
+      <c r="F299" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8763,7 +8783,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F300" s="89" t="e">
+      <c r="F300" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8788,7 +8808,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F301" s="89" t="e">
+      <c r="F301" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8813,7 +8833,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F302" s="89" t="e">
+      <c r="F302" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8831,7 +8851,7 @@
       <c r="C303" s="52"/>
       <c r="D303" s="64"/>
       <c r="E303" s="15"/>
-      <c r="F303" s="89"/>
+      <c r="F303" s="80"/>
       <c r="G303" s="52"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -8849,7 +8869,7 @@
         <f t="shared" ref="E304:E308" si="26">D304-C304</f>
         <v>0</v>
       </c>
-      <c r="F304" s="89" t="e">
+      <c r="F304" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8872,7 +8892,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F305" s="89" t="e">
+      <c r="F305" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8895,7 +8915,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F306" s="89" t="e">
+      <c r="F306" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8918,7 +8938,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F307" s="89" t="e">
+      <c r="F307" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8941,7 +8961,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F308" s="89" t="e">
+      <c r="F308" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -8959,7 +8979,7 @@
       <c r="C309" s="52"/>
       <c r="D309" s="64"/>
       <c r="E309" s="15"/>
-      <c r="F309" s="89"/>
+      <c r="F309" s="80"/>
       <c r="G309" s="52"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -8977,7 +8997,7 @@
         <f t="shared" ref="E310:E314" si="27">D310-C310</f>
         <v>0</v>
       </c>
-      <c r="F310" s="89" t="e">
+      <c r="F310" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9000,7 +9020,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F311" s="89" t="e">
+      <c r="F311" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9023,7 +9043,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F312" s="89" t="e">
+      <c r="F312" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9046,7 +9066,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F313" s="89" t="e">
+      <c r="F313" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9069,7 +9089,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F314" s="89" t="e">
+      <c r="F314" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9087,7 +9107,7 @@
       <c r="C315" s="52"/>
       <c r="D315" s="64"/>
       <c r="E315" s="15"/>
-      <c r="F315" s="89"/>
+      <c r="F315" s="80"/>
       <c r="G315" s="52"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -9105,7 +9125,7 @@
         <f t="shared" ref="E316:E320" si="28">D316-C316</f>
         <v>0</v>
       </c>
-      <c r="F316" s="89" t="e">
+      <c r="F316" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9128,7 +9148,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F317" s="89" t="e">
+      <c r="F317" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9151,7 +9171,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F318" s="89" t="e">
+      <c r="F318" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9174,7 +9194,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F319" s="89" t="e">
+      <c r="F319" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9197,7 +9217,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F320" s="89" t="e">
+      <c r="F320" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9219,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="E321" s="15"/>
-      <c r="F321" s="89"/>
+      <c r="F321" s="80"/>
       <c r="G321" s="67"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -9237,7 +9257,7 @@
         <f t="shared" ref="E322:E328" si="29">D322-C322</f>
         <v>0</v>
       </c>
-      <c r="F322" s="89" t="e">
+      <c r="F322" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9262,7 +9282,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F323" s="89" t="e">
+      <c r="F323" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9287,7 +9307,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F324" s="89" t="e">
+      <c r="F324" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9312,7 +9332,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F325" s="89" t="e">
+      <c r="F325" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9337,7 +9357,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F326" s="89" t="e">
+      <c r="F326" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9362,7 +9382,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F327" s="89" t="e">
+      <c r="F327" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9385,7 +9405,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F328" s="89" t="e">
+      <c r="F328" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9407,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="E329" s="15"/>
-      <c r="F329" s="89"/>
+      <c r="F329" s="80"/>
       <c r="G329" s="66"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -9425,7 +9445,7 @@
         <f t="shared" ref="E330:E333" si="30">D330-C330</f>
         <v>0</v>
       </c>
-      <c r="F330" s="89" t="e">
+      <c r="F330" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9448,7 +9468,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F331" s="89" t="e">
+      <c r="F331" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9471,7 +9491,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F332" s="89" t="e">
+      <c r="F332" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9496,7 +9516,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F333" s="89" t="e">
+      <c r="F333" s="80" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -9514,7 +9534,7 @@
       <c r="C334" s="53"/>
       <c r="D334" s="64"/>
       <c r="E334" s="15"/>
-      <c r="F334" s="89"/>
+      <c r="F334" s="80"/>
       <c r="G334" s="66"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -9527,7 +9547,7 @@
       <c r="C335" s="54"/>
       <c r="D335" s="64"/>
       <c r="E335" s="15"/>
-      <c r="F335" s="89"/>
+      <c r="F335" s="80"/>
       <c r="G335" s="66"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -9538,7 +9558,7 @@
       <c r="C336" s="55"/>
       <c r="D336" s="64"/>
       <c r="E336" s="15"/>
-      <c r="F336" s="89"/>
+      <c r="F336" s="80"/>
       <c r="G336" s="66"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -9556,7 +9576,7 @@
         <f t="shared" ref="E337:E343" si="31">D337-C337</f>
         <v>0</v>
       </c>
-      <c r="F337" s="89" t="e">
+      <c r="F337" s="80" t="e">
         <f t="shared" ref="F337:F398" si="32">SUM(D337-C337)/C337*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -9579,7 +9599,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F338" s="89" t="e">
+      <c r="F338" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9602,7 +9622,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F339" s="89" t="e">
+      <c r="F339" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9625,7 +9645,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F340" s="89" t="e">
+      <c r="F340" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9648,7 +9668,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F341" s="89" t="e">
+      <c r="F341" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9671,7 +9691,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F342" s="89" t="e">
+      <c r="F342" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9696,7 +9716,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F343" s="89" t="e">
+      <c r="F343" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9712,7 +9732,7 @@
       <c r="C344" s="55"/>
       <c r="D344" s="64"/>
       <c r="E344" s="15"/>
-      <c r="F344" s="89"/>
+      <c r="F344" s="80"/>
       <c r="G344" s="66"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -9730,7 +9750,7 @@
         <f t="shared" ref="E345:E349" si="33">D345-C345</f>
         <v>0</v>
       </c>
-      <c r="F345" s="89" t="e">
+      <c r="F345" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9753,7 +9773,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F346" s="89" t="e">
+      <c r="F346" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9776,7 +9796,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F347" s="89" t="e">
+      <c r="F347" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9799,7 +9819,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F348" s="89" t="e">
+      <c r="F348" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9824,7 +9844,7 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F349" s="89" t="e">
+      <c r="F349" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9840,7 +9860,7 @@
       <c r="C350" s="56"/>
       <c r="D350" s="64"/>
       <c r="E350" s="15"/>
-      <c r="F350" s="89"/>
+      <c r="F350" s="80"/>
       <c r="G350" s="71"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9858,7 +9878,7 @@
         <f t="shared" ref="E351:E355" si="34">D351-C351</f>
         <v>0</v>
       </c>
-      <c r="F351" s="89" t="e">
+      <c r="F351" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9881,7 +9901,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F352" s="89" t="e">
+      <c r="F352" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9904,7 +9924,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F353" s="89" t="e">
+      <c r="F353" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9927,7 +9947,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F354" s="89" t="e">
+      <c r="F354" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9952,7 +9972,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F355" s="89" t="e">
+      <c r="F355" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -9968,7 +9988,7 @@
       <c r="C356" s="55"/>
       <c r="D356" s="64"/>
       <c r="E356" s="15"/>
-      <c r="F356" s="89"/>
+      <c r="F356" s="80"/>
       <c r="G356" s="66"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -9986,7 +10006,7 @@
         <f t="shared" ref="E357:E364" si="35">D357-C357</f>
         <v>0</v>
       </c>
-      <c r="F357" s="89" t="e">
+      <c r="F357" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10009,7 +10029,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F358" s="89" t="e">
+      <c r="F358" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10032,7 +10052,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F359" s="89" t="e">
+      <c r="F359" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10055,7 +10075,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F360" s="89" t="e">
+      <c r="F360" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10078,7 +10098,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F361" s="89" t="e">
+      <c r="F361" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10101,7 +10121,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F362" s="89" t="e">
+      <c r="F362" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10124,7 +10144,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F363" s="89" t="e">
+      <c r="F363" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10149,7 +10169,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F364" s="89" t="e">
+      <c r="F364" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10167,7 +10187,7 @@
       <c r="C365" s="54"/>
       <c r="D365" s="64"/>
       <c r="E365" s="15"/>
-      <c r="F365" s="89"/>
+      <c r="F365" s="80"/>
       <c r="G365" s="54"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -10180,7 +10200,7 @@
       <c r="C366" s="54"/>
       <c r="D366" s="50"/>
       <c r="E366" s="15"/>
-      <c r="F366" s="89"/>
+      <c r="F366" s="80"/>
       <c r="G366" s="66"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -10198,7 +10218,7 @@
         <f t="shared" ref="E367:E371" si="36">D367-C367</f>
         <v>0</v>
       </c>
-      <c r="F367" s="89" t="e">
+      <c r="F367" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10221,7 +10241,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F368" s="89" t="e">
+      <c r="F368" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10244,7 +10264,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F369" s="89" t="e">
+      <c r="F369" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10267,7 +10287,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F370" s="89" t="e">
+      <c r="F370" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10292,7 +10312,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F371" s="89" t="e">
+      <c r="F371" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10310,7 +10330,7 @@
       <c r="C372" s="57"/>
       <c r="D372" s="64"/>
       <c r="E372" s="15"/>
-      <c r="F372" s="89"/>
+      <c r="F372" s="80"/>
       <c r="G372" s="66"/>
     </row>
     <row r="373" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10323,7 +10343,7 @@
       <c r="C373" s="58"/>
       <c r="D373" s="64"/>
       <c r="E373" s="15"/>
-      <c r="F373" s="89"/>
+      <c r="F373" s="80"/>
       <c r="G373" s="66"/>
     </row>
     <row r="374" spans="1:7" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10336,7 +10356,7 @@
       <c r="C374" s="59"/>
       <c r="D374" s="64"/>
       <c r="E374" s="15"/>
-      <c r="F374" s="89"/>
+      <c r="F374" s="80"/>
       <c r="G374" s="66"/>
     </row>
     <row r="375" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10354,7 +10374,7 @@
         <f t="shared" ref="E375:E383" si="37">D375-C375</f>
         <v>0</v>
       </c>
-      <c r="F375" s="89" t="e">
+      <c r="F375" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10377,7 +10397,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F376" s="89" t="e">
+      <c r="F376" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10400,7 +10420,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F377" s="89" t="e">
+      <c r="F377" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10423,7 +10443,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F378" s="89" t="e">
+      <c r="F378" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10446,7 +10466,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F379" s="89" t="e">
+      <c r="F379" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10469,7 +10489,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F380" s="89" t="e">
+      <c r="F380" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10492,7 +10512,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F381" s="89" t="e">
+      <c r="F381" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10515,7 +10535,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F382" s="89" t="e">
+      <c r="F382" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10538,7 +10558,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F383" s="89" t="e">
+      <c r="F383" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10556,7 +10576,7 @@
       <c r="C384" s="60"/>
       <c r="D384" s="64"/>
       <c r="E384" s="15"/>
-      <c r="F384" s="89"/>
+      <c r="F384" s="80"/>
       <c r="G384" s="75"/>
     </row>
     <row r="385" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10574,7 +10594,7 @@
         <f t="shared" ref="E385:E387" si="38">D385-C385</f>
         <v>0</v>
       </c>
-      <c r="F385" s="89" t="e">
+      <c r="F385" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10597,7 +10617,7 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F386" s="89" t="e">
+      <c r="F386" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10620,7 +10640,7 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F387" s="89" t="e">
+      <c r="F387" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10638,7 +10658,7 @@
       <c r="C388" s="60"/>
       <c r="D388" s="50"/>
       <c r="E388" s="15"/>
-      <c r="F388" s="89"/>
+      <c r="F388" s="80"/>
       <c r="G388" s="76"/>
     </row>
     <row r="389" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10656,7 +10676,7 @@
         <f t="shared" ref="E389:E401" si="39">D389-C389</f>
         <v>0</v>
       </c>
-      <c r="F389" s="89" t="e">
+      <c r="F389" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10679,7 +10699,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F390" s="89" t="e">
+      <c r="F390" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10702,7 +10722,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F391" s="89" t="e">
+      <c r="F391" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10725,7 +10745,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F392" s="89" t="e">
+      <c r="F392" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10748,7 +10768,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F393" s="89" t="e">
+      <c r="F393" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10771,7 +10791,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F394" s="89" t="e">
+      <c r="F394" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10794,7 +10814,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F395" s="89" t="e">
+      <c r="F395" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10817,7 +10837,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F396" s="89" t="e">
+      <c r="F396" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10840,7 +10860,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F397" s="89" t="e">
+      <c r="F397" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10863,7 +10883,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F398" s="89" t="e">
+      <c r="F398" s="80" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -10886,7 +10906,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F399" s="89" t="e">
+      <c r="F399" s="80" t="e">
         <f t="shared" ref="F399:F407" si="40">SUM(D399-C399)/C399*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -10909,7 +10929,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F400" s="89" t="e">
+      <c r="F400" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -10932,7 +10952,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F401" s="89" t="e">
+      <c r="F401" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -10950,7 +10970,7 @@
       <c r="C402" s="60"/>
       <c r="D402" s="64"/>
       <c r="E402" s="15"/>
-      <c r="F402" s="89"/>
+      <c r="F402" s="80"/>
       <c r="G402" s="76"/>
     </row>
     <row r="403" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10968,7 +10988,7 @@
         <f t="shared" ref="E403:E407" si="41">D403-C403</f>
         <v>0</v>
       </c>
-      <c r="F403" s="89" t="e">
+      <c r="F403" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -10991,7 +11011,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F404" s="89" t="e">
+      <c r="F404" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -11014,7 +11034,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F405" s="89" t="e">
+      <c r="F405" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -11037,7 +11057,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F406" s="89" t="e">
+      <c r="F406" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -11060,7 +11080,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F407" s="89" t="e">
+      <c r="F407" s="80" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
@@ -11078,7 +11098,7 @@
       <c r="C408" s="57"/>
       <c r="D408" s="64"/>
       <c r="E408" s="15"/>
-      <c r="F408" s="89"/>
+      <c r="F408" s="80"/>
       <c r="G408" s="66"/>
     </row>
     <row r="409" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11091,7 +11111,7 @@
       <c r="C409" s="58"/>
       <c r="D409" s="64"/>
       <c r="E409" s="15"/>
-      <c r="F409" s="89"/>
+      <c r="F409" s="80"/>
       <c r="G409" s="66"/>
     </row>
     <row r="410" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11109,7 +11129,7 @@
         <f t="shared" ref="E410:E414" si="42">D410-C410</f>
         <v>0</v>
       </c>
-      <c r="F410" s="89" t="e">
+      <c r="F410" s="80" t="e">
         <f t="shared" ref="F410:F412" si="43">SUM(D410-C410)/C410*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -11132,7 +11152,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F411" s="89" t="e">
+      <c r="F411" s="80" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
@@ -11155,7 +11175,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F412" s="89" t="e">
+      <c r="F412" s="80" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
@@ -11178,7 +11198,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F413" s="89" t="e">
+      <c r="F413" s="80" t="e">
         <f t="shared" ref="F413" si="44">SUM(D413-C413)/C413*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -11203,7 +11223,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F414" s="90" t="e">
+      <c r="F414" s="81" t="e">
         <f>SUM(D414-C414)/C414*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -11211,77 +11231,158 @@
         <v>107</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="6"/>
-      <c r="B415" s="6"/>
-      <c r="C415" s="43"/>
-      <c r="D415" s="43"/>
-      <c r="E415" s="79"/>
-      <c r="F415" s="79"/>
-      <c r="G415" s="79"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="6"/>
-      <c r="B416" s="6"/>
-      <c r="C416" s="43"/>
-      <c r="D416" s="43"/>
-      <c r="E416" s="6"/>
-      <c r="F416" s="44"/>
-      <c r="G416" s="43"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="6"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="62"/>
-      <c r="D417" s="43"/>
-      <c r="E417" s="88" t="s">
-        <v>284</v>
-      </c>
-      <c r="F417" s="88"/>
-      <c r="G417" s="43"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="6"/>
-      <c r="B418" s="6"/>
-      <c r="C418" s="43"/>
-      <c r="D418" s="43"/>
-      <c r="E418" s="88"/>
-      <c r="F418" s="88"/>
-      <c r="G418" s="43"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="6"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="62"/>
-      <c r="D419" s="43"/>
-      <c r="E419" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="F419" s="79"/>
-      <c r="G419" s="43"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="6"/>
-      <c r="B420" s="6"/>
-      <c r="C420" s="62"/>
-      <c r="D420" s="43"/>
-      <c r="E420" s="6"/>
-      <c r="F420" s="44"/>
-      <c r="G420" s="43"/>
+    <row r="415" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="B415" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C415" s="84"/>
+      <c r="D415" s="65"/>
+      <c r="E415" s="15"/>
+      <c r="F415" s="81"/>
+      <c r="G415" s="78"/>
+    </row>
+    <row r="416" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="37"/>
+      <c r="B416" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C416" s="84">
+        <v>0</v>
+      </c>
+      <c r="D416" s="65">
+        <v>0</v>
+      </c>
+      <c r="E416" s="15">
+        <v>0</v>
+      </c>
+      <c r="F416" s="81" t="e">
+        <f t="shared" ref="F416:F421" si="45">SUM(D416-C416)/C416*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G416" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="37"/>
+      <c r="B417" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C417" s="84">
+        <v>0</v>
+      </c>
+      <c r="D417" s="65">
+        <v>0</v>
+      </c>
+      <c r="E417" s="15">
+        <v>0</v>
+      </c>
+      <c r="F417" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G417" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="37"/>
+      <c r="B418" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C418" s="84">
+        <v>0</v>
+      </c>
+      <c r="D418" s="65">
+        <v>0</v>
+      </c>
+      <c r="E418" s="15">
+        <v>0</v>
+      </c>
+      <c r="F418" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G418" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="37"/>
+      <c r="B419" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C419" s="84">
+        <v>0</v>
+      </c>
+      <c r="D419" s="65">
+        <v>0</v>
+      </c>
+      <c r="E419" s="15">
+        <v>0</v>
+      </c>
+      <c r="F419" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G419" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="37"/>
+      <c r="B420" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C420" s="84">
+        <v>0</v>
+      </c>
+      <c r="D420" s="65">
+        <v>0</v>
+      </c>
+      <c r="E420" s="15">
+        <v>0</v>
+      </c>
+      <c r="F420" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G420" s="78" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="6"/>
-      <c r="B421" s="6"/>
-      <c r="C421" s="62"/>
-      <c r="D421" s="43"/>
-      <c r="E421" s="6"/>
-      <c r="F421" s="44"/>
-      <c r="G421" s="43"/>
+      <c r="A421" s="82"/>
+      <c r="B421" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421" s="83">
+        <f>SUM(C416:C420)</f>
+        <v>0</v>
+      </c>
+      <c r="D421" s="83">
+        <f>SUM(D416:D420)</f>
+        <v>0</v>
+      </c>
+      <c r="E421" s="83">
+        <f>SUM(E416:E420)</f>
+        <v>0</v>
+      </c>
+      <c r="F421" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G421" s="78" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
-      <c r="C422" s="62"/>
+      <c r="C422" s="43"/>
       <c r="D422" s="43"/>
       <c r="E422" s="6"/>
       <c r="F422" s="44"/>
@@ -11292,19 +11393,19 @@
       <c r="B423" s="6"/>
       <c r="C423" s="62"/>
       <c r="D423" s="43"/>
-      <c r="E423" s="6"/>
-      <c r="F423" s="44"/>
+      <c r="E423" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="F423" s="94"/>
       <c r="G423" s="43"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
-      <c r="C424" s="62"/>
+      <c r="C424" s="43"/>
       <c r="D424" s="43"/>
-      <c r="E424" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="F424" s="88"/>
+      <c r="E424" s="94"/>
+      <c r="F424" s="94"/>
       <c r="G424" s="43"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11312,16 +11413,16 @@
       <c r="B425" s="6"/>
       <c r="C425" s="62"/>
       <c r="D425" s="43"/>
-      <c r="E425" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="F425" s="88"/>
+      <c r="E425" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="F425" s="95"/>
       <c r="G425" s="43"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
-      <c r="C426" s="43"/>
+      <c r="C426" s="62"/>
       <c r="D426" s="43"/>
       <c r="E426" s="6"/>
       <c r="F426" s="44"/>
@@ -11330,7 +11431,7 @@
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
-      <c r="C427" s="43"/>
+      <c r="C427" s="62"/>
       <c r="D427" s="43"/>
       <c r="E427" s="6"/>
       <c r="F427" s="44"/>
@@ -11339,7 +11440,7 @@
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
-      <c r="C428" s="43"/>
+      <c r="C428" s="62"/>
       <c r="D428" s="43"/>
       <c r="E428" s="6"/>
       <c r="F428" s="44"/>
@@ -11348,7 +11449,7 @@
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="43"/>
+      <c r="C429" s="62"/>
       <c r="D429" s="43"/>
       <c r="E429" s="6"/>
       <c r="F429" s="44"/>
@@ -11357,19 +11458,23 @@
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
-      <c r="C430" s="43"/>
+      <c r="C430" s="62"/>
       <c r="D430" s="43"/>
-      <c r="E430" s="6"/>
-      <c r="F430" s="44"/>
+      <c r="E430" s="94" t="s">
+        <v>286</v>
+      </c>
+      <c r="F430" s="94"/>
       <c r="G430" s="43"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
-      <c r="C431" s="43"/>
+      <c r="C431" s="62"/>
       <c r="D431" s="43"/>
-      <c r="E431" s="6"/>
-      <c r="F431" s="44"/>
+      <c r="E431" s="94" t="s">
+        <v>287</v>
+      </c>
+      <c r="F431" s="94"/>
       <c r="G431" s="43"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11687,14 +11792,67 @@
       <c r="F466" s="44"/>
       <c r="G466" s="43"/>
     </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="6"/>
+      <c r="B467" s="6"/>
+      <c r="C467" s="43"/>
+      <c r="D467" s="43"/>
+      <c r="E467" s="6"/>
+      <c r="F467" s="44"/>
+      <c r="G467" s="43"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="6"/>
+      <c r="B468" s="6"/>
+      <c r="C468" s="43"/>
+      <c r="D468" s="43"/>
+      <c r="E468" s="6"/>
+      <c r="F468" s="44"/>
+      <c r="G468" s="43"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="6"/>
+      <c r="B469" s="6"/>
+      <c r="C469" s="43"/>
+      <c r="D469" s="43"/>
+      <c r="E469" s="6"/>
+      <c r="F469" s="44"/>
+      <c r="G469" s="43"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="6"/>
+      <c r="B470" s="6"/>
+      <c r="C470" s="43"/>
+      <c r="D470" s="43"/>
+      <c r="E470" s="6"/>
+      <c r="F470" s="44"/>
+      <c r="G470" s="43"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="6"/>
+      <c r="B471" s="6"/>
+      <c r="C471" s="43"/>
+      <c r="D471" s="43"/>
+      <c r="E471" s="6"/>
+      <c r="F471" s="44"/>
+      <c r="G471" s="43"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="6"/>
+      <c r="B472" s="6"/>
+      <c r="C472" s="43"/>
+      <c r="D472" s="43"/>
+      <c r="E472" s="6"/>
+      <c r="F472" s="44"/>
+      <c r="G472" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
+  <mergeCells count="14">
     <mergeCell ref="E424:F424"/>
     <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E417:F417"/>
-    <mergeCell ref="E415:G415"/>
+    <mergeCell ref="E430:F430"/>
+    <mergeCell ref="E431:F431"/>
+    <mergeCell ref="E423:F423"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:A10"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajoris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -884,16 +884,10 @@
     <t>Pelabuhan</t>
   </si>
   <si>
-    <t>Jakarta, 13 April 2021</t>
-  </si>
-  <si>
     <t>KAPOSKO</t>
   </si>
   <si>
     <t>NAMA XXXX</t>
-  </si>
-  <si>
-    <t>AKP NRP 83099999</t>
   </si>
   <si>
     <r>
@@ -957,6 +951,12 @@
   </si>
   <si>
     <t>a. Motor</t>
+  </si>
+  <si>
+    <t>AKP NRP 000000000</t>
+  </si>
+  <si>
+    <t>Jakarta, 01 Januari 2021</t>
   </si>
 </sst>
 </file>
@@ -2009,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427"/>
+    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E417" sqref="E417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -2190,7 +2190,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C14" s="50">
         <v>0</v>
@@ -8041,7 +8041,7 @@
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C268" s="50">
         <f>SUM(C247:C267)</f>
@@ -8457,7 +8457,7 @@
         <v>8</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C286" s="50">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>28</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C315" s="52"/>
       <c r="D315" s="64"/>
@@ -9702,7 +9702,7 @@
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
       <c r="B343" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C343" s="50">
         <f>SUM(C337:C342)</f>
@@ -9830,7 +9830,7 @@
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C349" s="50">
         <f>SUM(C345:C348)</f>
@@ -11233,10 +11233,10 @@
     </row>
     <row r="415" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B415" s="25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C415" s="84"/>
       <c r="D415" s="65"/>
@@ -11247,7 +11247,7 @@
     <row r="416" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="37"/>
       <c r="B416" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C416" s="84">
         <v>0</v>
@@ -11256,6 +11256,7 @@
         <v>0</v>
       </c>
       <c r="E416" s="15">
+        <f>D416-C416</f>
         <v>0</v>
       </c>
       <c r="F416" s="81" t="e">
@@ -11278,6 +11279,7 @@
         <v>0</v>
       </c>
       <c r="E417" s="15">
+        <f t="shared" ref="E417:E421" si="46">D417-C417</f>
         <v>0</v>
       </c>
       <c r="F417" s="81" t="e">
@@ -11300,6 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E418" s="15">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F418" s="81" t="e">
@@ -11322,6 +11325,7 @@
         <v>0</v>
       </c>
       <c r="E419" s="15">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F419" s="81" t="e">
@@ -11344,6 +11348,7 @@
         <v>0</v>
       </c>
       <c r="E420" s="15">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F420" s="81" t="e">
@@ -11367,8 +11372,8 @@
         <f>SUM(D416:D420)</f>
         <v>0</v>
       </c>
-      <c r="E421" s="83">
-        <f>SUM(E416:E420)</f>
+      <c r="E421" s="15">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F421" s="81" t="e">
@@ -11394,7 +11399,7 @@
       <c r="C423" s="62"/>
       <c r="D423" s="43"/>
       <c r="E423" s="94" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="F423" s="94"/>
       <c r="G423" s="43"/>
@@ -11414,7 +11419,7 @@
       <c r="C425" s="62"/>
       <c r="D425" s="43"/>
       <c r="E425" s="95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F425" s="95"/>
       <c r="G425" s="43"/>
@@ -11461,7 +11466,7 @@
       <c r="C430" s="62"/>
       <c r="D430" s="43"/>
       <c r="E430" s="94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F430" s="94"/>
       <c r="G430" s="43"/>
@@ -11472,7 +11477,7 @@
       <c r="C431" s="62"/>
       <c r="D431" s="43"/>
       <c r="E431" s="94" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F431" s="94"/>
       <c r="G431" s="43"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="294">
   <si>
     <t>NO</t>
   </si>
@@ -882,12 +882,6 @@
   </si>
   <si>
     <t>Pelabuhan</t>
-  </si>
-  <si>
-    <t>KAPOSKO</t>
-  </si>
-  <si>
-    <t>NAMA XXXX</t>
   </si>
   <si>
     <r>
@@ -951,12 +945,6 @@
   </si>
   <si>
     <t>a. Motor</t>
-  </si>
-  <si>
-    <t>AKP NRP 000000000</t>
-  </si>
-  <si>
-    <t>Jakarta, 01 Januari 2021</t>
   </si>
 </sst>
 </file>
@@ -1530,6 +1518,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1553,12 +1547,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2010,7 +1998,7 @@
   <dimension ref="A1:H472"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E417" sqref="E417"/>
+      <selection activeCell="G426" sqref="G426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2025,8 +2013,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="9"/>
@@ -2034,8 +2022,8 @@
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="9"/>
@@ -2043,8 +2031,8 @@
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="9"/>
@@ -2070,7 +2058,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -2080,7 +2068,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -2090,36 +2078,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="88" t="s">
+      <c r="A9" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="88" t="s">
+      <c r="F9" s="95"/>
+      <c r="G9" s="90" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="42">
         <v>2019</v>
       </c>
@@ -2132,7 +2120,7 @@
       <c r="F10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -2190,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C14" s="50">
         <v>0</v>
@@ -8041,7 +8029,7 @@
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C268" s="50">
         <f>SUM(C247:C267)</f>
@@ -8457,7 +8445,7 @@
         <v>8</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C286" s="50">
         <v>0</v>
@@ -9102,7 +9090,7 @@
         <v>28</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C315" s="52"/>
       <c r="D315" s="64"/>
@@ -9702,7 +9690,7 @@
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
       <c r="B343" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C343" s="50">
         <f>SUM(C337:C342)</f>
@@ -9830,7 +9818,7 @@
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C349" s="50">
         <f>SUM(C345:C348)</f>
@@ -11233,10 +11221,10 @@
     </row>
     <row r="415" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B415" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C415" s="84"/>
       <c r="D415" s="65"/>
@@ -11247,7 +11235,7 @@
     <row r="416" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="37"/>
       <c r="B416" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C416" s="84">
         <v>0</v>
@@ -11398,10 +11386,8 @@
       <c r="B423" s="6"/>
       <c r="C423" s="62"/>
       <c r="D423" s="43"/>
-      <c r="E423" s="94" t="s">
-        <v>297</v>
-      </c>
-      <c r="F423" s="94"/>
+      <c r="E423" s="86"/>
+      <c r="F423" s="86"/>
       <c r="G423" s="43"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -11409,8 +11395,8 @@
       <c r="B424" s="6"/>
       <c r="C424" s="43"/>
       <c r="D424" s="43"/>
-      <c r="E424" s="94"/>
-      <c r="F424" s="94"/>
+      <c r="E424" s="86"/>
+      <c r="F424" s="86"/>
       <c r="G424" s="43"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11418,10 +11404,8 @@
       <c r="B425" s="6"/>
       <c r="C425" s="62"/>
       <c r="D425" s="43"/>
-      <c r="E425" s="95" t="s">
-        <v>284</v>
-      </c>
-      <c r="F425" s="95"/>
+      <c r="E425" s="87"/>
+      <c r="F425" s="87"/>
       <c r="G425" s="43"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11465,10 +11449,8 @@
       <c r="B430" s="6"/>
       <c r="C430" s="62"/>
       <c r="D430" s="43"/>
-      <c r="E430" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="F430" s="94"/>
+      <c r="E430" s="86"/>
+      <c r="F430" s="86"/>
       <c r="G430" s="43"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -11476,10 +11458,8 @@
       <c r="B431" s="6"/>
       <c r="C431" s="62"/>
       <c r="D431" s="43"/>
-      <c r="E431" s="94" t="s">
-        <v>296</v>
-      </c>
-      <c r="F431" s="94"/>
+      <c r="E431" s="86"/>
+      <c r="F431" s="86"/>
       <c r="G431" s="43"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11853,11 +11833,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E430:F430"/>
-    <mergeCell ref="E431:F431"/>
-    <mergeCell ref="E423:F423"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -11867,6 +11842,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E430:F430"/>
+    <mergeCell ref="E431:F431"/>
+    <mergeCell ref="E423:F423"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="298">
   <si>
     <t>NO</t>
   </si>
@@ -945,6 +945,18 @@
   </si>
   <si>
     <t>a. Motor</t>
+  </si>
+  <si>
+    <t>GIAT RANDOM CHECK "RAPID TEST ANTI GEN"</t>
+  </si>
+  <si>
+    <t>a. Positif</t>
+  </si>
+  <si>
+    <t>b. Negatif</t>
+  </si>
+  <si>
+    <t>VIII</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1530,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1995,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H472"/>
+  <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G426" sqref="G426"/>
+    <sheetView tabSelected="1" topLeftCell="A407" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B436" sqref="B436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11373,40 +11385,88 @@
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="6"/>
-      <c r="B422" s="6"/>
-      <c r="C422" s="43"/>
-      <c r="D422" s="43"/>
-      <c r="E422" s="6"/>
-      <c r="F422" s="44"/>
-      <c r="G422" s="43"/>
+      <c r="A422" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="B422" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C422" s="84"/>
+      <c r="D422" s="65"/>
+      <c r="E422" s="15"/>
+      <c r="F422" s="81"/>
+      <c r="G422" s="78"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="6"/>
-      <c r="B423" s="6"/>
-      <c r="C423" s="62"/>
-      <c r="D423" s="43"/>
-      <c r="E423" s="86"/>
-      <c r="F423" s="86"/>
-      <c r="G423" s="43"/>
+      <c r="A423" s="37"/>
+      <c r="B423" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C423" s="84">
+        <v>0</v>
+      </c>
+      <c r="D423" s="65">
+        <v>0</v>
+      </c>
+      <c r="E423" s="15">
+        <f>D423-C423</f>
+        <v>0</v>
+      </c>
+      <c r="F423" s="81" t="e">
+        <f t="shared" ref="F423:F425" si="47">SUM(D423-C423)/C423*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G423" s="74" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="6"/>
-      <c r="B424" s="6"/>
-      <c r="C424" s="43"/>
-      <c r="D424" s="43"/>
-      <c r="E424" s="86"/>
-      <c r="F424" s="86"/>
-      <c r="G424" s="43"/>
+      <c r="A424" s="37"/>
+      <c r="B424" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C424" s="84">
+        <v>0</v>
+      </c>
+      <c r="D424" s="65">
+        <v>0</v>
+      </c>
+      <c r="E424" s="15">
+        <f t="shared" ref="E424:E425" si="48">D424-C424</f>
+        <v>0</v>
+      </c>
+      <c r="F424" s="81" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G424" s="74" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="6"/>
-      <c r="B425" s="6"/>
-      <c r="C425" s="62"/>
-      <c r="D425" s="43"/>
-      <c r="E425" s="87"/>
-      <c r="F425" s="87"/>
-      <c r="G425" s="43"/>
+      <c r="A425" s="82"/>
+      <c r="B425" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" s="83">
+        <f>SUM(C423:C424)</f>
+        <v>0</v>
+      </c>
+      <c r="D425" s="83">
+        <f>SUM(D423:D424)</f>
+        <v>0</v>
+      </c>
+      <c r="E425" s="15">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="F425" s="81" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G425" s="74" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
@@ -11422,8 +11482,8 @@
       <c r="B427" s="6"/>
       <c r="C427" s="62"/>
       <c r="D427" s="43"/>
-      <c r="E427" s="6"/>
-      <c r="F427" s="44"/>
+      <c r="E427" s="87"/>
+      <c r="F427" s="87"/>
       <c r="G427" s="43"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -11431,14 +11491,14 @@
       <c r="B428" s="6"/>
       <c r="C428" s="62"/>
       <c r="D428" s="43"/>
-      <c r="E428" s="6"/>
-      <c r="F428" s="44"/>
+      <c r="E428" s="87"/>
+      <c r="F428" s="87"/>
       <c r="G428" s="43"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="62"/>
+      <c r="C429" s="43"/>
       <c r="D429" s="43"/>
       <c r="E429" s="6"/>
       <c r="F429" s="44"/>
@@ -11447,19 +11507,19 @@
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
-      <c r="C430" s="62"/>
+      <c r="C430" s="43"/>
       <c r="D430" s="43"/>
-      <c r="E430" s="86"/>
-      <c r="F430" s="86"/>
+      <c r="E430" s="6"/>
+      <c r="F430" s="44"/>
       <c r="G430" s="43"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
-      <c r="C431" s="62"/>
+      <c r="C431" s="43"/>
       <c r="D431" s="43"/>
-      <c r="E431" s="86"/>
-      <c r="F431" s="86"/>
+      <c r="E431" s="6"/>
+      <c r="F431" s="44"/>
       <c r="G431" s="43"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11804,35 +11864,10 @@
       <c r="F469" s="44"/>
       <c r="G469" s="43"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="6"/>
-      <c r="B470" s="6"/>
-      <c r="C470" s="43"/>
-      <c r="D470" s="43"/>
-      <c r="E470" s="6"/>
-      <c r="F470" s="44"/>
-      <c r="G470" s="43"/>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="6"/>
-      <c r="B471" s="6"/>
-      <c r="C471" s="43"/>
-      <c r="D471" s="43"/>
-      <c r="E471" s="6"/>
-      <c r="F471" s="44"/>
-      <c r="G471" s="43"/>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="6"/>
-      <c r="B472" s="6"/>
-      <c r="C472" s="43"/>
-      <c r="D472" s="43"/>
-      <c r="E472" s="6"/>
-      <c r="F472" s="44"/>
-      <c r="G472" s="43"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
+    <mergeCell ref="E427:F427"/>
+    <mergeCell ref="E428:F428"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -11842,11 +11877,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E430:F430"/>
-    <mergeCell ref="E431:F431"/>
-    <mergeCell ref="E423:F423"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -1307,7 +1307,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1534,6 +1534,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1559,6 +1562,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2010,7 +2016,7 @@
   <dimension ref="A1:H469"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B436" sqref="B436"/>
+      <selection activeCell="E435" sqref="E435:F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2025,8 +2031,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="9"/>
@@ -2034,8 +2040,8 @@
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="9"/>
@@ -2043,8 +2049,8 @@
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="9"/>
@@ -2090,36 +2096,36 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="90" t="s">
+      <c r="A9" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="90" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="42">
         <v>2019</v>
       </c>
@@ -2132,7 +2138,7 @@
       <c r="F10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="90"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -11491,8 +11497,8 @@
       <c r="B428" s="6"/>
       <c r="C428" s="62"/>
       <c r="D428" s="43"/>
-      <c r="E428" s="87"/>
-      <c r="F428" s="87"/>
+      <c r="E428" s="88"/>
+      <c r="F428" s="88"/>
       <c r="G428" s="43"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -11500,8 +11506,8 @@
       <c r="B429" s="6"/>
       <c r="C429" s="43"/>
       <c r="D429" s="43"/>
-      <c r="E429" s="6"/>
-      <c r="F429" s="44"/>
+      <c r="E429" s="97"/>
+      <c r="F429" s="97"/>
       <c r="G429" s="43"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -11545,8 +11551,8 @@
       <c r="B434" s="6"/>
       <c r="C434" s="43"/>
       <c r="D434" s="43"/>
-      <c r="E434" s="6"/>
-      <c r="F434" s="44"/>
+      <c r="E434" s="88"/>
+      <c r="F434" s="88"/>
       <c r="G434" s="43"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -11554,8 +11560,8 @@
       <c r="B435" s="6"/>
       <c r="C435" s="43"/>
       <c r="D435" s="43"/>
-      <c r="E435" s="6"/>
-      <c r="F435" s="44"/>
+      <c r="E435" s="88"/>
+      <c r="F435" s="88"/>
       <c r="G435" s="43"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -11865,7 +11871,10 @@
       <c r="G469" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="E429:F429"/>
+    <mergeCell ref="E434:F434"/>
+    <mergeCell ref="E435:F435"/>
     <mergeCell ref="E427:F427"/>
     <mergeCell ref="E428:F428"/>
     <mergeCell ref="A1:B1"/>

--- a/public/template/excel/format_laporan_operasi_2021.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021.xlsx
@@ -1533,11 +1533,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1562,9 +1565,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E435" sqref="E435:F435"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2031,8 +2031,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="9"/>
@@ -2040,8 +2040,8 @@
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="9"/>
@@ -2049,8 +2049,8 @@
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="9"/>
@@ -2096,49 +2096,45 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="91" t="s">
+      <c r="A9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="91" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="42">
-        <v>2019</v>
-      </c>
-      <c r="D10" s="42">
-        <v>2020</v>
-      </c>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -11488,8 +11484,8 @@
       <c r="B427" s="6"/>
       <c r="C427" s="62"/>
       <c r="D427" s="43"/>
-      <c r="E427" s="87"/>
-      <c r="F427" s="87"/>
+      <c r="E427" s="89"/>
+      <c r="F427" s="89"/>
       <c r="G427" s="43"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -11506,8 +11502,8 @@
       <c r="B429" s="6"/>
       <c r="C429" s="43"/>
       <c r="D429" s="43"/>
-      <c r="E429" s="97"/>
-      <c r="F429" s="97"/>
+      <c r="E429" s="87"/>
+      <c r="F429" s="87"/>
       <c r="G429" s="43"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -11872,11 +11868,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E429:F429"/>
-    <mergeCell ref="E434:F434"/>
-    <mergeCell ref="E435:F435"/>
-    <mergeCell ref="E427:F427"/>
-    <mergeCell ref="E428:F428"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -11886,6 +11877,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E429:F429"/>
+    <mergeCell ref="E434:F434"/>
+    <mergeCell ref="E435:F435"/>
+    <mergeCell ref="E427:F427"/>
+    <mergeCell ref="E428:F428"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
